--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SparseGraphDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480B657C-E685-414D-841D-BBAA95B14A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8B8F85-E413-45B0-B3A2-FC57BF8734DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="27">
   <si>
     <t>源域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,35 +67,67 @@
     <t>ratiodel_dblp0.2_3</t>
   </si>
   <si>
-    <t>UDAGCN：训练集采样比例为0.8，测试集为0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">best:0.8327→0.7772| last: 0.8286→0.7157 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ratiodel_dblp0.2_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>best:0.2166→0.1664| last: 0.2166→0.1664</t>
+    <t>ratiodel_dblp0.2_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">best:0.9884→0.7239| last: 0.9812→0.4478 </t>
+    <t>ratiodel_dblp0.2_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>best:0.9875→0.6489| last: 0.9857→0.5476</t>
+    <t>del_acm0.2_1</t>
+  </si>
+  <si>
+    <t>del_acm0.2_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>best:0.9884→0.6138| last: 0.9830→0.4530</t>
+    <t>del_acm0.2_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>best:0.9866→0.6502| last: 0.9839→0.4690</t>
+    <t>del_acm0.2_3</t>
+  </si>
+  <si>
+    <t>del_acm0.2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_dblp0.2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_dblp0.2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_dblp0.2_3</t>
+  </si>
+  <si>
+    <t>del_dblp0.2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>best</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratiodel_acm0.2_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +157,49 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,8 +212,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -172,11 +251,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -185,16 +398,398 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -477,213 +1072,3585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <pane xSplit="1" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BO35" sqref="BO35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
-    <col min="8" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="5" style="101" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="101" customWidth="1"/>
+    <col min="4" max="4" width="3" style="101" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="101" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="12" max="12" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" customWidth="1"/>
+    <col min="16" max="16" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" customWidth="1"/>
+    <col min="20" max="20" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5" customWidth="1"/>
+    <col min="24" max="24" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" customWidth="1"/>
+    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5" customWidth="1"/>
+    <col min="28" max="28" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5" customWidth="1"/>
+    <col min="30" max="30" width="5" style="101" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7" style="101" customWidth="1"/>
+    <col min="32" max="32" width="3.375" style="101" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.875" style="101" customWidth="1"/>
+    <col min="34" max="34" width="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.5" customWidth="1"/>
+    <col min="36" max="36" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.5" customWidth="1"/>
+    <col min="38" max="38" width="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.5" customWidth="1"/>
+    <col min="40" max="40" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.5" customWidth="1"/>
+    <col min="42" max="42" width="5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.5" customWidth="1"/>
+    <col min="44" max="44" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.5" customWidth="1"/>
+    <col min="46" max="46" width="5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.5" customWidth="1"/>
+    <col min="48" max="48" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.5" customWidth="1"/>
+    <col min="50" max="50" width="5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.5" customWidth="1"/>
+    <col min="52" max="52" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.5" customWidth="1"/>
+    <col min="54" max="54" width="5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="109" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC1" s="59"/>
+      <c r="BD1" s="59"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="113"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="61"/>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="61"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+    </row>
+    <row r="3" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="115">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="AF3" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG3" s="116">
+        <v>0.72389999999999999</v>
+      </c>
+      <c r="AH3" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI3" s="115">
+        <v>0.73660000000000003</v>
+      </c>
+      <c r="AJ3" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK3" s="133">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="AL3" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM3" s="115">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="AN3" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO3" s="133">
+        <v>0.72589999999999999</v>
+      </c>
+      <c r="AP3" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ3" s="115">
+        <v>0.7177</v>
+      </c>
+      <c r="AR3" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS3" s="133">
+        <v>0.75</v>
+      </c>
+      <c r="AT3" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU3" s="135">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AV3" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW3" s="137">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AX3" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY3" s="135">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AZ3" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA3" s="137">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BB3" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC3" s="135">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BD3" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE3" s="137">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BF3" s="138"/>
+      <c r="BG3" s="138"/>
+      <c r="BH3" s="138"/>
+      <c r="BI3" s="138"/>
+    </row>
+    <row r="4" spans="1:66" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="139"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="141"/>
+      <c r="T4" s="141"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="141"/>
+      <c r="X4" s="141"/>
+      <c r="Y4" s="142"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="141"/>
+      <c r="AB4" s="141"/>
+      <c r="AC4" s="141"/>
+      <c r="AD4" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="118">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="AF4" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG4" s="119">
+        <v>0.44779999999999998</v>
+      </c>
+      <c r="AH4" s="143" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI4" s="103">
+        <v>0.69979999999999998</v>
+      </c>
+      <c r="AJ4" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK4" s="145">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="AL4" s="143" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM4" s="103">
+        <v>0.72040000000000004</v>
+      </c>
+      <c r="AN4" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO4" s="145">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="AP4" s="143" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ4" s="103">
+        <v>0.71860000000000002</v>
+      </c>
+      <c r="AR4" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS4" s="145">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="AT4" s="146" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU4" s="147">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AV4" s="148" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW4" s="149">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AX4" s="146" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY4" s="147">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AZ4" s="148" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA4" s="149">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BB4" s="146" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC4" s="147">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BD4" s="148" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE4" s="149">
+        <v>0.20269999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A5" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="128"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="115">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="AF5" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG5" s="116">
+        <v>0.6502</v>
+      </c>
+      <c r="AH5" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI5" s="38">
+        <v>0.8226</v>
+      </c>
+      <c r="AJ5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK5" s="37">
+        <v>0.65610000000000002</v>
+      </c>
+      <c r="AL5" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM5" s="38">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="AN5" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO5" s="37">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="AP5" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ5" s="38">
+        <v>0.81269999999999998</v>
+      </c>
+      <c r="AR5" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS5" s="37">
+        <v>0.67349999999999999</v>
+      </c>
+      <c r="AT5" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU5" s="81">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AV5" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW5" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AX5" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY5" s="81">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AZ5" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA5" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BB5" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC5" s="81">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BD5" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE5" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A6" s="86"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE6" s="118">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="AF6" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG6" s="119">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="AH6" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI6" s="39">
+        <v>0.70609999999999995</v>
+      </c>
+      <c r="AJ6" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK6" s="79">
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="AL6" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM6" s="39">
+        <v>0.72489999999999999</v>
+      </c>
+      <c r="AN6" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO6" s="79">
+        <v>0.63290000000000002</v>
+      </c>
+      <c r="AP6" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ6" s="39">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="AR6" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS6" s="79">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="AT6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU6" s="48">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AV6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW6" s="90">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AX6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY6" s="48">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AZ6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA6" s="90">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BB6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC6" s="48">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BD6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE6" s="90">
+        <v>0.20269999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="128"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="115">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="AF7" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG7" s="116">
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="AH7" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI7" s="38">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="AJ7" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK7" s="37">
+        <v>0.65510000000000002</v>
+      </c>
+      <c r="AL7" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM7" s="38">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="AN7" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO7" s="37">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="AP7" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ7" s="38">
+        <v>0.81720000000000004</v>
+      </c>
+      <c r="AR7" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS7" s="37">
+        <v>0.6845</v>
+      </c>
+      <c r="AT7" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU7" s="81">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AV7" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW7" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AX7" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY7" s="81">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AZ7" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA7" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BB7" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC7" s="81">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BD7" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE7" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE8" s="118">
+        <v>0.9839</v>
+      </c>
+      <c r="AF8" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG8" s="119">
+        <v>0.47989999999999999</v>
+      </c>
+      <c r="AH8" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI8" s="39">
+        <v>0.68279999999999996</v>
+      </c>
+      <c r="AJ8" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK8" s="79">
+        <v>0.49259999999999998</v>
+      </c>
+      <c r="AL8" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM8" s="39">
+        <v>0.70609999999999995</v>
+      </c>
+      <c r="AN8" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO8" s="79">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AP8" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ8" s="39">
+        <v>0.70609999999999995</v>
+      </c>
+      <c r="AR8" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS8" s="79">
+        <v>0.54930000000000001</v>
+      </c>
+      <c r="AT8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU8" s="48">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AV8" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW8" s="90">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AX8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY8" s="48">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AZ8" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA8" s="90">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BB8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC8" s="48">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BD8" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE8" s="90">
+        <v>0.20269999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A9" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="115">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="AF9" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG9" s="116">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="AH9" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI9" s="38">
+        <v>0.81630000000000003</v>
+      </c>
+      <c r="AJ9" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK9" s="37">
+        <v>0.6734</v>
+      </c>
+      <c r="AL9" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM9" s="38">
+        <v>0.70069999999999999</v>
+      </c>
+      <c r="AN9" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO9" s="37">
+        <v>0.67520000000000002</v>
+      </c>
+      <c r="AP9" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ9" s="38">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="AR9" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS9" s="37">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="AT9" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU9" s="81">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AV9" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW9" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AX9" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY9" s="81">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AZ9" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA9" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BB9" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC9" s="81">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BD9" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE9" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A10" s="86"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE10" s="118">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="AF10" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG10" s="119">
+        <v>0.49569999999999997</v>
+      </c>
+      <c r="AH10" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI10" s="39">
+        <v>0.7177</v>
+      </c>
+      <c r="AJ10" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK10" s="79">
+        <v>0.61150000000000004</v>
+      </c>
+      <c r="AL10" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM10" s="39">
+        <v>0.73660000000000003</v>
+      </c>
+      <c r="AN10" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO10" s="79">
+        <v>0.62480000000000002</v>
+      </c>
+      <c r="AP10" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ10" s="39">
+        <v>0.71330000000000005</v>
+      </c>
+      <c r="AR10" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS10" s="79">
+        <v>0.56820000000000004</v>
+      </c>
+      <c r="AT10" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU10" s="48">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AV10" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW10" s="90">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AX10" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY10" s="48">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AZ10" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA10" s="90">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BB10" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC10" s="48">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BD10" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE10" s="90">
+        <v>0.20269999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A11" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE11" s="115">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="AF11" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG11" s="120">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="AH11" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI11" s="38">
+        <v>0.83960000000000001</v>
+      </c>
+      <c r="AJ11" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK11" s="37">
+        <v>0.62160000000000004</v>
+      </c>
+      <c r="AL11" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM11" s="38">
+        <v>0.76080000000000003</v>
+      </c>
+      <c r="AN11" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO11" s="37">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="AP11" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ11" s="38">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="AR11" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS11" s="37">
+        <v>0.62790000000000001</v>
+      </c>
+      <c r="AT11" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU11" s="81">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AV11" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW11" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AX11" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY11" s="81">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AZ11" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA11" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BB11" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC11" s="81">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BD11" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE11" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="86"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE12" s="118">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="AF12" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG12" s="121">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="AH12" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI12" s="39">
+        <v>0.7097</v>
+      </c>
+      <c r="AJ12" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK12" s="79">
+        <v>0.51819999999999999</v>
+      </c>
+      <c r="AL12" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM12" s="39">
+        <v>0.70879999999999999</v>
+      </c>
+      <c r="AN12" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO12" s="79">
+        <v>0.58189999999999997</v>
+      </c>
+      <c r="AP12" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ12" s="39">
+        <v>0.6855</v>
+      </c>
+      <c r="AR12" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS12" s="79">
+        <v>0.52110000000000001</v>
+      </c>
+      <c r="AT12" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU12" s="83">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AV12" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW12" s="84">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AX12" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY12" s="83">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AZ12" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA12" s="84">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BB12" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC12" s="83">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BD12" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE12" s="84">
+        <v>0.20269999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE13" s="115">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="AF13" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG13" s="120">
+        <v>0.61380000000000001</v>
+      </c>
+      <c r="AH13" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI13" s="38">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="AJ13" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK13" s="37">
+        <v>0.59660000000000002</v>
+      </c>
+      <c r="AL13" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM13" s="38">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="AN13" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO13" s="37">
+        <v>0.627</v>
+      </c>
+      <c r="AP13" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ13" s="38">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="AR13" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS13" s="37">
+        <v>0.6331</v>
+      </c>
+      <c r="AT13" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU13" s="81">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AV13" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW13" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AX13" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY13" s="81">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AZ13" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA13" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BB13" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC13" s="81">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BD13" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE13" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE14" s="122">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="AF14" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG14" s="121">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AH14" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI14" s="39">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="AJ14" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK14" s="79">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="AL14" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM14" s="39">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AN14" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO14" s="79">
+        <v>0.59689999999999999</v>
+      </c>
+      <c r="AP14" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ14" s="39">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AR14" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS14" s="79">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="AT14" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU14" s="83">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AV14" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW14" s="84">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AX14" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY14" s="83">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AZ14" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA14" s="84">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BB14" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC14" s="83">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BD14" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE14" s="84">
+        <v>0.20269999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A15" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B15" s="159"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE15" s="123">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="AF15" s="115" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG15" s="120">
+        <v>0.6502</v>
+      </c>
+      <c r="AH15" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI15" s="38">
+        <v>0.8226</v>
+      </c>
+      <c r="AJ15" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK15" s="37">
+        <v>0.63229999999999997</v>
+      </c>
+      <c r="AL15" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM15" s="38">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="AN15" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO15" s="37">
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="AP15" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ15" s="38">
+        <v>0.81630000000000003</v>
+      </c>
+      <c r="AR15" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS15" s="37">
+        <v>0.63</v>
+      </c>
+      <c r="AT15" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU15" s="81">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AV15" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW15" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AX15" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY15" s="81">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AZ15" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA15" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BB15" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC15" s="81">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BD15" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE15" s="82">
+        <v>0.20269999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="86"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE16" s="118">
+        <v>0.9839</v>
+      </c>
+      <c r="AF16" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG16" s="121">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="AH16" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI16" s="39">
+        <v>0.76519999999999999</v>
+      </c>
+      <c r="AJ16" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK16" s="79">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="AL16" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM16" s="39">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="AN16" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO16" s="79">
+        <v>0.54369999999999996</v>
+      </c>
+      <c r="AP16" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ16" s="39">
+        <v>0.70609999999999995</v>
+      </c>
+      <c r="AR16" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS16" s="79">
+        <v>0.56459999999999999</v>
+      </c>
+      <c r="AT16" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU16" s="83">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AV16" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW16" s="84">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AX16" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY16" s="83">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="AZ16" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA16" s="84">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="BB16" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC16" s="83">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="BD16" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE16" s="84">
+        <v>0.20269999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B17" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="93">
+        <v>0.8327</v>
+      </c>
+      <c r="D17" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="94">
+        <v>0.7772</v>
+      </c>
+      <c r="F17" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="93">
+        <v>0.73009999999999997</v>
+      </c>
+      <c r="H17" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="94">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="J17" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="93">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="L17" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="94">
+        <v>0.65529999999999999</v>
+      </c>
+      <c r="N17" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="93">
+        <v>0.73009999999999997</v>
+      </c>
+      <c r="P17" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="95">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="R17" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="93">
+        <v>0.69910000000000005</v>
+      </c>
+      <c r="T17" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" s="94">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="V17" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="W17" s="93">
+        <v>0.71589999999999998</v>
+      </c>
+      <c r="X17" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y17" s="94">
+        <v>0.81140000000000001</v>
+      </c>
+      <c r="Z17" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA17" s="93">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="AB17" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC17" s="95">
+        <v>0.80230000000000001</v>
+      </c>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="97"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="99"/>
+      <c r="AJ17" s="96"/>
+      <c r="AK17" s="96"/>
+      <c r="AL17" s="98"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="96"/>
+      <c r="AO17" s="96"/>
+      <c r="AP17" s="98"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="96"/>
+      <c r="AS17" s="100"/>
+      <c r="AT17" s="98"/>
+      <c r="AU17" s="99"/>
+      <c r="AV17" s="96"/>
+      <c r="AW17" s="96"/>
+      <c r="AX17" s="98"/>
+      <c r="AY17" s="99"/>
+      <c r="AZ17" s="96"/>
+      <c r="BA17" s="96"/>
+      <c r="BB17" s="98"/>
+      <c r="BC17" s="99"/>
+      <c r="BD17" s="96"/>
+      <c r="BE17" s="100"/>
+    </row>
+    <row r="18" spans="1:57" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="102"/>
+      <c r="B18" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="171">
+        <v>0.8286</v>
+      </c>
+      <c r="D18" s="172" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="173">
+        <v>0.7157</v>
+      </c>
+      <c r="F18" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="171">
+        <v>0.72060000000000002</v>
+      </c>
+      <c r="H18" s="172" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="173">
+        <v>0.68369999999999997</v>
+      </c>
+      <c r="J18" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="171">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="L18" s="172" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="173">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="N18" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="171">
+        <v>0.70720000000000005</v>
+      </c>
+      <c r="P18" s="172" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="174">
+        <v>0.42109999999999997</v>
+      </c>
+      <c r="R18" s="175" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="176">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="T18" s="177" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" s="178">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="V18" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="W18" s="171">
+        <v>0.68620000000000003</v>
+      </c>
+      <c r="X18" s="172" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y18" s="173">
+        <v>0.50339999999999996</v>
+      </c>
+      <c r="Z18" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA18" s="171">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="AB18" s="172" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC18" s="174">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="96"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="105"/>
+      <c r="AJ18" s="106"/>
+      <c r="AK18" s="107"/>
+      <c r="AL18" s="104"/>
+      <c r="AM18" s="105"/>
+      <c r="AN18" s="106"/>
+      <c r="AO18" s="107"/>
+      <c r="AP18" s="104"/>
+      <c r="AQ18" s="105"/>
+      <c r="AR18" s="106"/>
+      <c r="AS18" s="108"/>
+      <c r="AT18" s="104"/>
+      <c r="AU18" s="105"/>
+      <c r="AV18" s="106"/>
+      <c r="AW18" s="107"/>
+      <c r="AX18" s="104"/>
+      <c r="AY18" s="105"/>
+      <c r="AZ18" s="106"/>
+      <c r="BA18" s="107"/>
+      <c r="BB18" s="104"/>
+      <c r="BC18" s="105"/>
+      <c r="BD18" s="106"/>
+      <c r="BE18" s="108"/>
+    </row>
+    <row r="19" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="165">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="D19" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="132">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="52">
+        <v>0.747</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="53">
+        <v>0.5504</v>
+      </c>
+      <c r="J19" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="52">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="L19" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="53">
+        <v>0.54769999999999996</v>
+      </c>
+      <c r="N19" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="52">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="P19" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="53">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="R19" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="52">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="T19" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="U19" s="54">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="V19" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="W19" s="52">
+        <v>0.75639999999999996</v>
+      </c>
+      <c r="X19" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y19" s="53">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="Z19" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA19" s="52">
+        <v>0.71730000000000005</v>
+      </c>
+      <c r="AB19" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC19" s="54">
+        <v>0.48659999999999998</v>
+      </c>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124"/>
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="96"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="64"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="64"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="63"/>
+      <c r="AU19" s="64"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="63"/>
+      <c r="AY19" s="64"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="63"/>
+      <c r="BC19" s="64"/>
+      <c r="BD19" s="65"/>
+      <c r="BE19" s="65"/>
+    </row>
+    <row r="20" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="88"/>
+      <c r="B20" s="179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="180">
+        <v>0.83740000000000003</v>
+      </c>
+      <c r="D20" s="181" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="182">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="F20" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="184">
+        <v>0.7429</v>
+      </c>
+      <c r="H20" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="186">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="J20" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="184">
+        <v>0.7571</v>
+      </c>
+      <c r="L20" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="186">
+        <v>0.47710000000000002</v>
+      </c>
+      <c r="N20" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="184">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="P20" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="186">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="R20" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="184">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="T20" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20" s="187">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="V20" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="W20" s="184">
+        <v>0.6835</v>
+      </c>
+      <c r="X20" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y20" s="186">
+        <v>0.44550000000000001</v>
+      </c>
+      <c r="Z20" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA20" s="184">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="AB20" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC20" s="188">
+        <v>0.45839999999999997</v>
+      </c>
+      <c r="AD20" s="125"/>
+      <c r="AE20" s="125"/>
+      <c r="AF20" s="125"/>
+      <c r="AG20" s="96"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="67"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="67"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="68"/>
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="67"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="68"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="67"/>
+      <c r="AV20" s="62"/>
+      <c r="AW20" s="68"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="67"/>
+      <c r="AZ20" s="62"/>
+      <c r="BA20" s="68"/>
+      <c r="BB20" s="66"/>
+      <c r="BC20" s="67"/>
+      <c r="BD20" s="62"/>
+      <c r="BE20" s="68"/>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A21" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="165">
+        <v>0.85829999999999995</v>
+      </c>
+      <c r="D21" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="132">
+        <v>0.56289999999999996</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="52">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="53">
+        <v>0.5907</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="52">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="L21" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="53">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="N21" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="52">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="P21" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="53">
+        <v>0.59230000000000005</v>
+      </c>
+      <c r="R21" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="52">
+        <v>0.69569999999999999</v>
+      </c>
+      <c r="T21" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="U21" s="54">
+        <v>0.56830000000000003</v>
+      </c>
+      <c r="V21" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21" s="52">
+        <v>0.70509999999999995</v>
+      </c>
+      <c r="X21" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y21" s="53">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="Z21" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA21" s="52">
+        <v>0.71460000000000001</v>
+      </c>
+      <c r="AB21" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC21" s="54">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="AD21" s="124"/>
+      <c r="AE21" s="124"/>
+      <c r="AF21" s="124"/>
+      <c r="AG21" s="96"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="64"/>
+      <c r="AJ21" s="65"/>
+      <c r="AK21" s="65"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="64"/>
+      <c r="AN21" s="65"/>
+      <c r="AO21" s="65"/>
+      <c r="AP21" s="63"/>
+      <c r="AQ21" s="64"/>
+      <c r="AR21" s="65"/>
+      <c r="AS21" s="65"/>
+      <c r="AT21" s="63"/>
+      <c r="AU21" s="64"/>
+      <c r="AV21" s="65"/>
+      <c r="AW21" s="65"/>
+      <c r="AX21" s="63"/>
+      <c r="AY21" s="64"/>
+      <c r="AZ21" s="65"/>
+      <c r="BA21" s="65"/>
+      <c r="BB21" s="63"/>
+      <c r="BC21" s="64"/>
+      <c r="BD21" s="65"/>
+      <c r="BE21" s="65"/>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A22" s="88"/>
+      <c r="B22" s="179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="180">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="D22" s="181" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="182">
+        <v>0.43169999999999997</v>
+      </c>
+      <c r="F22" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="184">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="H22" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="186">
+        <v>0.55920000000000003</v>
+      </c>
+      <c r="J22" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="184">
+        <v>0.74829999999999997</v>
+      </c>
+      <c r="L22" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="186">
+        <v>0.47020000000000001</v>
+      </c>
+      <c r="N22" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="184">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="P22" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="186">
+        <v>0.45679999999999998</v>
+      </c>
+      <c r="R22" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="184">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="T22" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="U22" s="187">
+        <v>0.55089999999999995</v>
+      </c>
+      <c r="V22" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="W22" s="184">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="X22" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y22" s="186">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="Z22" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA22" s="184">
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="AB22" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC22" s="188">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="AD22" s="125"/>
+      <c r="AE22" s="125"/>
+      <c r="AF22" s="125"/>
+      <c r="AG22" s="96"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="67"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="68"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="67"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="68"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="67"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="68"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="67"/>
+      <c r="AV22" s="62"/>
+      <c r="AW22" s="68"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="67"/>
+      <c r="AZ22" s="62"/>
+      <c r="BA22" s="68"/>
+      <c r="BB22" s="66"/>
+      <c r="BC22" s="67"/>
+      <c r="BD22" s="62"/>
+      <c r="BE22" s="68"/>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A23" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="165">
+        <v>0.8387</v>
+      </c>
+      <c r="D23" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="166">
+        <v>0.58930000000000005</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="57">
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="H23" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="58">
+        <v>0.5544</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="52">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="L23" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="54">
+        <v>0.5353</v>
+      </c>
+      <c r="N23" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="52">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="P23" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="53">
+        <v>0.50970000000000004</v>
+      </c>
+      <c r="R23" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="S23" s="52">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="T23" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23" s="54">
+        <v>0.55740000000000001</v>
+      </c>
+      <c r="V23" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="W23" s="52">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="X23" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y23" s="53">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="Z23" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA23" s="52">
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="AB23" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC23" s="54">
+        <v>0.56059999999999999</v>
+      </c>
+      <c r="AD23" s="124"/>
+      <c r="AE23" s="124"/>
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="96"/>
+      <c r="AH23" s="61"/>
+      <c r="AI23" s="61"/>
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="69"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="64"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="70"/>
+      <c r="AP23" s="63"/>
+      <c r="AQ23" s="64"/>
+      <c r="AR23" s="65"/>
+      <c r="AS23" s="65"/>
+      <c r="AT23" s="61"/>
+      <c r="AU23" s="61"/>
+      <c r="AV23" s="69"/>
+      <c r="AW23" s="69"/>
+      <c r="AX23" s="63"/>
+      <c r="AY23" s="64"/>
+      <c r="AZ23" s="65"/>
+      <c r="BA23" s="70"/>
+      <c r="BB23" s="63"/>
+      <c r="BC23" s="64"/>
+      <c r="BD23" s="65"/>
+      <c r="BE23" s="65"/>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A24" s="86"/>
+      <c r="B24" s="179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="180">
+        <v>0.83</v>
+      </c>
+      <c r="D24" s="181" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="189">
+        <v>0.46829999999999999</v>
+      </c>
+      <c r="F24" s="190" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="190">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="H24" s="191" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="192">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="J24" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="184">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="L24" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="188">
+        <v>0.46</v>
+      </c>
+      <c r="N24" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="184">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="P24" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="186">
+        <v>0.41410000000000002</v>
+      </c>
+      <c r="R24" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="184">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="T24" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="187">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="V24" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="W24" s="184">
+        <v>0.68759999999999999</v>
+      </c>
+      <c r="X24" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y24" s="186">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="Z24" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA24" s="184">
+        <v>0.69369999999999998</v>
+      </c>
+      <c r="AB24" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC24" s="188">
+        <v>0.40660000000000002</v>
+      </c>
+      <c r="AD24" s="125"/>
+      <c r="AE24" s="125"/>
+      <c r="AF24" s="125"/>
+      <c r="AG24" s="96"/>
+      <c r="AH24" s="61"/>
+      <c r="AI24" s="61"/>
+      <c r="AJ24" s="69"/>
+      <c r="AK24" s="71"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="67"/>
+      <c r="AN24" s="62"/>
+      <c r="AO24" s="72"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="67"/>
+      <c r="AR24" s="62"/>
+      <c r="AS24" s="68"/>
+      <c r="AT24" s="61"/>
+      <c r="AU24" s="61"/>
+      <c r="AV24" s="69"/>
+      <c r="AW24" s="71"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="67"/>
+      <c r="AZ24" s="62"/>
+      <c r="BA24" s="72"/>
+      <c r="BB24" s="66"/>
+      <c r="BC24" s="67"/>
+      <c r="BD24" s="62"/>
+      <c r="BE24" s="68"/>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A25" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="167">
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="D25" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="136">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="44">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="45">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="44">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="L25" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="45">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="N25" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="44">
+        <v>0.1903</v>
+      </c>
+      <c r="P25" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="45">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="R25" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="44">
+        <v>0.2024</v>
+      </c>
+      <c r="T25" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25" s="46">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="V25" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="44">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="X25" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y25" s="45">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="Z25" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA25" s="44">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="AB25" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC25" s="46">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="AD25" s="124"/>
+      <c r="AE25" s="124"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="96"/>
+      <c r="AH25" s="73"/>
+      <c r="AI25" s="74"/>
+      <c r="AJ25" s="75"/>
+      <c r="AK25" s="75"/>
+      <c r="AL25" s="73"/>
+      <c r="AM25" s="74"/>
+      <c r="AN25" s="75"/>
+      <c r="AO25" s="75"/>
+      <c r="AP25" s="73"/>
+      <c r="AQ25" s="74"/>
+      <c r="AR25" s="75"/>
+      <c r="AS25" s="75"/>
+      <c r="AT25" s="73"/>
+      <c r="AU25" s="74"/>
+      <c r="AV25" s="75"/>
+      <c r="AW25" s="75"/>
+      <c r="AX25" s="73"/>
+      <c r="AY25" s="74"/>
+      <c r="AZ25" s="75"/>
+      <c r="BA25" s="75"/>
+      <c r="BB25" s="73"/>
+      <c r="BC25" s="74"/>
+      <c r="BD25" s="75"/>
+      <c r="BE25" s="75"/>
+    </row>
+    <row r="26" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="88"/>
+      <c r="B26" s="193" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="194">
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="D26" s="195" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="195">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="F26" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="197">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="H26" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="198">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="J26" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="197">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="L26" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="198">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="N26" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="197">
+        <v>0.1903</v>
+      </c>
+      <c r="P26" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="198">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="R26" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="197">
+        <v>0.2024</v>
+      </c>
+      <c r="T26" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="U26" s="199">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="V26" s="197" t="s">
+        <v>24</v>
+      </c>
+      <c r="W26" s="197">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="X26" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y26" s="200">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="Z26" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA26" s="197">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="AB26" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC26" s="201">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="AD26" s="125"/>
+      <c r="AE26" s="125"/>
+      <c r="AF26" s="125"/>
+      <c r="AG26" s="96"/>
+      <c r="AH26" s="76"/>
+      <c r="AI26" s="77"/>
+      <c r="AJ26" s="78"/>
+      <c r="AK26" s="78"/>
+      <c r="AL26" s="76"/>
+      <c r="AM26" s="77"/>
+      <c r="AN26" s="78"/>
+      <c r="AO26" s="78"/>
+      <c r="AP26" s="76"/>
+      <c r="AQ26" s="77"/>
+      <c r="AR26" s="78"/>
+      <c r="AS26" s="78"/>
+      <c r="AT26" s="76"/>
+      <c r="AU26" s="77"/>
+      <c r="AV26" s="78"/>
+      <c r="AW26" s="78"/>
+      <c r="AX26" s="76"/>
+      <c r="AY26" s="77"/>
+      <c r="AZ26" s="78"/>
+      <c r="BA26" s="78"/>
+      <c r="BB26" s="76"/>
+      <c r="BC26" s="77"/>
+      <c r="BD26" s="78"/>
+      <c r="BE26" s="78"/>
+    </row>
+    <row r="27" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="5" t="s">
+      <c r="B27" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="167">
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="D27" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="136">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="44">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="45">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="44">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="L27" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="45">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="N27" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="44">
+        <v>0.1903</v>
+      </c>
+      <c r="P27" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="45">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="R27" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="44">
+        <v>0.2024</v>
+      </c>
+      <c r="T27" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27" s="46">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="V27" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="W27" s="44">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="X27" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y27" s="45">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="Z27" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA27" s="44">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="AB27" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC27" s="46">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="AD27" s="124"/>
+      <c r="AE27" s="124"/>
+      <c r="AF27" s="124"/>
+      <c r="AG27" s="96"/>
+      <c r="AH27" s="73"/>
+      <c r="AI27" s="74"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="75"/>
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="74"/>
+      <c r="AN27" s="75"/>
+      <c r="AO27" s="75"/>
+      <c r="AP27" s="73"/>
+      <c r="AQ27" s="74"/>
+      <c r="AR27" s="75"/>
+      <c r="AS27" s="75"/>
+      <c r="AT27" s="73"/>
+      <c r="AU27" s="74"/>
+      <c r="AV27" s="75"/>
+      <c r="AW27" s="75"/>
+      <c r="AX27" s="73"/>
+      <c r="AY27" s="74"/>
+      <c r="AZ27" s="75"/>
+      <c r="BA27" s="75"/>
+      <c r="BB27" s="73"/>
+      <c r="BC27" s="74"/>
+      <c r="BD27" s="75"/>
+      <c r="BE27" s="75"/>
+    </row>
+    <row r="28" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="88"/>
+      <c r="B28" s="193" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="194">
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="D28" s="195" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="195">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="F28" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="197">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="H28" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="198">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="J28" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="197">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="L28" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="198">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="N28" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="197">
+        <v>0.1903</v>
+      </c>
+      <c r="P28" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="198">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="R28" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" s="197">
+        <v>0.2024</v>
+      </c>
+      <c r="T28" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="U28" s="199">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="V28" s="197" t="s">
+        <v>24</v>
+      </c>
+      <c r="W28" s="197">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="X28" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y28" s="200">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="Z28" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA28" s="197">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="AB28" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC28" s="201">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="AD28" s="125"/>
+      <c r="AE28" s="125"/>
+      <c r="AF28" s="125"/>
+      <c r="AG28" s="96"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="77"/>
+      <c r="AJ28" s="78"/>
+      <c r="AK28" s="78"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="77"/>
+      <c r="AN28" s="78"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="77"/>
+      <c r="AR28" s="78"/>
+      <c r="AS28" s="78"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="77"/>
+      <c r="AV28" s="78"/>
+      <c r="AW28" s="78"/>
+      <c r="AX28" s="76"/>
+      <c r="AY28" s="77"/>
+      <c r="AZ28" s="78"/>
+      <c r="BA28" s="78"/>
+      <c r="BB28" s="76"/>
+      <c r="BC28" s="77"/>
+      <c r="BD28" s="78"/>
+      <c r="BE28" s="78"/>
+    </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A29" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="B29" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="167">
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="D29" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="136">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="44">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="45">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="44">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="L29" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="45">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="N29" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="44">
+        <v>0.1903</v>
+      </c>
+      <c r="P29" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="45">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="R29" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="44">
+        <v>0.2024</v>
+      </c>
+      <c r="T29" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="U29" s="46">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="V29" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="W29" s="44">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="X29" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y29" s="45">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="Z29" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA29" s="44">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="AB29" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC29" s="46">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="AD29" s="124"/>
+      <c r="AE29" s="124"/>
+      <c r="AF29" s="124"/>
+      <c r="AG29" s="96"/>
+      <c r="AH29" s="73"/>
+      <c r="AI29" s="74"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="75"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="75"/>
+      <c r="AP29" s="73"/>
+      <c r="AQ29" s="74"/>
+      <c r="AR29" s="75"/>
+      <c r="AS29" s="75"/>
+      <c r="AT29" s="73"/>
+      <c r="AU29" s="74"/>
+      <c r="AV29" s="75"/>
+      <c r="AW29" s="75"/>
+      <c r="AX29" s="73"/>
+      <c r="AY29" s="74"/>
+      <c r="AZ29" s="75"/>
+      <c r="BA29" s="75"/>
+      <c r="BB29" s="73"/>
+      <c r="BC29" s="74"/>
+      <c r="BD29" s="75"/>
+      <c r="BE29" s="75"/>
+    </row>
+    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A30" s="88"/>
+      <c r="B30" s="193" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="194">
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="D30" s="195" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="195">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="F30" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="197">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="H30" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="198">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="J30" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="197">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="L30" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="198">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="N30" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="197">
+        <v>0.1903</v>
+      </c>
+      <c r="P30" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="198">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="R30" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="197">
+        <v>0.2024</v>
+      </c>
+      <c r="T30" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="U30" s="199">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="V30" s="197" t="s">
+        <v>24</v>
+      </c>
+      <c r="W30" s="197">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="X30" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y30" s="200">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="Z30" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA30" s="197">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="AB30" s="198" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC30" s="201">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="AD30" s="125"/>
+      <c r="AE30" s="125"/>
+      <c r="AF30" s="125"/>
+      <c r="AG30" s="96"/>
+      <c r="AH30" s="76"/>
+      <c r="AI30" s="77"/>
+      <c r="AJ30" s="78"/>
+      <c r="AK30" s="78"/>
+      <c r="AL30" s="76"/>
+      <c r="AM30" s="77"/>
+      <c r="AN30" s="78"/>
+      <c r="AO30" s="78"/>
+      <c r="AP30" s="76"/>
+      <c r="AQ30" s="77"/>
+      <c r="AR30" s="78"/>
+      <c r="AS30" s="78"/>
+      <c r="AT30" s="76"/>
+      <c r="AU30" s="77"/>
+      <c r="AV30" s="78"/>
+      <c r="AW30" s="78"/>
+      <c r="AX30" s="76"/>
+      <c r="AY30" s="77"/>
+      <c r="AZ30" s="78"/>
+      <c r="BA30" s="78"/>
+      <c r="BB30" s="76"/>
+      <c r="BC30" s="77"/>
+      <c r="BD30" s="78"/>
+      <c r="BE30" s="78"/>
+    </row>
+    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="D31" s="168"/>
+      <c r="AG31" s="126"/>
+    </row>
+    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="D32" s="168"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="168"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="169"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="169"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="169"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A10"/>
+  <mergeCells count="75">
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -696,7 +4663,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41851\Desktop\IncompleteGraphDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC4C257-C904-43F2-A070-C010C6F7B2C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F75F4E-F43C-4A7A-935D-E023F9ABF502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1次实验" sheetId="1" r:id="rId1"/>
@@ -713,128 +713,128 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1117,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E17" sqref="C17:E17"/>
     </sheetView>
@@ -1187,123 +1187,123 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="161" t="s">
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="161" t="s">
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="161" t="s">
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="161" t="s">
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="161" t="s">
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="159"/>
+      <c r="V1" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="162"/>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="161" t="s">
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="159"/>
+      <c r="Z1" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="139" t="s">
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="159"/>
+      <c r="AD1" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="173" t="s">
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="150"/>
+      <c r="AH1" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="174"/>
-      <c r="AJ1" s="174"/>
-      <c r="AK1" s="175"/>
-      <c r="AL1" s="173" t="s">
+      <c r="AI1" s="146"/>
+      <c r="AJ1" s="146"/>
+      <c r="AK1" s="147"/>
+      <c r="AL1" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="174"/>
-      <c r="AN1" s="174"/>
-      <c r="AO1" s="175"/>
-      <c r="AP1" s="173" t="s">
+      <c r="AM1" s="146"/>
+      <c r="AN1" s="146"/>
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="AQ1" s="174"/>
-      <c r="AR1" s="174"/>
-      <c r="AS1" s="175"/>
-      <c r="AT1" s="170" t="s">
+      <c r="AQ1" s="146"/>
+      <c r="AR1" s="146"/>
+      <c r="AS1" s="147"/>
+      <c r="AT1" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="AU1" s="171"/>
-      <c r="AV1" s="171"/>
-      <c r="AW1" s="172"/>
-      <c r="AX1" s="173" t="s">
+      <c r="AU1" s="143"/>
+      <c r="AV1" s="143"/>
+      <c r="AW1" s="144"/>
+      <c r="AX1" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="AY1" s="174"/>
-      <c r="AZ1" s="174"/>
-      <c r="BA1" s="175"/>
-      <c r="BB1" s="173" t="s">
+      <c r="AY1" s="146"/>
+      <c r="AZ1" s="146"/>
+      <c r="BA1" s="147"/>
+      <c r="BB1" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="BC1" s="174"/>
-      <c r="BD1" s="174"/>
-      <c r="BE1" s="175"/>
+      <c r="BC1" s="146"/>
+      <c r="BD1" s="146"/>
+      <c r="BE1" s="147"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="153"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="153"/>
       <c r="AD2" s="64"/>
       <c r="AE2" s="64"/>
       <c r="AF2" s="64"/>
@@ -1334,7 +1334,7 @@
       <c r="BE2" s="31"/>
     </row>
     <row r="3" spans="1:57" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="166" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="65" t="s">
@@ -1479,7 +1479,7 @@
       </c>
     </row>
     <row r="4" spans="1:57" s="117" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="157"/>
+      <c r="A4" s="167"/>
       <c r="B4" s="59" t="s">
         <v>23</v>
       </c>
@@ -1492,14 +1492,14 @@
       <c r="G4" s="60"/>
       <c r="H4" s="61"/>
       <c r="I4" s="62"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="152"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="162"/>
       <c r="R4" s="84" t="s">
         <v>23</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="168" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="76"/>
@@ -1727,35 +1727,35 @@
       <c r="BE5" s="124"/>
     </row>
     <row r="6" spans="1:57" s="112" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="145"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="160"/>
-      <c r="R6" s="158"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="159"/>
-      <c r="U6" s="160"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="159"/>
-      <c r="X6" s="159"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="158"/>
-      <c r="AA6" s="159"/>
-      <c r="AB6" s="159"/>
-      <c r="AC6" s="159"/>
+      <c r="A6" s="169"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="153"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="153"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+      <c r="U6" s="153"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="152"/>
+      <c r="Y6" s="153"/>
+      <c r="Z6" s="151"/>
+      <c r="AA6" s="152"/>
+      <c r="AB6" s="152"/>
+      <c r="AC6" s="152"/>
       <c r="AD6" s="107" t="s">
         <v>23</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="BE6" s="125"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="170" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="76"/>
@@ -1935,35 +1935,35 @@
       <c r="BE7" s="124"/>
     </row>
     <row r="8" spans="1:57" s="112" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="147"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="166"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="165"/>
-      <c r="T8" s="165"/>
-      <c r="U8" s="166"/>
-      <c r="V8" s="164"/>
-      <c r="W8" s="165"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="166"/>
-      <c r="Z8" s="164"/>
-      <c r="AA8" s="165"/>
-      <c r="AB8" s="165"/>
-      <c r="AC8" s="165"/>
+      <c r="A8" s="171"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="154"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="155"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="154"/>
+      <c r="S8" s="155"/>
+      <c r="T8" s="155"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="154"/>
+      <c r="W8" s="155"/>
+      <c r="X8" s="155"/>
+      <c r="Y8" s="156"/>
+      <c r="Z8" s="154"/>
+      <c r="AA8" s="155"/>
+      <c r="AB8" s="155"/>
+      <c r="AC8" s="155"/>
       <c r="AD8" s="107" t="s">
         <v>23</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="BE8" s="125"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="168" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="79"/>
@@ -2143,35 +2143,35 @@
       <c r="BE9" s="124"/>
     </row>
     <row r="10" spans="1:57" s="112" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="145"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="160"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="159"/>
-      <c r="T10" s="159"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="159"/>
-      <c r="X10" s="159"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="159"/>
-      <c r="AB10" s="159"/>
-      <c r="AC10" s="159"/>
+      <c r="A10" s="169"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="151"/>
+      <c r="W10" s="152"/>
+      <c r="X10" s="152"/>
+      <c r="Y10" s="153"/>
+      <c r="Z10" s="151"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
       <c r="AD10" s="107" t="s">
         <v>23</v>
       </c>
@@ -2246,7 +2246,7 @@
       <c r="BE10" s="125"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="168" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -2347,7 +2347,7 @@
       <c r="BE11" s="124"/>
     </row>
     <row r="12" spans="1:57" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="145"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="84" t="s">
         <v>23</v>
       </c>
@@ -2360,30 +2360,30 @@
       <c r="E12" s="87">
         <v>0.82909999999999995</v>
       </c>
-      <c r="F12" s="158"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="160"/>
-      <c r="R12" s="158"/>
-      <c r="S12" s="159"/>
-      <c r="T12" s="159"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="158"/>
-      <c r="W12" s="159"/>
-      <c r="X12" s="159"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="158"/>
-      <c r="AA12" s="159"/>
-      <c r="AB12" s="159"/>
-      <c r="AC12" s="159"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="152"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="153"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="152"/>
+      <c r="Y12" s="153"/>
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="152"/>
       <c r="AD12" s="107" t="s">
         <v>23</v>
       </c>
@@ -2446,7 +2446,7 @@
       <c r="BE12" s="127"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="170" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="49" t="s">
@@ -2547,7 +2547,7 @@
       <c r="BE13" s="124"/>
     </row>
     <row r="14" spans="1:57" s="112" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="147"/>
+      <c r="A14" s="171"/>
       <c r="B14" s="84" t="s">
         <v>23</v>
       </c>
@@ -2564,26 +2564,26 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="167"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="169"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="141"/>
       <c r="R14" s="12"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="14"/>
-      <c r="V14" s="167"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="168"/>
-      <c r="Y14" s="169"/>
-      <c r="Z14" s="167"/>
-      <c r="AA14" s="168"/>
-      <c r="AB14" s="168"/>
-      <c r="AC14" s="168"/>
+      <c r="V14" s="139"/>
+      <c r="W14" s="140"/>
+      <c r="X14" s="140"/>
+      <c r="Y14" s="141"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="140"/>
+      <c r="AB14" s="140"/>
+      <c r="AC14" s="140"/>
       <c r="AD14" s="107" t="s">
         <v>23</v>
       </c>
@@ -2646,7 +2646,7 @@
       <c r="BE14" s="127"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="168" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="49" t="s">
@@ -2747,7 +2747,7 @@
       <c r="BE15" s="124"/>
     </row>
     <row r="16" spans="1:57" s="112" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="145"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="84" t="s">
         <v>23</v>
       </c>
@@ -2846,7 +2846,7 @@
       <c r="BE16" s="127"/>
     </row>
     <row r="17" spans="1:57" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="176" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="49" t="s">
@@ -2987,7 +2987,7 @@
       </c>
     </row>
     <row r="18" spans="1:57" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="149"/>
+      <c r="A18" s="177"/>
       <c r="B18" s="84" t="s">
         <v>23</v>
       </c>
@@ -3126,7 +3126,7 @@
       </c>
     </row>
     <row r="19" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="172" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="73" t="s">
@@ -3231,7 +3231,7 @@
       <c r="BE19" s="35"/>
     </row>
     <row r="20" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="138"/>
+      <c r="A20" s="173"/>
       <c r="B20" s="93" t="s">
         <v>23</v>
       </c>
@@ -3334,7 +3334,7 @@
       <c r="BE20" s="38"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A21" s="137" t="s">
+      <c r="A21" s="172" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="73" t="s">
@@ -3439,7 +3439,7 @@
       <c r="BE21" s="35"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A22" s="138"/>
+      <c r="A22" s="173"/>
       <c r="B22" s="93" t="s">
         <v>23</v>
       </c>
@@ -3542,7 +3542,7 @@
       <c r="BE22" s="38"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A23" s="144" t="s">
+      <c r="A23" s="168" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="73" t="s">
@@ -3647,7 +3647,7 @@
       <c r="BE23" s="35"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A24" s="145"/>
+      <c r="A24" s="169"/>
       <c r="B24" s="93" t="s">
         <v>23</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="BE24" s="38"/>
     </row>
     <row r="25" spans="1:57" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="142" t="s">
+      <c r="A25" s="174" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="73" t="s">
@@ -3851,7 +3851,7 @@
       <c r="BE25" s="35"/>
     </row>
     <row r="26" spans="1:57" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="143"/>
+      <c r="A26" s="175"/>
       <c r="B26" s="93" t="s">
         <v>23</v>
       </c>
@@ -3950,7 +3950,7 @@
       <c r="BE26" s="32"/>
     </row>
     <row r="27" spans="1:57" s="131" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="142" t="s">
+      <c r="A27" s="174" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="73" t="s">
@@ -4051,7 +4051,7 @@
       <c r="BE27" s="35"/>
     </row>
     <row r="28" spans="1:57" s="131" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="143"/>
+      <c r="A28" s="175"/>
       <c r="B28" s="93" t="s">
         <v>23</v>
       </c>
@@ -4150,7 +4150,7 @@
       <c r="BE28" s="32"/>
     </row>
     <row r="29" spans="1:57" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="142" t="s">
+      <c r="A29" s="174" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="73" t="s">
@@ -4251,7 +4251,7 @@
       <c r="BE29" s="35"/>
     </row>
     <row r="30" spans="1:57" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="143"/>
+      <c r="A30" s="175"/>
       <c r="B30" s="93" t="s">
         <v>23</v>
       </c>
@@ -4350,7 +4350,7 @@
       <c r="BE30" s="32"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="172" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="73" t="s">
@@ -4447,7 +4447,7 @@
       <c r="BE31" s="45"/>
     </row>
     <row r="32" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="138"/>
+      <c r="A32" s="173"/>
       <c r="B32" s="93" t="s">
         <v>23</v>
       </c>
@@ -4542,7 +4542,7 @@
       <c r="BE32" s="48"/>
     </row>
     <row r="33" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="137" t="s">
+      <c r="A33" s="172" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="73" t="s">
@@ -4635,7 +4635,7 @@
       <c r="BE33" s="45"/>
     </row>
     <row r="34" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="138"/>
+      <c r="A34" s="173"/>
       <c r="B34" s="93" t="s">
         <v>23</v>
       </c>
@@ -4726,7 +4726,7 @@
       <c r="BE34" s="48"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A35" s="137" t="s">
+      <c r="A35" s="172" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="73" t="s">
@@ -4819,7 +4819,7 @@
       <c r="BE35" s="45"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A36" s="138"/>
+      <c r="A36" s="173"/>
       <c r="B36" s="93" t="s">
         <v>23</v>
       </c>
@@ -4910,7 +4910,7 @@
       <c r="BE36" s="48"/>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A37" s="137" t="s">
+      <c r="A37" s="172" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="73" t="s">
@@ -5003,7 +5003,7 @@
       <c r="BE37" s="45"/>
     </row>
     <row r="38" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="138"/>
+      <c r="A38" s="173"/>
       <c r="B38" s="93" t="s">
         <v>23</v>
       </c>
@@ -5094,7 +5094,7 @@
       <c r="BE38" s="48"/>
     </row>
     <row r="39" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="137" t="s">
+      <c r="A39" s="172" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="73" t="s">
@@ -5187,7 +5187,7 @@
       <c r="BE39" s="45"/>
     </row>
     <row r="40" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="138"/>
+      <c r="A40" s="173"/>
       <c r="B40" s="93" t="s">
         <v>23</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="BE40" s="48"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A41" s="137" t="s">
+      <c r="A41" s="172" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="73" t="s">
@@ -5371,7 +5371,7 @@
       <c r="BE41" s="45"/>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A42" s="138"/>
+      <c r="A42" s="173"/>
       <c r="B42" s="93" t="s">
         <v>23</v>
       </c>
@@ -5462,7 +5462,7 @@
       <c r="BE42" s="48"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A43" s="137" t="s">
+      <c r="A43" s="172" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="73" t="s">
@@ -5555,7 +5555,7 @@
       <c r="BE43" s="45"/>
     </row>
     <row r="44" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="138"/>
+      <c r="A44" s="173"/>
       <c r="B44" s="93" t="s">
         <v>23</v>
       </c>
@@ -5646,7 +5646,7 @@
       <c r="BE44" s="48"/>
     </row>
     <row r="45" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="137" t="s">
+      <c r="A45" s="172" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="73" t="s">
@@ -5739,7 +5739,7 @@
       <c r="BE45" s="45"/>
     </row>
     <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="138"/>
+      <c r="A46" s="173"/>
       <c r="B46" s="93" t="s">
         <v>23</v>
       </c>
@@ -5830,7 +5830,7 @@
       <c r="BE46" s="48"/>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A47" s="137" t="s">
+      <c r="A47" s="172" t="s">
         <v>34</v>
       </c>
       <c r="B47" s="73" t="s">
@@ -5923,7 +5923,7 @@
       <c r="BE47" s="45"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A48" s="138"/>
+      <c r="A48" s="173"/>
       <c r="B48" s="93" t="s">
         <v>23</v>
       </c>
@@ -6015,61 +6015,12 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
@@ -6086,12 +6037,61 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6359,8 +6359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078B5A57-3579-43ED-AF27-917B6BE32AB6}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6372,30 +6372,30 @@
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="176">
+      <c r="B1" s="178">
         <v>1</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176">
+      <c r="C1" s="178"/>
+      <c r="D1" s="178">
         <v>2</v>
       </c>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176">
+      <c r="E1" s="178"/>
+      <c r="F1" s="178">
         <v>3</v>
       </c>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176">
+      <c r="G1" s="178"/>
+      <c r="H1" s="178">
         <v>4</v>
       </c>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176">
+      <c r="I1" s="178"/>
+      <c r="J1" s="178">
         <v>5</v>
       </c>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176" t="s">
+      <c r="K1" s="178"/>
+      <c r="L1" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="176"/>
+      <c r="M1" s="178"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6404,38 +6404,38 @@
       <c r="B2" s="1">
         <v>0.8347</v>
       </c>
-      <c r="C2" s="177">
+      <c r="C2" s="137">
         <v>0.74609999999999999</v>
       </c>
       <c r="D2" s="1">
         <v>0.83399999999999996</v>
       </c>
-      <c r="E2" s="177">
+      <c r="E2" s="137">
         <v>0.81710000000000005</v>
       </c>
       <c r="F2" s="1">
         <v>0.83330000000000004</v>
       </c>
-      <c r="G2" s="178">
+      <c r="G2" s="138">
         <v>0.74470000000000003</v>
       </c>
       <c r="H2" s="1">
         <v>0.84550000000000003</v>
       </c>
-      <c r="I2" s="178">
+      <c r="I2" s="138">
         <v>0.746</v>
       </c>
       <c r="J2" s="1">
         <v>0.82930000000000004</v>
       </c>
-      <c r="K2" s="178">
+      <c r="K2" s="138">
         <v>0.74970000000000003</v>
       </c>
       <c r="L2">
         <f>AVERAGE(J2,H2,F2,D2,B2)</f>
         <v>0.83535999999999999</v>
       </c>
-      <c r="M2" s="178">
+      <c r="M2" s="138">
         <f>AVERAGE(K2,I2,G2,E2,C2)</f>
         <v>0.76072000000000006</v>
       </c>
@@ -6447,38 +6447,38 @@
       <c r="B3">
         <v>0.98660000000000003</v>
       </c>
-      <c r="C3" s="177">
+      <c r="C3" s="137">
         <v>0.71819999999999995</v>
       </c>
       <c r="D3">
         <v>0.98919999999999997</v>
       </c>
-      <c r="E3" s="177">
+      <c r="E3" s="137">
         <v>0.72270000000000001</v>
       </c>
       <c r="F3">
         <v>0.98570000000000002</v>
       </c>
-      <c r="G3" s="178">
+      <c r="G3" s="138">
         <v>0.72130000000000005</v>
       </c>
       <c r="H3">
         <v>0.98750000000000004</v>
       </c>
-      <c r="I3" s="178">
+      <c r="I3" s="138">
         <v>0.71050000000000002</v>
       </c>
       <c r="J3">
         <v>0.98299999999999998</v>
       </c>
-      <c r="K3" s="178">
+      <c r="K3" s="138">
         <v>0.74160000000000004</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L5" si="0">AVERAGE(J3,H3,F3,D3,B3)</f>
         <v>0.98639999999999994</v>
       </c>
-      <c r="M3" s="178">
+      <c r="M3" s="138">
         <f>AVERAGE(K3,I3,G3,E3,C3)</f>
         <v>0.72286000000000006</v>
       </c>
@@ -6490,38 +6490,38 @@
       <c r="B4">
         <v>0.85760000000000003</v>
       </c>
-      <c r="C4" s="178">
+      <c r="C4" s="138">
         <v>0.47439999999999999</v>
       </c>
       <c r="D4">
         <v>0.85429999999999995</v>
       </c>
-      <c r="E4" s="178">
+      <c r="E4" s="138">
         <v>0.48959999999999998</v>
       </c>
       <c r="F4">
         <v>0.83599999999999997</v>
       </c>
-      <c r="G4" s="178">
+      <c r="G4" s="138">
         <v>0.45910000000000001</v>
       </c>
       <c r="H4">
         <v>0.8347</v>
       </c>
-      <c r="I4" s="178">
+      <c r="I4" s="138">
         <v>0.4607</v>
       </c>
       <c r="J4">
         <v>0.85019999999999996</v>
       </c>
-      <c r="K4" s="178">
+      <c r="K4" s="138">
         <v>0.46</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>0.84655999999999987</v>
       </c>
-      <c r="M4" s="178">
+      <c r="M4" s="138">
         <f>AVERAGE(K4,I4,G4,E4,C4)</f>
         <v>0.46876000000000007</v>
       </c>
@@ -6533,38 +6533,38 @@
       <c r="B5">
         <v>0.98480000000000001</v>
       </c>
-      <c r="C5" s="178">
+      <c r="C5" s="138">
         <v>0.62909999999999999</v>
       </c>
       <c r="D5">
         <v>0.98839999999999995</v>
       </c>
-      <c r="E5" s="178">
+      <c r="E5" s="138">
         <v>0.62670000000000003</v>
       </c>
       <c r="F5">
         <v>0.98570000000000002</v>
       </c>
-      <c r="G5" s="178">
+      <c r="G5" s="138">
         <v>0.64359999999999995</v>
       </c>
       <c r="H5">
         <v>0.98750000000000004</v>
       </c>
-      <c r="I5" s="178">
+      <c r="I5" s="138">
         <v>0.6351</v>
       </c>
       <c r="J5">
         <v>0.98660000000000003</v>
       </c>
-      <c r="K5" s="178">
+      <c r="K5" s="138">
         <v>0.62170000000000003</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>0.98659999999999992</v>
       </c>
-      <c r="M5" s="178">
+      <c r="M5" s="138">
         <f>AVERAGE(K5,I5,G5,E5,C5)</f>
         <v>0.63124000000000002</v>
       </c>
@@ -6579,30 +6579,30 @@
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="176">
+      <c r="B8" s="178">
         <v>1</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176">
+      <c r="C8" s="178"/>
+      <c r="D8" s="178">
         <v>2</v>
       </c>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176">
+      <c r="E8" s="178"/>
+      <c r="F8" s="178">
         <v>3</v>
       </c>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176">
+      <c r="G8" s="178"/>
+      <c r="H8" s="178">
         <v>4</v>
       </c>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176">
+      <c r="I8" s="178"/>
+      <c r="J8" s="178">
         <v>5</v>
       </c>
-      <c r="K8" s="176"/>
-      <c r="L8" s="176" t="s">
+      <c r="K8" s="178"/>
+      <c r="L8" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="176"/>
+      <c r="M8" s="178"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -6611,39 +6611,39 @@
       <c r="B9" s="1">
         <v>0.85160000000000002</v>
       </c>
-      <c r="C9" s="177">
+      <c r="C9" s="137">
         <v>0.47849999999999998</v>
       </c>
       <c r="D9" s="1">
         <v>0.84950000000000003</v>
       </c>
-      <c r="E9" s="177">
+      <c r="E9" s="137">
         <v>0.4824</v>
       </c>
       <c r="F9" s="1">
         <v>0.85360000000000003</v>
       </c>
-      <c r="G9" s="178">
+      <c r="G9" s="138">
         <v>0.49030000000000001</v>
       </c>
       <c r="H9" s="1">
         <v>0.84819999999999995</v>
       </c>
-      <c r="I9" s="178">
+      <c r="I9" s="138">
         <v>0.49009999999999998</v>
       </c>
       <c r="J9" s="1">
         <v>0.85219999999999996</v>
       </c>
-      <c r="K9" s="178">
+      <c r="K9" s="138">
         <v>0.48799999999999999</v>
       </c>
       <c r="L9">
-        <f>AVERAGE(J9,H9,F9,D9,B9)</f>
+        <f t="shared" ref="L9:M12" si="1">AVERAGE(J9,H9,F9,D9,B9)</f>
         <v>0.85101999999999989</v>
       </c>
-      <c r="M9" s="178">
-        <f>AVERAGE(K9,I9,G9,E9,C9)</f>
+      <c r="M9" s="138">
+        <f t="shared" si="1"/>
         <v>0.48586000000000001</v>
       </c>
     </row>
@@ -6654,39 +6654,39 @@
       <c r="B10">
         <v>0.98209999999999997</v>
       </c>
-      <c r="C10" s="177">
+      <c r="C10" s="137">
         <v>0.71540000000000004</v>
       </c>
       <c r="D10">
         <v>0.98660000000000003</v>
       </c>
-      <c r="E10" s="177">
+      <c r="E10" s="137">
         <v>0.69840000000000002</v>
       </c>
       <c r="F10">
         <v>0.98209999999999997</v>
       </c>
-      <c r="G10" s="178">
+      <c r="G10" s="138">
         <v>0.69779999999999998</v>
       </c>
       <c r="H10">
         <v>0.98839999999999995</v>
       </c>
-      <c r="I10" s="178">
+      <c r="I10" s="138">
         <v>0.70740000000000003</v>
       </c>
       <c r="J10">
         <v>0.98570000000000002</v>
       </c>
-      <c r="K10" s="178">
+      <c r="K10" s="138">
         <v>0.73050000000000004</v>
       </c>
       <c r="L10">
-        <f>AVERAGE(J10,H10,F10,D10,B10)</f>
+        <f t="shared" si="1"/>
         <v>0.98497999999999997</v>
       </c>
-      <c r="M10" s="178">
-        <f>AVERAGE(K10,I10,G10,E10,C10)</f>
+      <c r="M10" s="138">
+        <f t="shared" si="1"/>
         <v>0.70989999999999998</v>
       </c>
     </row>
@@ -6697,39 +6697,39 @@
       <c r="B11">
         <v>0.85489999999999999</v>
       </c>
-      <c r="C11" s="178">
+      <c r="C11" s="138">
         <v>0.43559999999999999</v>
       </c>
       <c r="D11">
         <v>0.85089999999999999</v>
       </c>
-      <c r="E11" s="178">
+      <c r="E11" s="138">
         <v>0.43030000000000002</v>
       </c>
       <c r="F11">
         <v>0.85289999999999999</v>
       </c>
-      <c r="G11" s="178">
+      <c r="G11" s="138">
         <v>0.43419999999999997</v>
       </c>
       <c r="H11">
         <v>0.85560000000000003</v>
       </c>
-      <c r="I11" s="178">
+      <c r="I11" s="138">
         <v>0.45550000000000002</v>
       </c>
       <c r="J11">
         <v>0.85429999999999995</v>
       </c>
-      <c r="K11" s="178">
+      <c r="K11" s="138">
         <v>0.43830000000000002</v>
       </c>
       <c r="L11">
-        <f>AVERAGE(J11,H11,F11,D11,B11)</f>
+        <f t="shared" si="1"/>
         <v>0.85372000000000003</v>
       </c>
-      <c r="M11" s="178">
-        <f>AVERAGE(K11,I11,G11,E11,C11)</f>
+      <c r="M11" s="138">
+        <f t="shared" si="1"/>
         <v>0.43878000000000006</v>
       </c>
     </row>
@@ -6740,39 +6740,39 @@
       <c r="B12">
         <v>0.98480000000000001</v>
       </c>
-      <c r="C12" s="178">
+      <c r="C12" s="138">
         <v>0.64170000000000005</v>
       </c>
       <c r="D12">
         <v>0.98299999999999998</v>
       </c>
-      <c r="E12" s="178">
+      <c r="E12" s="138">
         <v>0.62909999999999999</v>
       </c>
       <c r="F12">
         <v>0.98480000000000001</v>
       </c>
-      <c r="G12" s="178">
+      <c r="G12" s="138">
         <v>0.64359999999999995</v>
       </c>
       <c r="H12">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I12" s="178">
+      <c r="I12" s="138">
         <v>0.63539999999999996</v>
       </c>
       <c r="J12">
         <v>0.98750000000000004</v>
       </c>
-      <c r="K12" s="178">
+      <c r="K12" s="138">
         <v>0.61419999999999997</v>
       </c>
       <c r="L12">
-        <f>AVERAGE(J12,H12,F12,D12,B12)</f>
+        <f t="shared" si="1"/>
         <v>0.98461999999999994</v>
       </c>
-      <c r="M12" s="178">
-        <f>AVERAGE(K12,I12,G12,E12,C12)</f>
+      <c r="M12" s="138">
+        <f t="shared" si="1"/>
         <v>0.63280000000000003</v>
       </c>
     </row>
@@ -6780,30 +6780,30 @@
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="176">
+      <c r="B15" s="178">
         <v>1</v>
       </c>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176">
+      <c r="C15" s="178"/>
+      <c r="D15" s="178">
         <v>2</v>
       </c>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176">
+      <c r="E15" s="178"/>
+      <c r="F15" s="178">
         <v>3</v>
       </c>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176">
+      <c r="G15" s="178"/>
+      <c r="H15" s="178">
         <v>4</v>
       </c>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176">
+      <c r="I15" s="178"/>
+      <c r="J15" s="178">
         <v>5</v>
       </c>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176" t="s">
+      <c r="K15" s="178"/>
+      <c r="L15" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="176"/>
+      <c r="M15" s="178"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -6812,39 +6812,39 @@
       <c r="B16" s="1">
         <v>0.86029999999999995</v>
       </c>
-      <c r="C16" s="177">
+      <c r="C16" s="137">
         <v>0.66120000000000001</v>
       </c>
       <c r="D16" s="1">
         <v>0.84750000000000003</v>
       </c>
-      <c r="E16" s="177">
+      <c r="E16" s="137">
         <v>0.44679999999999997</v>
       </c>
       <c r="F16" s="1">
         <v>0.85619999999999996</v>
       </c>
-      <c r="G16" s="178">
+      <c r="G16" s="138">
         <v>0.56740000000000002</v>
       </c>
       <c r="H16" s="1">
         <v>0.84950000000000003</v>
       </c>
-      <c r="I16" s="178">
+      <c r="I16" s="138">
         <v>0.63929999999999998</v>
       </c>
       <c r="J16" s="1">
         <v>0.85360000000000003</v>
       </c>
-      <c r="K16" s="178">
+      <c r="K16" s="138">
         <v>0.45029999999999998</v>
       </c>
       <c r="L16">
-        <f>AVERAGE(J16,H16,F16,D16,B16)</f>
+        <f t="shared" ref="L16:M19" si="2">AVERAGE(J16,H16,F16,D16,B16)</f>
         <v>0.85342000000000007</v>
       </c>
-      <c r="M16" s="178">
-        <f>AVERAGE(K16,I16,G16,E16,C16)</f>
+      <c r="M16" s="138">
+        <f t="shared" si="2"/>
         <v>0.55300000000000005</v>
       </c>
     </row>
@@ -6855,39 +6855,39 @@
       <c r="B17">
         <v>0.98570000000000002</v>
       </c>
-      <c r="C17" s="177">
+      <c r="C17" s="137">
         <v>0.73670000000000002</v>
       </c>
       <c r="D17">
         <v>0.99099999999999999</v>
       </c>
-      <c r="E17" s="177">
+      <c r="E17" s="137">
         <v>0.75029999999999997</v>
       </c>
       <c r="F17">
         <v>0.99009999999999998</v>
       </c>
-      <c r="G17" s="178">
+      <c r="G17" s="138">
         <v>0.70209999999999995</v>
       </c>
       <c r="H17">
         <v>0.98919999999999997</v>
       </c>
-      <c r="I17" s="178">
+      <c r="I17" s="138">
         <v>0.73409999999999997</v>
       </c>
       <c r="J17">
         <v>0.98839999999999995</v>
       </c>
-      <c r="K17" s="178">
+      <c r="K17" s="138">
         <v>0.72240000000000004</v>
       </c>
       <c r="L17">
-        <f>AVERAGE(J17,H17,F17,D17,B17)</f>
+        <f t="shared" si="2"/>
         <v>0.98887999999999998</v>
       </c>
-      <c r="M17" s="178">
-        <f>AVERAGE(K17,I17,G17,E17,C17)</f>
+      <c r="M17" s="138">
+        <f t="shared" si="2"/>
         <v>0.72911999999999999</v>
       </c>
     </row>
@@ -6898,39 +6898,39 @@
       <c r="B18">
         <v>0.85089999999999999</v>
       </c>
-      <c r="C18" s="178">
+      <c r="C18" s="138">
         <v>0.48080000000000001</v>
       </c>
       <c r="D18">
         <v>0.85489999999999999</v>
       </c>
-      <c r="E18" s="178">
+      <c r="E18" s="138">
         <v>0.46810000000000002</v>
       </c>
       <c r="F18">
         <v>0.85219999999999996</v>
       </c>
-      <c r="G18" s="178">
+      <c r="G18" s="138">
         <v>0.45889999999999997</v>
       </c>
       <c r="H18">
         <v>0.85429999999999995</v>
       </c>
-      <c r="I18" s="178">
+      <c r="I18" s="138">
         <v>0.47970000000000002</v>
       </c>
       <c r="J18">
         <v>0.84889999999999999</v>
       </c>
-      <c r="K18" s="178">
+      <c r="K18" s="138">
         <v>0.50660000000000005</v>
       </c>
       <c r="L18">
-        <f>AVERAGE(J18,H18,F18,D18,B18)</f>
+        <f t="shared" si="2"/>
         <v>0.85223999999999989</v>
       </c>
-      <c r="M18" s="178">
-        <f>AVERAGE(K18,I18,G18,E18,C18)</f>
+      <c r="M18" s="138">
+        <f t="shared" si="2"/>
         <v>0.47881999999999997</v>
       </c>
     </row>
@@ -6941,49 +6941,50 @@
       <c r="B19">
         <v>0.98919999999999997</v>
       </c>
-      <c r="C19" s="178">
+      <c r="C19" s="138">
         <v>0.66759999999999997</v>
       </c>
       <c r="D19">
         <v>0.98839999999999995</v>
       </c>
-      <c r="E19" s="178">
+      <c r="E19" s="138">
         <v>0.67230000000000001</v>
       </c>
       <c r="F19">
         <v>0.99009999999999998</v>
       </c>
-      <c r="G19" s="178">
+      <c r="G19" s="138">
         <v>0.65449999999999997</v>
       </c>
       <c r="H19">
         <v>0.9919</v>
       </c>
-      <c r="I19" s="178">
+      <c r="I19" s="138">
         <v>0.67730000000000001</v>
       </c>
       <c r="J19">
         <v>0.99009999999999998</v>
       </c>
-      <c r="K19" s="178">
+      <c r="K19" s="138">
         <v>0.64529999999999998</v>
       </c>
       <c r="L19">
-        <f>AVERAGE(J19,H19,F19,D19,B19)</f>
+        <f t="shared" si="2"/>
         <v>0.98994000000000004</v>
       </c>
-      <c r="M19" s="178">
+      <c r="M19" s="138">
         <f>AVERAGE(K19,I19,G19,E19,C19)</f>
         <v>0.66339999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
@@ -6991,12 +6992,11 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41851\Desktop\IncompleteGraphDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F75F4E-F43C-4A7A-935D-E023F9ABF502}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C05FCB-04F5-491D-9153-127723D6DF68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1次实验" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="50">
   <si>
     <t>源域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,34 @@
   </si>
   <si>
     <t>UDAGCN无迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM2DBLP_RD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBLP2ACM_RD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCN_with DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCN_w/o DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDAGCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDAGCN w/o DA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -715,6 +743,96 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,99 +860,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1117,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E17" sqref="C17:E17"/>
     </sheetView>
@@ -1187,123 +1216,123 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="157" t="s">
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="157" t="s">
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="157" t="s">
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="158"/>
-      <c r="P1" s="158"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="157" t="s">
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="157" t="s">
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="158"/>
-      <c r="X1" s="158"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="157" t="s">
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="148" t="s">
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="149"/>
-      <c r="AF1" s="149"/>
-      <c r="AG1" s="150"/>
-      <c r="AH1" s="145" t="s">
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="142"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="146"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="145" t="s">
+      <c r="AI1" s="176"/>
+      <c r="AJ1" s="176"/>
+      <c r="AK1" s="177"/>
+      <c r="AL1" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="146"/>
-      <c r="AN1" s="146"/>
-      <c r="AO1" s="147"/>
-      <c r="AP1" s="145" t="s">
+      <c r="AM1" s="176"/>
+      <c r="AN1" s="176"/>
+      <c r="AO1" s="177"/>
+      <c r="AP1" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="AQ1" s="146"/>
-      <c r="AR1" s="146"/>
-      <c r="AS1" s="147"/>
-      <c r="AT1" s="142" t="s">
+      <c r="AQ1" s="176"/>
+      <c r="AR1" s="176"/>
+      <c r="AS1" s="177"/>
+      <c r="AT1" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="144"/>
-      <c r="AX1" s="145" t="s">
+      <c r="AU1" s="173"/>
+      <c r="AV1" s="173"/>
+      <c r="AW1" s="174"/>
+      <c r="AX1" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AY1" s="146"/>
-      <c r="AZ1" s="146"/>
-      <c r="BA1" s="147"/>
-      <c r="BB1" s="145" t="s">
+      <c r="AY1" s="176"/>
+      <c r="AZ1" s="176"/>
+      <c r="BA1" s="177"/>
+      <c r="BB1" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="BC1" s="146"/>
-      <c r="BD1" s="146"/>
-      <c r="BE1" s="147"/>
+      <c r="BC1" s="176"/>
+      <c r="BD1" s="176"/>
+      <c r="BE1" s="177"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="151"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="153"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="161"/>
+      <c r="AC2" s="162"/>
       <c r="AD2" s="64"/>
       <c r="AE2" s="64"/>
       <c r="AF2" s="64"/>
@@ -1334,7 +1363,7 @@
       <c r="BE2" s="31"/>
     </row>
     <row r="3" spans="1:57" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="158" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="65" t="s">
@@ -1479,7 +1508,7 @@
       </c>
     </row>
     <row r="4" spans="1:57" s="117" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="167"/>
+      <c r="A4" s="159"/>
       <c r="B4" s="59" t="s">
         <v>23</v>
       </c>
@@ -1492,14 +1521,14 @@
       <c r="G4" s="60"/>
       <c r="H4" s="61"/>
       <c r="I4" s="62"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="162"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="152"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="154"/>
       <c r="R4" s="84" t="s">
         <v>23</v>
       </c>
@@ -1622,7 +1651,7 @@
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="146" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="76"/>
@@ -1727,35 +1756,35 @@
       <c r="BE5" s="124"/>
     </row>
     <row r="6" spans="1:57" s="112" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="169"/>
-      <c r="B6" s="160"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="152"/>
-      <c r="T6" s="152"/>
-      <c r="U6" s="153"/>
-      <c r="V6" s="151"/>
-      <c r="W6" s="152"/>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="151"/>
-      <c r="AA6" s="152"/>
-      <c r="AB6" s="152"/>
-      <c r="AC6" s="152"/>
+      <c r="A6" s="147"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="161"/>
+      <c r="T6" s="161"/>
+      <c r="U6" s="162"/>
+      <c r="V6" s="160"/>
+      <c r="W6" s="161"/>
+      <c r="X6" s="161"/>
+      <c r="Y6" s="162"/>
+      <c r="Z6" s="160"/>
+      <c r="AA6" s="161"/>
+      <c r="AB6" s="161"/>
+      <c r="AC6" s="161"/>
       <c r="AD6" s="107" t="s">
         <v>23</v>
       </c>
@@ -1830,7 +1859,7 @@
       <c r="BE6" s="125"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="148" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="76"/>
@@ -1935,35 +1964,35 @@
       <c r="BE7" s="124"/>
     </row>
     <row r="8" spans="1:57" s="112" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="171"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="154"/>
-      <c r="S8" s="155"/>
-      <c r="T8" s="155"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="155"/>
-      <c r="X8" s="155"/>
-      <c r="Y8" s="156"/>
-      <c r="Z8" s="154"/>
-      <c r="AA8" s="155"/>
-      <c r="AB8" s="155"/>
-      <c r="AC8" s="155"/>
+      <c r="A8" s="149"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="168"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="168"/>
+      <c r="V8" s="166"/>
+      <c r="W8" s="167"/>
+      <c r="X8" s="167"/>
+      <c r="Y8" s="168"/>
+      <c r="Z8" s="166"/>
+      <c r="AA8" s="167"/>
+      <c r="AB8" s="167"/>
+      <c r="AC8" s="167"/>
       <c r="AD8" s="107" t="s">
         <v>23</v>
       </c>
@@ -2038,7 +2067,7 @@
       <c r="BE8" s="125"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A9" s="168" t="s">
+      <c r="A9" s="146" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="79"/>
@@ -2143,35 +2172,35 @@
       <c r="BE9" s="124"/>
     </row>
     <row r="10" spans="1:57" s="112" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="169"/>
-      <c r="B10" s="160"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="153"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="152"/>
-      <c r="T10" s="152"/>
-      <c r="U10" s="153"/>
-      <c r="V10" s="151"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="151"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="152"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="160"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="161"/>
+      <c r="U10" s="162"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="161"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="160"/>
+      <c r="AA10" s="161"/>
+      <c r="AB10" s="161"/>
+      <c r="AC10" s="161"/>
       <c r="AD10" s="107" t="s">
         <v>23</v>
       </c>
@@ -2246,7 +2275,7 @@
       <c r="BE10" s="125"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="146" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -2347,7 +2376,7 @@
       <c r="BE11" s="124"/>
     </row>
     <row r="12" spans="1:57" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="169"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="84" t="s">
         <v>23</v>
       </c>
@@ -2360,30 +2389,30 @@
       <c r="E12" s="87">
         <v>0.82909999999999995</v>
       </c>
-      <c r="F12" s="151"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="151"/>
-      <c r="S12" s="152"/>
-      <c r="T12" s="152"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="151"/>
-      <c r="W12" s="152"/>
-      <c r="X12" s="152"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="152"/>
-      <c r="AB12" s="152"/>
-      <c r="AC12" s="152"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="162"/>
+      <c r="R12" s="160"/>
+      <c r="S12" s="161"/>
+      <c r="T12" s="161"/>
+      <c r="U12" s="162"/>
+      <c r="V12" s="160"/>
+      <c r="W12" s="161"/>
+      <c r="X12" s="161"/>
+      <c r="Y12" s="162"/>
+      <c r="Z12" s="160"/>
+      <c r="AA12" s="161"/>
+      <c r="AB12" s="161"/>
+      <c r="AC12" s="161"/>
       <c r="AD12" s="107" t="s">
         <v>23</v>
       </c>
@@ -2446,7 +2475,7 @@
       <c r="BE12" s="127"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A13" s="170" t="s">
+      <c r="A13" s="148" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="49" t="s">
@@ -2547,7 +2576,7 @@
       <c r="BE13" s="124"/>
     </row>
     <row r="14" spans="1:57" s="112" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="171"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="84" t="s">
         <v>23</v>
       </c>
@@ -2564,26 +2593,26 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="141"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="171"/>
       <c r="R14" s="12"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="14"/>
-      <c r="V14" s="139"/>
-      <c r="W14" s="140"/>
-      <c r="X14" s="140"/>
-      <c r="Y14" s="141"/>
-      <c r="Z14" s="139"/>
-      <c r="AA14" s="140"/>
-      <c r="AB14" s="140"/>
-      <c r="AC14" s="140"/>
+      <c r="V14" s="169"/>
+      <c r="W14" s="170"/>
+      <c r="X14" s="170"/>
+      <c r="Y14" s="171"/>
+      <c r="Z14" s="169"/>
+      <c r="AA14" s="170"/>
+      <c r="AB14" s="170"/>
+      <c r="AC14" s="170"/>
       <c r="AD14" s="107" t="s">
         <v>23</v>
       </c>
@@ -2646,7 +2675,7 @@
       <c r="BE14" s="127"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A15" s="168" t="s">
+      <c r="A15" s="146" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="49" t="s">
@@ -2747,7 +2776,7 @@
       <c r="BE15" s="124"/>
     </row>
     <row r="16" spans="1:57" s="112" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="169"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="84" t="s">
         <v>23</v>
       </c>
@@ -2846,7 +2875,7 @@
       <c r="BE16" s="127"/>
     </row>
     <row r="17" spans="1:57" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="176" t="s">
+      <c r="A17" s="150" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="49" t="s">
@@ -2987,7 +3016,7 @@
       </c>
     </row>
     <row r="18" spans="1:57" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="177"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="84" t="s">
         <v>23</v>
       </c>
@@ -3126,7 +3155,7 @@
       </c>
     </row>
     <row r="19" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="172" t="s">
+      <c r="A19" s="139" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="73" t="s">
@@ -3231,7 +3260,7 @@
       <c r="BE19" s="35"/>
     </row>
     <row r="20" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="173"/>
+      <c r="A20" s="140"/>
       <c r="B20" s="93" t="s">
         <v>23</v>
       </c>
@@ -3334,7 +3363,7 @@
       <c r="BE20" s="38"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A21" s="172" t="s">
+      <c r="A21" s="139" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="73" t="s">
@@ -3439,7 +3468,7 @@
       <c r="BE21" s="35"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A22" s="173"/>
+      <c r="A22" s="140"/>
       <c r="B22" s="93" t="s">
         <v>23</v>
       </c>
@@ -3542,7 +3571,7 @@
       <c r="BE22" s="38"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A23" s="168" t="s">
+      <c r="A23" s="146" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="73" t="s">
@@ -3647,7 +3676,7 @@
       <c r="BE23" s="35"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A24" s="169"/>
+      <c r="A24" s="147"/>
       <c r="B24" s="93" t="s">
         <v>23</v>
       </c>
@@ -3750,7 +3779,7 @@
       <c r="BE24" s="38"/>
     </row>
     <row r="25" spans="1:57" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="144" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="73" t="s">
@@ -3851,7 +3880,7 @@
       <c r="BE25" s="35"/>
     </row>
     <row r="26" spans="1:57" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="175"/>
+      <c r="A26" s="145"/>
       <c r="B26" s="93" t="s">
         <v>23</v>
       </c>
@@ -3950,7 +3979,7 @@
       <c r="BE26" s="32"/>
     </row>
     <row r="27" spans="1:57" s="131" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="174" t="s">
+      <c r="A27" s="144" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="73" t="s">
@@ -4051,7 +4080,7 @@
       <c r="BE27" s="35"/>
     </row>
     <row r="28" spans="1:57" s="131" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="175"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="93" t="s">
         <v>23</v>
       </c>
@@ -4150,7 +4179,7 @@
       <c r="BE28" s="32"/>
     </row>
     <row r="29" spans="1:57" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="174" t="s">
+      <c r="A29" s="144" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="73" t="s">
@@ -4251,7 +4280,7 @@
       <c r="BE29" s="35"/>
     </row>
     <row r="30" spans="1:57" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="175"/>
+      <c r="A30" s="145"/>
       <c r="B30" s="93" t="s">
         <v>23</v>
       </c>
@@ -4350,7 +4379,7 @@
       <c r="BE30" s="32"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A31" s="172" t="s">
+      <c r="A31" s="139" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="73" t="s">
@@ -4447,7 +4476,7 @@
       <c r="BE31" s="45"/>
     </row>
     <row r="32" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="173"/>
+      <c r="A32" s="140"/>
       <c r="B32" s="93" t="s">
         <v>23</v>
       </c>
@@ -4542,7 +4571,7 @@
       <c r="BE32" s="48"/>
     </row>
     <row r="33" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="172" t="s">
+      <c r="A33" s="139" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="73" t="s">
@@ -4635,7 +4664,7 @@
       <c r="BE33" s="45"/>
     </row>
     <row r="34" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="173"/>
+      <c r="A34" s="140"/>
       <c r="B34" s="93" t="s">
         <v>23</v>
       </c>
@@ -4726,7 +4755,7 @@
       <c r="BE34" s="48"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A35" s="172" t="s">
+      <c r="A35" s="139" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="73" t="s">
@@ -4819,7 +4848,7 @@
       <c r="BE35" s="45"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A36" s="173"/>
+      <c r="A36" s="140"/>
       <c r="B36" s="93" t="s">
         <v>23</v>
       </c>
@@ -4910,7 +4939,7 @@
       <c r="BE36" s="48"/>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A37" s="172" t="s">
+      <c r="A37" s="139" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="73" t="s">
@@ -5003,7 +5032,7 @@
       <c r="BE37" s="45"/>
     </row>
     <row r="38" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="173"/>
+      <c r="A38" s="140"/>
       <c r="B38" s="93" t="s">
         <v>23</v>
       </c>
@@ -5094,7 +5123,7 @@
       <c r="BE38" s="48"/>
     </row>
     <row r="39" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="172" t="s">
+      <c r="A39" s="139" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="73" t="s">
@@ -5187,7 +5216,7 @@
       <c r="BE39" s="45"/>
     </row>
     <row r="40" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="173"/>
+      <c r="A40" s="140"/>
       <c r="B40" s="93" t="s">
         <v>23</v>
       </c>
@@ -5278,7 +5307,7 @@
       <c r="BE40" s="48"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="139" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="73" t="s">
@@ -5371,7 +5400,7 @@
       <c r="BE41" s="45"/>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A42" s="173"/>
+      <c r="A42" s="140"/>
       <c r="B42" s="93" t="s">
         <v>23</v>
       </c>
@@ -5462,7 +5491,7 @@
       <c r="BE42" s="48"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="139" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="73" t="s">
@@ -5555,7 +5584,7 @@
       <c r="BE43" s="45"/>
     </row>
     <row r="44" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="173"/>
+      <c r="A44" s="140"/>
       <c r="B44" s="93" t="s">
         <v>23</v>
       </c>
@@ -5646,7 +5675,7 @@
       <c r="BE44" s="48"/>
     </row>
     <row r="45" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="172" t="s">
+      <c r="A45" s="139" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="73" t="s">
@@ -5739,7 +5768,7 @@
       <c r="BE45" s="45"/>
     </row>
     <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="173"/>
+      <c r="A46" s="140"/>
       <c r="B46" s="93" t="s">
         <v>23</v>
       </c>
@@ -5830,7 +5859,7 @@
       <c r="BE46" s="48"/>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A47" s="172" t="s">
+      <c r="A47" s="139" t="s">
         <v>34</v>
       </c>
       <c r="B47" s="73" t="s">
@@ -5923,7 +5952,7 @@
       <c r="BE47" s="45"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A48" s="173"/>
+      <c r="A48" s="140"/>
       <c r="B48" s="93" t="s">
         <v>23</v>
       </c>
@@ -6015,12 +6044,61 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
@@ -6037,61 +6115,12 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6357,15 +6386,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078B5A57-3579-43ED-AF27-917B6BE32AB6}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -6977,14 +7009,93 @@
         <v>0.66339999999999999</v>
       </c>
     </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="179">
+        <v>0.76071999999999995</v>
+      </c>
+      <c r="C28">
+        <v>0.48586000000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="E28">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>0.72285999999999995</v>
+      </c>
+      <c r="C29">
+        <v>0.70989999999999998</v>
+      </c>
+      <c r="D29">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="E29">
+        <v>0.72911999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>0.46876000000000001</v>
+      </c>
+      <c r="C30">
+        <v>0.43878</v>
+      </c>
+      <c r="D30">
+        <v>0.53190000000000004</v>
+      </c>
+      <c r="E30">
+        <v>0.47882000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>0.63124000000000002</v>
+      </c>
+      <c r="C31">
+        <v>0.63280000000000003</v>
+      </c>
+      <c r="D31">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="E31">
+        <v>0.66339999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
@@ -6997,6 +7108,12 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41851\Desktop\IncompleteGraphDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41851\Desktop\SparseGraphDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C05FCB-04F5-491D-9153-127723D6DF68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2472C3-DDEA-4C5F-B3F1-74251ACEBE7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38550" yWindow="45" windowWidth="21600" windowHeight="9645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1次实验" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="54">
   <si>
     <t>源域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,22 @@
   </si>
   <si>
     <t>UDAGCN w/o DA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM2DBLP_D(0.4_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM2DBLP_D(0.6_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBLP2ACM_D(0.4_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBLP2ACM_D(0.6_1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,127 +759,127 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1147,8 +1163,8 @@
   <dimension ref="A1:BE48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E17" sqref="C17:E17"/>
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE25" sqref="AE25:AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1216,123 +1232,123 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="163" t="s">
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="163" t="s">
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="163" t="s">
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="163" t="s">
+      <c r="O1" s="159"/>
+      <c r="P1" s="159"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="163" t="s">
+      <c r="S1" s="159"/>
+      <c r="T1" s="159"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="163" t="s">
+      <c r="W1" s="159"/>
+      <c r="X1" s="159"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="141" t="s">
+      <c r="AA1" s="159"/>
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="175" t="s">
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="151"/>
+      <c r="AH1" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="176"/>
-      <c r="AK1" s="177"/>
-      <c r="AL1" s="175" t="s">
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="148"/>
+      <c r="AL1" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="177"/>
-      <c r="AP1" s="175" t="s">
+      <c r="AM1" s="147"/>
+      <c r="AN1" s="147"/>
+      <c r="AO1" s="148"/>
+      <c r="AP1" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="176"/>
-      <c r="AS1" s="177"/>
-      <c r="AT1" s="172" t="s">
+      <c r="AQ1" s="147"/>
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="148"/>
+      <c r="AT1" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="AU1" s="173"/>
-      <c r="AV1" s="173"/>
-      <c r="AW1" s="174"/>
-      <c r="AX1" s="175" t="s">
+      <c r="AU1" s="144"/>
+      <c r="AV1" s="144"/>
+      <c r="AW1" s="145"/>
+      <c r="AX1" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="AY1" s="176"/>
-      <c r="AZ1" s="176"/>
-      <c r="BA1" s="177"/>
-      <c r="BB1" s="175" t="s">
+      <c r="AY1" s="147"/>
+      <c r="AZ1" s="147"/>
+      <c r="BA1" s="148"/>
+      <c r="BB1" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="176"/>
-      <c r="BE1" s="177"/>
+      <c r="BC1" s="147"/>
+      <c r="BD1" s="147"/>
+      <c r="BE1" s="148"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="161"/>
-      <c r="AB2" s="161"/>
-      <c r="AC2" s="162"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="153"/>
+      <c r="X2" s="153"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="153"/>
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="154"/>
       <c r="AD2" s="64"/>
       <c r="AE2" s="64"/>
       <c r="AF2" s="64"/>
@@ -1363,7 +1379,7 @@
       <c r="BE2" s="31"/>
     </row>
     <row r="3" spans="1:57" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="167" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="65" t="s">
@@ -1508,7 +1524,7 @@
       </c>
     </row>
     <row r="4" spans="1:57" s="117" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="159"/>
+      <c r="A4" s="168"/>
       <c r="B4" s="59" t="s">
         <v>23</v>
       </c>
@@ -1521,14 +1537,14 @@
       <c r="G4" s="60"/>
       <c r="H4" s="61"/>
       <c r="I4" s="62"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="154"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="162"/>
+      <c r="Q4" s="163"/>
       <c r="R4" s="84" t="s">
         <v>23</v>
       </c>
@@ -1651,7 +1667,7 @@
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="169" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="76"/>
@@ -1756,35 +1772,35 @@
       <c r="BE5" s="124"/>
     </row>
     <row r="6" spans="1:57" s="112" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="147"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="160"/>
-      <c r="S6" s="161"/>
-      <c r="T6" s="161"/>
-      <c r="U6" s="162"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="161"/>
-      <c r="X6" s="161"/>
-      <c r="Y6" s="162"/>
-      <c r="Z6" s="160"/>
-      <c r="AA6" s="161"/>
-      <c r="AB6" s="161"/>
-      <c r="AC6" s="161"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="153"/>
+      <c r="P6" s="153"/>
+      <c r="Q6" s="154"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="153"/>
+      <c r="T6" s="153"/>
+      <c r="U6" s="154"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="153"/>
+      <c r="X6" s="153"/>
+      <c r="Y6" s="154"/>
+      <c r="Z6" s="152"/>
+      <c r="AA6" s="153"/>
+      <c r="AB6" s="153"/>
+      <c r="AC6" s="153"/>
       <c r="AD6" s="107" t="s">
         <v>23</v>
       </c>
@@ -1859,7 +1875,7 @@
       <c r="BE6" s="125"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="171" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="76"/>
@@ -1964,35 +1980,35 @@
       <c r="BE7" s="124"/>
     </row>
     <row r="8" spans="1:57" s="112" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="149"/>
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="167"/>
-      <c r="P8" s="167"/>
-      <c r="Q8" s="168"/>
-      <c r="R8" s="166"/>
-      <c r="S8" s="167"/>
-      <c r="T8" s="167"/>
-      <c r="U8" s="168"/>
-      <c r="V8" s="166"/>
-      <c r="W8" s="167"/>
-      <c r="X8" s="167"/>
-      <c r="Y8" s="168"/>
-      <c r="Z8" s="166"/>
-      <c r="AA8" s="167"/>
-      <c r="AB8" s="167"/>
-      <c r="AC8" s="167"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="157"/>
+      <c r="R8" s="155"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="157"/>
+      <c r="V8" s="155"/>
+      <c r="W8" s="156"/>
+      <c r="X8" s="156"/>
+      <c r="Y8" s="157"/>
+      <c r="Z8" s="155"/>
+      <c r="AA8" s="156"/>
+      <c r="AB8" s="156"/>
+      <c r="AC8" s="156"/>
       <c r="AD8" s="107" t="s">
         <v>23</v>
       </c>
@@ -2067,7 +2083,7 @@
       <c r="BE8" s="125"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="169" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="79"/>
@@ -2172,35 +2188,35 @@
       <c r="BE9" s="124"/>
     </row>
     <row r="10" spans="1:57" s="112" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="147"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="160"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="162"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="162"/>
-      <c r="Z10" s="160"/>
-      <c r="AA10" s="161"/>
-      <c r="AB10" s="161"/>
-      <c r="AC10" s="161"/>
+      <c r="A10" s="170"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="154"/>
+      <c r="V10" s="152"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="153"/>
+      <c r="AC10" s="153"/>
       <c r="AD10" s="107" t="s">
         <v>23</v>
       </c>
@@ -2275,7 +2291,7 @@
       <c r="BE10" s="125"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="169" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -2376,7 +2392,7 @@
       <c r="BE11" s="124"/>
     </row>
     <row r="12" spans="1:57" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="147"/>
+      <c r="A12" s="170"/>
       <c r="B12" s="84" t="s">
         <v>23</v>
       </c>
@@ -2389,30 +2405,30 @@
       <c r="E12" s="87">
         <v>0.82909999999999995</v>
       </c>
-      <c r="F12" s="160"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="162"/>
-      <c r="R12" s="160"/>
-      <c r="S12" s="161"/>
-      <c r="T12" s="161"/>
-      <c r="U12" s="162"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="161"/>
-      <c r="X12" s="161"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="161"/>
-      <c r="AB12" s="161"/>
-      <c r="AC12" s="161"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="152"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="154"/>
+      <c r="V12" s="152"/>
+      <c r="W12" s="153"/>
+      <c r="X12" s="153"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="152"/>
+      <c r="AA12" s="153"/>
+      <c r="AB12" s="153"/>
+      <c r="AC12" s="153"/>
       <c r="AD12" s="107" t="s">
         <v>23</v>
       </c>
@@ -2475,7 +2491,7 @@
       <c r="BE12" s="127"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A13" s="148" t="s">
+      <c r="A13" s="171" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="49" t="s">
@@ -2576,7 +2592,7 @@
       <c r="BE13" s="124"/>
     </row>
     <row r="14" spans="1:57" s="112" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="149"/>
+      <c r="A14" s="172"/>
       <c r="B14" s="84" t="s">
         <v>23</v>
       </c>
@@ -2593,26 +2609,26 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="171"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="141"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="142"/>
       <c r="R14" s="12"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="14"/>
-      <c r="V14" s="169"/>
-      <c r="W14" s="170"/>
-      <c r="X14" s="170"/>
-      <c r="Y14" s="171"/>
-      <c r="Z14" s="169"/>
-      <c r="AA14" s="170"/>
-      <c r="AB14" s="170"/>
-      <c r="AC14" s="170"/>
+      <c r="V14" s="140"/>
+      <c r="W14" s="141"/>
+      <c r="X14" s="141"/>
+      <c r="Y14" s="142"/>
+      <c r="Z14" s="140"/>
+      <c r="AA14" s="141"/>
+      <c r="AB14" s="141"/>
+      <c r="AC14" s="141"/>
       <c r="AD14" s="107" t="s">
         <v>23</v>
       </c>
@@ -2675,7 +2691,7 @@
       <c r="BE14" s="127"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="169" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="49" t="s">
@@ -2776,7 +2792,7 @@
       <c r="BE15" s="124"/>
     </row>
     <row r="16" spans="1:57" s="112" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="147"/>
+      <c r="A16" s="170"/>
       <c r="B16" s="84" t="s">
         <v>23</v>
       </c>
@@ -2875,7 +2891,7 @@
       <c r="BE16" s="127"/>
     </row>
     <row r="17" spans="1:57" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="177" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="49" t="s">
@@ -3016,7 +3032,7 @@
       </c>
     </row>
     <row r="18" spans="1:57" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="151"/>
+      <c r="A18" s="178"/>
       <c r="B18" s="84" t="s">
         <v>23</v>
       </c>
@@ -3155,7 +3171,7 @@
       </c>
     </row>
     <row r="19" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="173" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="73" t="s">
@@ -3260,7 +3276,7 @@
       <c r="BE19" s="35"/>
     </row>
     <row r="20" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="140"/>
+      <c r="A20" s="174"/>
       <c r="B20" s="93" t="s">
         <v>23</v>
       </c>
@@ -3363,7 +3379,7 @@
       <c r="BE20" s="38"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A21" s="139" t="s">
+      <c r="A21" s="173" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="73" t="s">
@@ -3468,7 +3484,7 @@
       <c r="BE21" s="35"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A22" s="140"/>
+      <c r="A22" s="174"/>
       <c r="B22" s="93" t="s">
         <v>23</v>
       </c>
@@ -3571,7 +3587,7 @@
       <c r="BE22" s="38"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="169" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="73" t="s">
@@ -3676,7 +3692,7 @@
       <c r="BE23" s="35"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A24" s="147"/>
+      <c r="A24" s="170"/>
       <c r="B24" s="93" t="s">
         <v>23</v>
       </c>
@@ -3779,7 +3795,7 @@
       <c r="BE24" s="38"/>
     </row>
     <row r="25" spans="1:57" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="144" t="s">
+      <c r="A25" s="175" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="73" t="s">
@@ -3880,7 +3896,7 @@
       <c r="BE25" s="35"/>
     </row>
     <row r="26" spans="1:57" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="145"/>
+      <c r="A26" s="176"/>
       <c r="B26" s="93" t="s">
         <v>23</v>
       </c>
@@ -3979,7 +3995,7 @@
       <c r="BE26" s="32"/>
     </row>
     <row r="27" spans="1:57" s="131" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="175" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="73" t="s">
@@ -4080,7 +4096,7 @@
       <c r="BE27" s="35"/>
     </row>
     <row r="28" spans="1:57" s="131" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="145"/>
+      <c r="A28" s="176"/>
       <c r="B28" s="93" t="s">
         <v>23</v>
       </c>
@@ -4179,7 +4195,7 @@
       <c r="BE28" s="32"/>
     </row>
     <row r="29" spans="1:57" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="175" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="73" t="s">
@@ -4280,7 +4296,7 @@
       <c r="BE29" s="35"/>
     </row>
     <row r="30" spans="1:57" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="145"/>
+      <c r="A30" s="176"/>
       <c r="B30" s="93" t="s">
         <v>23</v>
       </c>
@@ -4379,7 +4395,7 @@
       <c r="BE30" s="32"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A31" s="139" t="s">
+      <c r="A31" s="173" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="73" t="s">
@@ -4476,7 +4492,7 @@
       <c r="BE31" s="45"/>
     </row>
     <row r="32" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="140"/>
+      <c r="A32" s="174"/>
       <c r="B32" s="93" t="s">
         <v>23</v>
       </c>
@@ -4571,7 +4587,7 @@
       <c r="BE32" s="48"/>
     </row>
     <row r="33" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="139" t="s">
+      <c r="A33" s="173" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="73" t="s">
@@ -4664,7 +4680,7 @@
       <c r="BE33" s="45"/>
     </row>
     <row r="34" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="140"/>
+      <c r="A34" s="174"/>
       <c r="B34" s="93" t="s">
         <v>23</v>
       </c>
@@ -4755,7 +4771,7 @@
       <c r="BE34" s="48"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="173" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="73" t="s">
@@ -4848,7 +4864,7 @@
       <c r="BE35" s="45"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A36" s="140"/>
+      <c r="A36" s="174"/>
       <c r="B36" s="93" t="s">
         <v>23</v>
       </c>
@@ -4939,7 +4955,7 @@
       <c r="BE36" s="48"/>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A37" s="139" t="s">
+      <c r="A37" s="173" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="73" t="s">
@@ -5032,7 +5048,7 @@
       <c r="BE37" s="45"/>
     </row>
     <row r="38" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="140"/>
+      <c r="A38" s="174"/>
       <c r="B38" s="93" t="s">
         <v>23</v>
       </c>
@@ -5123,7 +5139,7 @@
       <c r="BE38" s="48"/>
     </row>
     <row r="39" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="139" t="s">
+      <c r="A39" s="173" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="73" t="s">
@@ -5216,7 +5232,7 @@
       <c r="BE39" s="45"/>
     </row>
     <row r="40" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="140"/>
+      <c r="A40" s="174"/>
       <c r="B40" s="93" t="s">
         <v>23</v>
       </c>
@@ -5307,7 +5323,7 @@
       <c r="BE40" s="48"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A41" s="139" t="s">
+      <c r="A41" s="173" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="73" t="s">
@@ -5400,7 +5416,7 @@
       <c r="BE41" s="45"/>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A42" s="140"/>
+      <c r="A42" s="174"/>
       <c r="B42" s="93" t="s">
         <v>23</v>
       </c>
@@ -5491,7 +5507,7 @@
       <c r="BE42" s="48"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A43" s="139" t="s">
+      <c r="A43" s="173" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="73" t="s">
@@ -5584,7 +5600,7 @@
       <c r="BE43" s="45"/>
     </row>
     <row r="44" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="140"/>
+      <c r="A44" s="174"/>
       <c r="B44" s="93" t="s">
         <v>23</v>
       </c>
@@ -5675,7 +5691,7 @@
       <c r="BE44" s="48"/>
     </row>
     <row r="45" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="139" t="s">
+      <c r="A45" s="173" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="73" t="s">
@@ -5768,7 +5784,7 @@
       <c r="BE45" s="45"/>
     </row>
     <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="140"/>
+      <c r="A46" s="174"/>
       <c r="B46" s="93" t="s">
         <v>23</v>
       </c>
@@ -5859,7 +5875,7 @@
       <c r="BE46" s="48"/>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A47" s="139" t="s">
+      <c r="A47" s="173" t="s">
         <v>34</v>
       </c>
       <c r="B47" s="73" t="s">
@@ -5952,7 +5968,7 @@
       <c r="BE47" s="45"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A48" s="140"/>
+      <c r="A48" s="174"/>
       <c r="B48" s="93" t="s">
         <v>23</v>
       </c>
@@ -6044,61 +6060,12 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
@@ -6115,12 +6082,61 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6386,10 +6402,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078B5A57-3579-43ED-AF27-917B6BE32AB6}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6397,37 +6413,37 @@
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="178">
+      <c r="B1" s="179">
         <v>1</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178">
+      <c r="C1" s="179"/>
+      <c r="D1" s="179">
         <v>2</v>
       </c>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178">
+      <c r="E1" s="179"/>
+      <c r="F1" s="179">
         <v>3</v>
       </c>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178">
+      <c r="G1" s="179"/>
+      <c r="H1" s="179">
         <v>4</v>
       </c>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178">
+      <c r="I1" s="179"/>
+      <c r="J1" s="179">
         <v>5</v>
       </c>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178" t="s">
+      <c r="K1" s="179"/>
+      <c r="L1" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="178"/>
+      <c r="M1" s="179"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6474,410 +6490,510 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="C3" s="137">
-        <v>0.71819999999999995</v>
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="C3" s="138">
+        <v>0.47439999999999999</v>
       </c>
       <c r="D3">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="E3" s="137">
-        <v>0.72270000000000001</v>
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="E3" s="138">
+        <v>0.48959999999999998</v>
       </c>
       <c r="F3">
-        <v>0.98570000000000002</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="G3" s="138">
-        <v>0.72130000000000005</v>
+        <v>0.45910000000000001</v>
       </c>
       <c r="H3">
-        <v>0.98750000000000004</v>
+        <v>0.8347</v>
       </c>
       <c r="I3" s="138">
-        <v>0.71050000000000002</v>
+        <v>0.4607</v>
       </c>
       <c r="J3">
-        <v>0.98299999999999998</v>
+        <v>0.85019999999999996</v>
       </c>
       <c r="K3" s="138">
-        <v>0.74160000000000004</v>
+        <v>0.46</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L5" si="0">AVERAGE(J3,H3,F3,D3,B3)</f>
-        <v>0.98639999999999994</v>
+        <v>0.84655999999999987</v>
       </c>
       <c r="M3" s="138">
         <f>AVERAGE(K3,I3,G3,E3,C3)</f>
-        <v>0.72286000000000006</v>
+        <v>0.46876000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B4">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="C4" s="138">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.8367</v>
+      </c>
+      <c r="E4" s="138">
+        <v>0.54</v>
+      </c>
+      <c r="F4">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="G4" s="138">
+        <v>0.52529999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="I4" s="138">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="J4">
         <v>0.85760000000000003</v>
       </c>
-      <c r="C4" s="138">
-        <v>0.47439999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.85429999999999995</v>
-      </c>
-      <c r="E4" s="138">
-        <v>0.48959999999999998</v>
-      </c>
-      <c r="F4">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="G4" s="138">
-        <v>0.45910000000000001</v>
-      </c>
-      <c r="H4">
-        <v>0.8347</v>
-      </c>
-      <c r="I4" s="138">
-        <v>0.4607</v>
-      </c>
-      <c r="J4">
-        <v>0.85019999999999996</v>
-      </c>
       <c r="K4" s="138">
-        <v>0.46</v>
+        <v>0.50480000000000003</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>0.84655999999999987</v>
+        <v>0.85127999999999981</v>
       </c>
       <c r="M4" s="138">
         <f>AVERAGE(K4,I4,G4,E4,C4)</f>
-        <v>0.46876000000000007</v>
+        <v>0.52614000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B5">
-        <v>0.98480000000000001</v>
+        <v>0.8468</v>
       </c>
       <c r="C5" s="138">
-        <v>0.62909999999999999</v>
+        <v>0.62819999999999998</v>
       </c>
       <c r="D5">
-        <v>0.98839999999999995</v>
+        <v>0.83740000000000003</v>
       </c>
       <c r="E5" s="138">
-        <v>0.62670000000000003</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="F5">
-        <v>0.98570000000000002</v>
+        <v>0.83740000000000003</v>
       </c>
       <c r="G5" s="138">
-        <v>0.64359999999999995</v>
+        <v>0.56020000000000003</v>
       </c>
       <c r="H5">
-        <v>0.98750000000000004</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="I5" s="138">
-        <v>0.6351</v>
+        <v>0.57150000000000001</v>
       </c>
       <c r="J5">
-        <v>0.98660000000000003</v>
+        <v>0.83809999999999996</v>
       </c>
       <c r="K5" s="138">
-        <v>0.62170000000000003</v>
+        <v>0.59050000000000002</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0.98659999999999992</v>
+        <v>0.83833999999999997</v>
       </c>
       <c r="M5" s="138">
         <f>AVERAGE(K5,I5,G5,E5,C5)</f>
+        <v>0.58427999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="C6" s="137">
+        <v>0.71819999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="E6" s="137">
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="G6" s="138">
+        <v>0.72130000000000005</v>
+      </c>
+      <c r="H6">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="I6" s="138">
+        <v>0.71050000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="K6" s="138">
+        <v>0.74160000000000004</v>
+      </c>
+      <c r="L6">
+        <f>AVERAGE(J6,H6,F6,D6,B6)</f>
+        <v>0.98639999999999994</v>
+      </c>
+      <c r="M6" s="138">
+        <f>AVERAGE(K6,I6,G6,E6,C6)</f>
+        <v>0.72286000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="C7" s="138">
+        <v>0.62909999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="E7" s="138">
+        <v>0.62670000000000003</v>
+      </c>
+      <c r="F7">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="G7" s="138">
+        <v>0.64359999999999995</v>
+      </c>
+      <c r="H7">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="I7" s="138">
+        <v>0.6351</v>
+      </c>
+      <c r="J7">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="K7" s="138">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(J7,H7,F7,D7,B7)</f>
+        <v>0.98659999999999992</v>
+      </c>
+      <c r="M7" s="138">
+        <f>AVERAGE(K7,I7,G7,E7,C7)</f>
         <v>0.63124000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="178">
-        <v>1</v>
-      </c>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178">
-        <v>2</v>
-      </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178">
-        <v>3</v>
-      </c>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178">
-        <v>4</v>
-      </c>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178">
-        <v>5</v>
-      </c>
-      <c r="K8" s="178"/>
-      <c r="L8" s="178" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="178"/>
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="C8" s="138">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="E8" s="138">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="G8" s="138">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="I8" s="138">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="J8">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="K8" s="138">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE(J8,H8,F8,D8,B8)</f>
+        <v>0.9865600000000001</v>
+      </c>
+      <c r="M8" s="138">
+        <f>AVERAGE(K8,I8,G8,E8,C8)</f>
+        <v>0.65310000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="C9" s="138">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="D9">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="E9" s="138">
+        <v>0.67330000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="G9" s="138">
+        <v>0.63119999999999998</v>
+      </c>
+      <c r="H9">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="I9" s="138">
+        <v>0.68759999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="K9" s="138">
+        <v>0.67830000000000001</v>
+      </c>
+      <c r="L9">
+        <f>AVERAGE(J9,H9,F9,D9,B9)</f>
+        <v>0.98696000000000006</v>
+      </c>
+      <c r="M9" s="138">
+        <f>AVERAGE(K9,I9,G9,E9,C9)</f>
+        <v>0.67143999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="179">
+        <v>1</v>
+      </c>
+      <c r="C12" s="179"/>
+      <c r="D12" s="179">
+        <v>2</v>
+      </c>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179">
+        <v>3</v>
+      </c>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179">
+        <v>4</v>
+      </c>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179">
+        <v>5</v>
+      </c>
+      <c r="K12" s="179"/>
+      <c r="L12" s="179" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="179"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B13" s="1">
         <v>0.85160000000000002</v>
       </c>
-      <c r="C9" s="137">
+      <c r="C13" s="137">
         <v>0.47849999999999998</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D13" s="1">
         <v>0.84950000000000003</v>
       </c>
-      <c r="E9" s="137">
+      <c r="E13" s="137">
         <v>0.4824</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F13" s="1">
         <v>0.85360000000000003</v>
       </c>
-      <c r="G9" s="138">
+      <c r="G13" s="138">
         <v>0.49030000000000001</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H13" s="1">
         <v>0.84819999999999995</v>
       </c>
-      <c r="I9" s="138">
+      <c r="I13" s="138">
         <v>0.49009999999999998</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J13" s="1">
         <v>0.85219999999999996</v>
       </c>
-      <c r="K9" s="138">
+      <c r="K13" s="138">
         <v>0.48799999999999999</v>
       </c>
-      <c r="L9">
-        <f t="shared" ref="L9:M12" si="1">AVERAGE(J9,H9,F9,D9,B9)</f>
+      <c r="L13">
+        <f t="shared" ref="L13:M16" si="1">AVERAGE(J13,H13,F13,D13,B13)</f>
         <v>0.85101999999999989</v>
       </c>
-      <c r="M9" s="138">
+      <c r="M13" s="138">
         <f t="shared" si="1"/>
         <v>0.48586000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="C10" s="137">
-        <v>0.71540000000000004</v>
-      </c>
-      <c r="D10">
-        <v>0.98660000000000003</v>
-      </c>
-      <c r="E10" s="137">
-        <v>0.69840000000000002</v>
-      </c>
-      <c r="F10">
-        <v>0.98209999999999997</v>
-      </c>
-      <c r="G10" s="138">
-        <v>0.69779999999999998</v>
-      </c>
-      <c r="H10">
-        <v>0.98839999999999995</v>
-      </c>
-      <c r="I10" s="138">
-        <v>0.70740000000000003</v>
-      </c>
-      <c r="J10">
-        <v>0.98570000000000002</v>
-      </c>
-      <c r="K10" s="138">
-        <v>0.73050000000000004</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>0.98497999999999997</v>
-      </c>
-      <c r="M10" s="138">
-        <f t="shared" si="1"/>
-        <v>0.70989999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11">
+      <c r="B14">
         <v>0.85489999999999999</v>
       </c>
-      <c r="C11" s="138">
+      <c r="C14" s="138">
         <v>0.43559999999999999</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <v>0.85089999999999999</v>
       </c>
-      <c r="E11" s="138">
+      <c r="E14" s="138">
         <v>0.43030000000000002</v>
       </c>
-      <c r="F11">
+      <c r="F14">
         <v>0.85289999999999999</v>
       </c>
-      <c r="G11" s="138">
+      <c r="G14" s="138">
         <v>0.43419999999999997</v>
       </c>
-      <c r="H11">
+      <c r="H14">
         <v>0.85560000000000003</v>
       </c>
-      <c r="I11" s="138">
+      <c r="I14" s="138">
         <v>0.45550000000000002</v>
       </c>
-      <c r="J11">
+      <c r="J14">
         <v>0.85429999999999995</v>
       </c>
-      <c r="K11" s="138">
+      <c r="K14" s="138">
         <v>0.43830000000000002</v>
       </c>
-      <c r="L11">
+      <c r="L14">
         <f t="shared" si="1"/>
         <v>0.85372000000000003</v>
       </c>
-      <c r="M11" s="138">
+      <c r="M14" s="138">
         <f t="shared" si="1"/>
         <v>0.43878000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12">
-        <v>0.98480000000000001</v>
-      </c>
-      <c r="C12" s="138">
-        <v>0.64170000000000005</v>
-      </c>
-      <c r="D12">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="E12" s="138">
-        <v>0.62909999999999999</v>
-      </c>
-      <c r="F12">
-        <v>0.98480000000000001</v>
-      </c>
-      <c r="G12" s="138">
-        <v>0.64359999999999995</v>
-      </c>
-      <c r="H12">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="I12" s="138">
-        <v>0.63539999999999996</v>
-      </c>
-      <c r="J12">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="K12" s="138">
-        <v>0.61419999999999997</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>0.98461999999999994</v>
-      </c>
-      <c r="M12" s="138">
-        <f t="shared" si="1"/>
-        <v>0.63280000000000003</v>
-      </c>
-    </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="178">
-        <v>1</v>
-      </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178">
-        <v>2</v>
-      </c>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178">
-        <v>3</v>
-      </c>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178">
-        <v>4</v>
-      </c>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178">
-        <v>5</v>
-      </c>
-      <c r="K15" s="178"/>
-      <c r="L15" s="178" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="178"/>
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="C15" s="138">
+        <v>0.43530000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E15" s="138">
+        <v>0.44829999999999998</v>
+      </c>
+      <c r="F15">
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="G15" s="138">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="H15">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="I15" s="138">
+        <v>0.4713</v>
+      </c>
+      <c r="J15">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="K15" s="138">
+        <v>0.46179999999999999</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.85414000000000012</v>
+      </c>
+      <c r="M15" s="138">
+        <f t="shared" si="1"/>
+        <v>0.45674000000000003</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.86029999999999995</v>
-      </c>
-      <c r="C16" s="137">
-        <v>0.66120000000000001</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.84750000000000003</v>
-      </c>
-      <c r="E16" s="137">
-        <v>0.44679999999999997</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.85619999999999996</v>
+        <v>51</v>
+      </c>
+      <c r="B16">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="C16" s="138">
+        <v>0.45610000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="E16" s="138">
+        <v>0.4839</v>
+      </c>
+      <c r="F16">
+        <v>0.85429999999999995</v>
       </c>
       <c r="G16" s="138">
-        <v>0.56740000000000002</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.84950000000000003</v>
+        <v>0.4672</v>
+      </c>
+      <c r="H16">
+        <v>0.85219999999999996</v>
       </c>
       <c r="I16" s="138">
-        <v>0.63929999999999998</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.85360000000000003</v>
+        <v>0.43190000000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.85489999999999999</v>
       </c>
       <c r="K16" s="138">
-        <v>0.45029999999999998</v>
+        <v>0.49259999999999998</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16:M19" si="2">AVERAGE(J16,H16,F16,D16,B16)</f>
-        <v>0.85342000000000007</v>
+        <f t="shared" si="1"/>
+        <v>0.85358000000000001</v>
       </c>
       <c r="M16" s="138">
-        <f t="shared" si="2"/>
-        <v>0.55300000000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.46634000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -6885,235 +7001,892 @@
         <v>37</v>
       </c>
       <c r="B17">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="C17" s="137">
+        <v>0.71540000000000004</v>
+      </c>
+      <c r="D17">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="E17" s="137">
+        <v>0.69840000000000002</v>
+      </c>
+      <c r="F17">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="G17" s="138">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="H17">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="I17" s="138">
+        <v>0.70740000000000003</v>
+      </c>
+      <c r="J17">
         <v>0.98570000000000002</v>
       </c>
-      <c r="C17" s="137">
-        <v>0.73670000000000002</v>
-      </c>
-      <c r="D17">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="E17" s="137">
-        <v>0.75029999999999997</v>
-      </c>
-      <c r="F17">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="G17" s="138">
-        <v>0.70209999999999995</v>
-      </c>
-      <c r="H17">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="I17" s="138">
-        <v>0.73409999999999997</v>
-      </c>
-      <c r="J17">
-        <v>0.98839999999999995</v>
-      </c>
       <c r="K17" s="138">
-        <v>0.72240000000000004</v>
+        <v>0.73050000000000004</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
-        <v>0.98887999999999998</v>
+        <f>AVERAGE(J17,H17,F17,D17,B17)</f>
+        <v>0.98497999999999997</v>
       </c>
       <c r="M17" s="138">
-        <f t="shared" si="2"/>
-        <v>0.72911999999999999</v>
+        <f>AVERAGE(K17,I17,G17,E17,C17)</f>
+        <v>0.70989999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="C18" s="138">
+        <v>0.64170000000000005</v>
+      </c>
+      <c r="D18">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E18" s="138">
+        <v>0.62909999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="G18" s="138">
+        <v>0.64359999999999995</v>
+      </c>
+      <c r="H18">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="I18" s="138">
+        <v>0.63539999999999996</v>
+      </c>
+      <c r="J18">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="K18" s="138">
+        <v>0.61419999999999997</v>
+      </c>
+      <c r="L18">
+        <f>AVERAGE(J18,H18,F18,D18,B18)</f>
+        <v>0.98461999999999994</v>
+      </c>
+      <c r="M18" s="138">
+        <f>AVERAGE(K18,I18,G18,E18,C18)</f>
+        <v>0.63280000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="C19" s="138">
+        <v>0.6663</v>
+      </c>
+      <c r="D19">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="E19" s="138">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="F19">
+        <v>0.9839</v>
+      </c>
+      <c r="G19" s="138">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="H19">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="I19" s="138">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="J19">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="K19" s="138">
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="L19">
+        <f>AVERAGE(J19,H19,F19,D19,B19)</f>
+        <v>0.98515999999999992</v>
+      </c>
+      <c r="M19" s="138">
+        <f>AVERAGE(K19,I19,G19,E19,C19)</f>
+        <v>0.65640000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="C20" s="138">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="D20">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="E20" s="138">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="F20">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="G20" s="138">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="H20">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="I20" s="138">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="J20">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="K20" s="138">
+        <v>0.67959999999999998</v>
+      </c>
+      <c r="L20">
+        <f>AVERAGE(J20,H20,F20,D20,B20)</f>
+        <v>0.98713999999999991</v>
+      </c>
+      <c r="M20" s="138">
+        <f>AVERAGE(K20,I20,G20,E20,C20)</f>
+        <v>0.67552000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="179">
+        <v>1</v>
+      </c>
+      <c r="C23" s="179"/>
+      <c r="D23" s="179">
+        <v>2</v>
+      </c>
+      <c r="E23" s="179"/>
+      <c r="F23" s="179">
+        <v>3</v>
+      </c>
+      <c r="G23" s="179"/>
+      <c r="H23" s="179">
+        <v>4</v>
+      </c>
+      <c r="I23" s="179"/>
+      <c r="J23" s="179">
+        <v>5</v>
+      </c>
+      <c r="K23" s="179"/>
+      <c r="L23" s="179" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="179"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="C24" s="137">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="E24" s="137">
+        <v>0.44679999999999997</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="G24" s="138">
+        <v>0.56740000000000002</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.84950000000000003</v>
+      </c>
+      <c r="I24" s="138">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="K24" s="138">
+        <v>0.45029999999999998</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:M27" si="2">AVERAGE(J24,H24,F24,D24,B24)</f>
+        <v>0.85342000000000007</v>
+      </c>
+      <c r="M24" s="138">
+        <f t="shared" si="2"/>
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18">
+      <c r="B25">
         <v>0.85089999999999999</v>
       </c>
-      <c r="C18" s="138">
+      <c r="C25" s="138">
         <v>0.48080000000000001</v>
       </c>
-      <c r="D18">
+      <c r="D25">
         <v>0.85489999999999999</v>
       </c>
-      <c r="E18" s="138">
+      <c r="E25" s="138">
         <v>0.46810000000000002</v>
       </c>
-      <c r="F18">
+      <c r="F25">
         <v>0.85219999999999996</v>
       </c>
-      <c r="G18" s="138">
+      <c r="G25" s="138">
         <v>0.45889999999999997</v>
       </c>
-      <c r="H18">
+      <c r="H25">
         <v>0.85429999999999995</v>
       </c>
-      <c r="I18" s="138">
+      <c r="I25" s="138">
         <v>0.47970000000000002</v>
       </c>
-      <c r="J18">
+      <c r="J25">
         <v>0.84889999999999999</v>
       </c>
-      <c r="K18" s="138">
+      <c r="K25" s="138">
         <v>0.50660000000000005</v>
       </c>
-      <c r="L18">
+      <c r="L25">
         <f t="shared" si="2"/>
         <v>0.85223999999999989</v>
       </c>
-      <c r="M18" s="138">
+      <c r="M25" s="138">
         <f t="shared" si="2"/>
         <v>0.47881999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19">
-        <v>0.98919999999999997</v>
-      </c>
-      <c r="C19" s="138">
-        <v>0.66759999999999997</v>
-      </c>
-      <c r="D19">
-        <v>0.98839999999999995</v>
-      </c>
-      <c r="E19" s="138">
-        <v>0.67230000000000001</v>
-      </c>
-      <c r="F19">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="G19" s="138">
-        <v>0.65449999999999997</v>
-      </c>
-      <c r="H19">
-        <v>0.9919</v>
-      </c>
-      <c r="I19" s="138">
-        <v>0.67730000000000001</v>
-      </c>
-      <c r="J19">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="K19" s="138">
-        <v>0.64529999999999998</v>
-      </c>
-      <c r="L19">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="C26" s="138">
+        <v>0.55579999999999996</v>
+      </c>
+      <c r="D26">
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="E26" s="138">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F26">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="G26" s="138">
+        <v>0.49</v>
+      </c>
+      <c r="H26">
+        <v>0.85829999999999995</v>
+      </c>
+      <c r="I26" s="138">
+        <v>0.46679999999999999</v>
+      </c>
+      <c r="J26">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="K26" s="138">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="2"/>
-        <v>0.98994000000000004</v>
-      </c>
-      <c r="M19" s="138">
-        <f>AVERAGE(K19,I19,G19,E19,C19)</f>
-        <v>0.66339999999999999</v>
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="M26" s="138">
+        <f>AVERAGE(K26,I26,G26,E26,C26)</f>
+        <v>0.51410000000000011</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="C27" s="138">
+        <v>0.4738</v>
+      </c>
+      <c r="D27">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="E27" s="138">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="F27">
+        <v>0.8569</v>
+      </c>
+      <c r="G27" s="138">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="H27">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="I27" s="138">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="J27">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="K27" s="138">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0.85142000000000007</v>
+      </c>
+      <c r="M27" s="138">
+        <f>AVERAGE(K27,I27,G27,E27,C27)</f>
+        <v>0.50177999999999989</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="179">
-        <v>0.76071999999999995</v>
-      </c>
-      <c r="C28">
-        <v>0.48586000000000001</v>
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="C28" s="137">
+        <v>0.73670000000000002</v>
       </c>
       <c r="D28">
-        <v>0.87490000000000001</v>
-      </c>
-      <c r="E28">
-        <v>0.55300000000000005</v>
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="E28" s="137">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="F28">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="G28" s="138">
+        <v>0.70209999999999995</v>
+      </c>
+      <c r="H28">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="I28" s="138">
+        <v>0.73409999999999997</v>
+      </c>
+      <c r="J28">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="K28" s="138">
+        <v>0.72240000000000004</v>
+      </c>
+      <c r="L28">
+        <f>AVERAGE(J28,H28,F28,D28,B28)</f>
+        <v>0.98887999999999998</v>
+      </c>
+      <c r="M28" s="138">
+        <f>AVERAGE(K28,I28,G28,E28,C28)</f>
+        <v>0.72911999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.72285999999999995</v>
-      </c>
-      <c r="C29">
-        <v>0.70989999999999998</v>
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="C29" s="138">
+        <v>0.66759999999999997</v>
       </c>
       <c r="D29">
-        <v>0.75429999999999997</v>
-      </c>
-      <c r="E29">
-        <v>0.72911999999999999</v>
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="E29" s="138">
+        <v>0.67230000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="G29" s="138">
+        <v>0.65449999999999997</v>
+      </c>
+      <c r="H29">
+        <v>0.9919</v>
+      </c>
+      <c r="I29" s="138">
+        <v>0.67730000000000001</v>
+      </c>
+      <c r="J29">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="K29" s="138">
+        <v>0.64529999999999998</v>
+      </c>
+      <c r="L29">
+        <f>AVERAGE(J29,H29,F29,D29,B29)</f>
+        <v>0.98994000000000004</v>
+      </c>
+      <c r="M29" s="138">
+        <f>AVERAGE(K29,I29,G29,E29,C29)</f>
+        <v>0.66339999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B30">
-        <v>0.46876000000000001</v>
-      </c>
-      <c r="C30">
-        <v>0.43878</v>
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="C30" s="138">
+        <v>0.67720000000000002</v>
       </c>
       <c r="D30">
-        <v>0.53190000000000004</v>
-      </c>
-      <c r="E30">
-        <v>0.47882000000000002</v>
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="E30" s="138">
+        <v>0.67130000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="G30" s="138">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="H30">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="I30" s="138">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="J30">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="K30" s="138">
+        <v>0.69969999999999999</v>
+      </c>
+      <c r="L30">
+        <f>AVERAGE(J30,H30,F30,D30,B30)</f>
+        <v>0.98764000000000007</v>
+      </c>
+      <c r="M30" s="138">
+        <f>AVERAGE(K30,I30,G30,E30,C30)</f>
+        <v>0.68399999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="C31" s="138">
+        <v>0.69389999999999996</v>
+      </c>
+      <c r="D31">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="E31" s="138">
+        <v>0.75180000000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="G31" s="138">
+        <v>0.7117</v>
+      </c>
+      <c r="H31">
+        <v>0.98660000000000003</v>
+      </c>
+      <c r="I31" s="138">
+        <v>0.7046</v>
+      </c>
+      <c r="J31">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="K31" s="138">
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="L31">
+        <f>AVERAGE(J31,H31,F31,D31,B31)</f>
+        <v>0.98694000000000004</v>
+      </c>
+      <c r="M31" s="138">
+        <f>AVERAGE(K31,I31,G31,E31,C31)</f>
+        <v>0.71265999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="179">
+        <v>1</v>
+      </c>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179">
+        <v>2</v>
+      </c>
+      <c r="E34" s="179"/>
+      <c r="F34" s="179">
+        <v>3</v>
+      </c>
+      <c r="G34" s="179"/>
+      <c r="H34" s="179">
+        <v>4</v>
+      </c>
+      <c r="I34" s="179"/>
+      <c r="J34" s="179">
+        <v>5</v>
+      </c>
+      <c r="K34" s="179"/>
+      <c r="L34" s="179" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="179"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="C35" s="137">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.8306</v>
+      </c>
+      <c r="E35" s="137">
+        <v>0.63570000000000004</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="G35" s="138">
+        <v>0.59409999999999996</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="I35" s="138">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="K35" s="138">
+        <v>0.67030000000000001</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35" si="3">AVERAGE(J35,H35,F35,D35,B35)</f>
+        <v>0.83883999999999992</v>
+      </c>
+      <c r="M35" s="138">
+        <f t="shared" ref="M35" si="4">AVERAGE(K35,I35,G35,E35,C35)</f>
+        <v>0.65162000000000009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>0.85829999999999995</v>
+      </c>
+      <c r="C36" s="138">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D36">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="E36" s="138">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F36">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="G36" s="138">
+        <v>0.74609999999999999</v>
+      </c>
+      <c r="H36">
+        <v>0.8367</v>
+      </c>
+      <c r="I36" s="138">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="J36">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="K36" s="138">
+        <v>0.56420000000000003</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ref="L36:L38" si="5">AVERAGE(J36,H36,F36,D36,B36)</f>
+        <v>0.83778000000000008</v>
+      </c>
+      <c r="M36" s="138">
+        <f t="shared" ref="M36:M38" si="6">AVERAGE(K36,I36,G36,E36,C36)</f>
+        <v>0.72010000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="C37" s="138">
+        <v>0.70730000000000004</v>
+      </c>
+      <c r="D37">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="E37" s="138">
+        <v>0.69059999999999999</v>
+      </c>
+      <c r="F37">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="G37" s="138">
+        <v>0.70030000000000003</v>
+      </c>
+      <c r="H37">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="I37" s="138">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="J37">
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="K37" s="138">
+        <v>0.70569999999999999</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>0.98528000000000004</v>
+      </c>
+      <c r="M37" s="138">
+        <f t="shared" si="6"/>
+        <v>0.69923999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="C38" s="138">
+        <v>0.69379999999999997</v>
+      </c>
+      <c r="D38">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="E38" s="138">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F38">
+        <v>0.96960000000000002</v>
+      </c>
+      <c r="G38" s="138">
+        <v>0.746</v>
+      </c>
+      <c r="H38">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="I38" s="138">
+        <v>0.71809999999999996</v>
+      </c>
+      <c r="J38">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="K38" s="138">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>0.98442000000000007</v>
+      </c>
+      <c r="M38" s="138">
+        <f t="shared" si="6"/>
+        <v>0.71477999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="139">
+        <v>0.76071999999999995</v>
+      </c>
+      <c r="C42">
+        <v>0.48586000000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="E42">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:F43" si="7">D42-E42</f>
+        <v>0.32189999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>0.72285999999999995</v>
+      </c>
+      <c r="C43">
+        <v>0.70989999999999998</v>
+      </c>
+      <c r="D43">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="E43">
+        <v>0.72911999999999999</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="7"/>
+        <v>2.517999999999998E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.46876000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.43878</v>
+      </c>
+      <c r="D44">
+        <v>0.53190000000000004</v>
+      </c>
+      <c r="E44">
+        <v>0.47882000000000002</v>
+      </c>
+      <c r="F44">
+        <f>D44-E44</f>
+        <v>5.3080000000000016E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B31">
+      <c r="B45">
         <v>0.63124000000000002</v>
       </c>
-      <c r="C31">
+      <c r="C45">
         <v>0.63280000000000003</v>
       </c>
-      <c r="D31">
+      <c r="D45">
         <v>0.66069999999999995</v>
       </c>
-      <c r="E31">
+      <c r="E45">
         <v>0.66339999999999999</v>
       </c>
+      <c r="F45">
+        <f t="shared" ref="F45:F46" si="8">D45-E45</f>
+        <v>-2.7000000000000357E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>0.45669999999999999</v>
+      </c>
+      <c r="D46">
+        <v>0.65159999999999996</v>
+      </c>
+      <c r="E46">
+        <v>0.5141</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="8"/>
+        <v>0.13749999999999996</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
+  <mergeCells count="24">
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiments.xlsx
+++ b/Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41851\Desktop\SparseGraphDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2472C3-DDEA-4C5F-B3F1-74251ACEBE7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28AF199-DEA2-46E9-AA2F-5B678A37F40C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38550" yWindow="45" windowWidth="21600" windowHeight="9645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1次实验" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="54">
   <si>
     <t>源域</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -644,24 +644,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -760,6 +742,87 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,96 +849,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1162,9 +1135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE25" sqref="AE25:AE30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1214,10 +1187,10 @@
     <col min="43" max="43" width="7.5" customWidth="1"/>
     <col min="44" max="44" width="3.375" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="7.5" customWidth="1"/>
-    <col min="46" max="46" width="5" style="131" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.5" style="131" customWidth="1"/>
-    <col min="48" max="48" width="3.375" style="131" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.5" style="131" customWidth="1"/>
+    <col min="46" max="46" width="5" style="125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.5" style="125" customWidth="1"/>
+    <col min="48" max="48" width="3.375" style="125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.5" style="125" customWidth="1"/>
     <col min="50" max="50" width="5" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="7.5" customWidth="1"/>
     <col min="52" max="52" width="3.375" bestFit="1" customWidth="1"/>
@@ -1232,99 +1205,99 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="158" t="s">
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="158" t="s">
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="158" t="s">
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="158" t="s">
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="158" t="s">
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="158" t="s">
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="149" t="s">
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="157"/>
+      <c r="AD1" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="150"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="151"/>
-      <c r="AH1" s="146" t="s">
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="148"/>
-      <c r="AL1" s="146" t="s">
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="169"/>
+      <c r="AL1" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="147"/>
-      <c r="AN1" s="147"/>
-      <c r="AO1" s="148"/>
-      <c r="AP1" s="146" t="s">
+      <c r="AM1" s="168"/>
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="169"/>
+      <c r="AP1" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="AQ1" s="147"/>
-      <c r="AR1" s="147"/>
-      <c r="AS1" s="148"/>
-      <c r="AT1" s="143" t="s">
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
+      <c r="AS1" s="169"/>
+      <c r="AT1" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="AU1" s="144"/>
-      <c r="AV1" s="144"/>
-      <c r="AW1" s="145"/>
-      <c r="AX1" s="146" t="s">
+      <c r="AU1" s="165"/>
+      <c r="AV1" s="165"/>
+      <c r="AW1" s="166"/>
+      <c r="AX1" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="AY1" s="147"/>
-      <c r="AZ1" s="147"/>
-      <c r="BA1" s="148"/>
-      <c r="BB1" s="146" t="s">
+      <c r="AY1" s="168"/>
+      <c r="AZ1" s="168"/>
+      <c r="BA1" s="169"/>
+      <c r="BB1" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="BC1" s="147"/>
-      <c r="BD1" s="147"/>
-      <c r="BE1" s="148"/>
+      <c r="BC1" s="168"/>
+      <c r="BD1" s="168"/>
+      <c r="BE1" s="169"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="163"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="149"/>
       <c r="F2" s="152"/>
       <c r="G2" s="153"/>
       <c r="H2" s="153"/>
@@ -1379,64 +1352,88 @@
       <c r="BE2" s="31"/>
     </row>
     <row r="3" spans="1:57" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="150" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="133"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="78"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="127"/>
+      <c r="F3" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="50">
+        <v>0.76049999999999995</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="51">
+        <v>0.89410000000000001</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="50">
+        <v>0.78810000000000002</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="51">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="50">
+        <v>0.7591</v>
+      </c>
+      <c r="P3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="51">
+        <v>0.89270000000000005</v>
+      </c>
       <c r="R3" s="49" t="s">
         <v>21</v>
       </c>
       <c r="S3" s="50">
-        <v>0.75780000000000003</v>
+        <v>0.76719999999999999</v>
       </c>
       <c r="T3" s="51" t="s">
         <v>24</v>
       </c>
       <c r="U3" s="51">
-        <v>0.88660000000000005</v>
+        <v>0.89739999999999998</v>
       </c>
       <c r="V3" s="49" t="s">
         <v>21</v>
       </c>
       <c r="W3" s="50">
-        <v>0.75170000000000003</v>
+        <v>0.75370000000000004</v>
       </c>
       <c r="X3" s="51" t="s">
         <v>24</v>
       </c>
       <c r="Y3" s="51">
-        <v>0.88970000000000005</v>
+        <v>0.89810000000000001</v>
       </c>
       <c r="Z3" s="49" t="s">
         <v>21</v>
       </c>
       <c r="AA3" s="50">
-        <v>0.77669999999999995</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="AB3" s="51" t="s">
         <v>24</v>
       </c>
       <c r="AC3" s="51">
-        <v>0.88649999999999995</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="AD3" s="66" t="s">
         <v>21</v>
@@ -1489,42 +1486,42 @@
       <c r="AT3" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="AU3" s="118">
+      <c r="AU3" s="112">
         <v>0.82889999999999997</v>
       </c>
       <c r="AV3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="AW3" s="119">
+      <c r="AW3" s="113">
         <v>0.72809999999999997</v>
       </c>
       <c r="AX3" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="AY3" s="118">
+      <c r="AY3" s="112">
         <v>0.72309999999999997</v>
       </c>
       <c r="AZ3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="BA3" s="119">
+      <c r="BA3" s="113">
         <v>0.73929999999999996</v>
       </c>
       <c r="BB3" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="BC3" s="118">
+      <c r="BC3" s="112">
         <v>0.79300000000000004</v>
       </c>
       <c r="BD3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="BE3" s="119">
+      <c r="BE3" s="113">
         <v>0.74829999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:57" s="117" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="168"/>
+    <row r="4" spans="1:57" s="111" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="151"/>
       <c r="B4" s="59" t="s">
         <v>23</v>
       </c>
@@ -1533,147 +1530,179 @@
         <v>24</v>
       </c>
       <c r="E4" s="62"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="163"/>
-      <c r="R4" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="85">
-        <v>0.74490000000000001</v>
-      </c>
-      <c r="T4" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="87">
-        <v>0.8841</v>
-      </c>
-      <c r="V4" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="W4" s="85">
-        <v>0.74490000000000001</v>
-      </c>
-      <c r="X4" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="87">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="Z4" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA4" s="85">
-        <v>0.76519999999999999</v>
-      </c>
-      <c r="AB4" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC4" s="87">
-        <v>0.88080000000000003</v>
-      </c>
-      <c r="AD4" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE4" s="108">
+      <c r="F4" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="79">
+        <v>0.76590000000000003</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="81">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="79">
+        <v>0.76590000000000003</v>
+      </c>
+      <c r="L4" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="81">
+        <v>0.87849999999999995</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="79">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="P4" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="81">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="R4" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="79">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="T4" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="81">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="V4" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="79">
+        <v>0.75570000000000004</v>
+      </c>
+      <c r="X4" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="81">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="Z4" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA4" s="79">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="AB4" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC4" s="81">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="AD4" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="102">
         <v>0.98209999999999997</v>
       </c>
-      <c r="AF4" s="108" t="s">
+      <c r="AF4" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG4" s="109">
+      <c r="AG4" s="103">
         <v>0.2394</v>
       </c>
-      <c r="AH4" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI4" s="85">
+      <c r="AH4" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI4" s="79">
         <v>0.69979999999999998</v>
       </c>
-      <c r="AJ4" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK4" s="116">
+      <c r="AJ4" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK4" s="110">
         <v>0.68179999999999996</v>
       </c>
-      <c r="AL4" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM4" s="85">
+      <c r="AL4" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM4" s="79">
         <v>0.72040000000000004</v>
       </c>
-      <c r="AN4" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO4" s="116">
+      <c r="AN4" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO4" s="110">
         <v>0.67400000000000004</v>
       </c>
-      <c r="AP4" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ4" s="85">
+      <c r="AP4" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ4" s="79">
         <v>0.71860000000000002</v>
       </c>
-      <c r="AR4" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS4" s="116">
+      <c r="AR4" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS4" s="110">
         <v>0.73650000000000004</v>
       </c>
-      <c r="AT4" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU4" s="120">
+      <c r="AT4" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU4" s="114">
         <v>0.67469999999999997</v>
       </c>
-      <c r="AV4" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW4" s="121">
+      <c r="AV4" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW4" s="115">
         <v>0.43509999999999999</v>
       </c>
-      <c r="AX4" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY4" s="120">
+      <c r="AX4" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY4" s="114">
         <v>0.71860000000000002</v>
       </c>
-      <c r="AZ4" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA4" s="121">
+      <c r="AZ4" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA4" s="115">
         <v>0.70809999999999995</v>
       </c>
-      <c r="BB4" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC4" s="120">
+      <c r="BB4" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC4" s="114">
         <v>0.70889999999999997</v>
       </c>
-      <c r="BD4" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE4" s="121">
+      <c r="BD4" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE4" s="115">
         <v>0.6341</v>
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
+      <c r="B5" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="50">
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="51">
+        <v>0.86429999999999996</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -1746,37 +1775,45 @@
       <c r="AS5" s="22">
         <v>0.67349999999999999</v>
       </c>
-      <c r="AT5" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="AU5" s="123"/>
+      <c r="AT5" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU5" s="117"/>
       <c r="AV5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AW5" s="124"/>
-      <c r="AX5" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY5" s="123"/>
+      <c r="AW5" s="118"/>
+      <c r="AX5" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY5" s="117"/>
       <c r="AZ5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="BA5" s="124"/>
-      <c r="BB5" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="BC5" s="123"/>
+      <c r="BA5" s="118"/>
+      <c r="BB5" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC5" s="117"/>
       <c r="BD5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="BE5" s="124"/>
-    </row>
-    <row r="6" spans="1:57" s="112" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="170"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="163"/>
+      <c r="BE5" s="118"/>
+    </row>
+    <row r="6" spans="1:57" s="106" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="142"/>
+      <c r="B6" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="79">
+        <v>0.83130000000000004</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="81">
+        <v>0.82050000000000001</v>
+      </c>
       <c r="F6" s="152"/>
       <c r="G6" s="153"/>
       <c r="H6" s="153"/>
@@ -1801,87 +1838,95 @@
       <c r="AA6" s="153"/>
       <c r="AB6" s="153"/>
       <c r="AC6" s="153"/>
-      <c r="AD6" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE6" s="108">
+      <c r="AD6" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE6" s="102">
         <v>0.98570000000000002</v>
       </c>
-      <c r="AF6" s="108" t="s">
+      <c r="AF6" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG6" s="109">
+      <c r="AG6" s="103">
         <v>0.54430000000000001</v>
       </c>
-      <c r="AH6" s="114" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI6" s="110">
+      <c r="AH6" s="108" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI6" s="104">
         <v>0.70609999999999995</v>
       </c>
-      <c r="AJ6" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK6" s="111">
+      <c r="AJ6" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK6" s="105">
         <v>0.58160000000000001</v>
       </c>
-      <c r="AL6" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM6" s="110">
+      <c r="AL6" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM6" s="104">
         <v>0.72489999999999999</v>
       </c>
-      <c r="AN6" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO6" s="111">
+      <c r="AN6" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO6" s="105">
         <v>0.63290000000000002</v>
       </c>
-      <c r="AP6" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ6" s="110">
+      <c r="AP6" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ6" s="104">
         <v>0.69799999999999995</v>
       </c>
-      <c r="AR6" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS6" s="111">
+      <c r="AR6" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS6" s="105">
         <v>0.55610000000000004</v>
       </c>
-      <c r="AT6" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU6" s="98"/>
-      <c r="AV6" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW6" s="125"/>
-      <c r="AX6" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY6" s="98"/>
-      <c r="AZ6" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA6" s="125"/>
-      <c r="BB6" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC6" s="98"/>
-      <c r="BD6" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE6" s="125"/>
+      <c r="AT6" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU6" s="92"/>
+      <c r="AV6" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW6" s="119"/>
+      <c r="AX6" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY6" s="92"/>
+      <c r="AZ6" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA6" s="119"/>
+      <c r="BB6" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC6" s="92"/>
+      <c r="BD6" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE6" s="119"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
+      <c r="B7" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="50">
+        <v>0.84950000000000003</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="51">
+        <v>0.86370000000000002</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1957,139 +2002,155 @@
       <c r="AT7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AU7" s="123"/>
+      <c r="AU7" s="117"/>
       <c r="AV7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AW7" s="124"/>
+      <c r="AW7" s="118"/>
       <c r="AX7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AY7" s="123"/>
+      <c r="AY7" s="117"/>
       <c r="AZ7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BA7" s="124"/>
+      <c r="BA7" s="118"/>
       <c r="BB7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="BC7" s="123"/>
+      <c r="BC7" s="117"/>
       <c r="BD7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BE7" s="124"/>
-    </row>
-    <row r="8" spans="1:57" s="112" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="172"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="157"/>
-      <c r="R8" s="155"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="157"/>
-      <c r="V8" s="155"/>
-      <c r="W8" s="156"/>
-      <c r="X8" s="156"/>
-      <c r="Y8" s="157"/>
-      <c r="Z8" s="155"/>
-      <c r="AA8" s="156"/>
-      <c r="AB8" s="156"/>
-      <c r="AC8" s="156"/>
-      <c r="AD8" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE8" s="108">
+      <c r="BE7" s="118"/>
+    </row>
+    <row r="8" spans="1:57" s="106" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="144"/>
+      <c r="B8" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="79">
+        <v>0.8347</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="81">
+        <v>0.8367</v>
+      </c>
+      <c r="F8" s="158"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="158"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="160"/>
+      <c r="R8" s="158"/>
+      <c r="S8" s="159"/>
+      <c r="T8" s="159"/>
+      <c r="U8" s="160"/>
+      <c r="V8" s="158"/>
+      <c r="W8" s="159"/>
+      <c r="X8" s="159"/>
+      <c r="Y8" s="160"/>
+      <c r="Z8" s="158"/>
+      <c r="AA8" s="159"/>
+      <c r="AB8" s="159"/>
+      <c r="AC8" s="159"/>
+      <c r="AD8" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE8" s="102">
         <v>0.9839</v>
       </c>
-      <c r="AF8" s="108" t="s">
+      <c r="AF8" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="109">
+      <c r="AG8" s="103">
         <v>0.47989999999999999</v>
       </c>
-      <c r="AH8" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI8" s="110">
+      <c r="AH8" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI8" s="104">
         <v>0.68279999999999996</v>
       </c>
-      <c r="AJ8" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK8" s="111">
+      <c r="AJ8" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK8" s="105">
         <v>0.49259999999999998</v>
       </c>
-      <c r="AL8" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM8" s="110">
+      <c r="AL8" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM8" s="104">
         <v>0.70609999999999995</v>
       </c>
-      <c r="AN8" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO8" s="111">
+      <c r="AN8" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO8" s="105">
         <v>0.54600000000000004</v>
       </c>
-      <c r="AP8" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ8" s="110">
+      <c r="AP8" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ8" s="104">
         <v>0.70609999999999995</v>
       </c>
-      <c r="AR8" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS8" s="111">
+      <c r="AR8" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS8" s="105">
         <v>0.54930000000000001</v>
       </c>
-      <c r="AT8" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU8" s="98"/>
-      <c r="AV8" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW8" s="125"/>
-      <c r="AX8" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY8" s="98"/>
-      <c r="AZ8" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA8" s="125"/>
-      <c r="BB8" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC8" s="98"/>
-      <c r="BD8" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE8" s="125"/>
+      <c r="AT8" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW8" s="119"/>
+      <c r="AX8" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA8" s="119"/>
+      <c r="BB8" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC8" s="92"/>
+      <c r="BD8" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE8" s="119"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="B9" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="50">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="51">
+        <v>0.85629999999999995</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2165,34 +2226,42 @@
       <c r="AT9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AU9" s="123"/>
+      <c r="AU9" s="117"/>
       <c r="AV9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AW9" s="124"/>
+      <c r="AW9" s="118"/>
       <c r="AX9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AY9" s="123"/>
+      <c r="AY9" s="117"/>
       <c r="AZ9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BA9" s="124"/>
+      <c r="BA9" s="118"/>
       <c r="BB9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="BC9" s="123"/>
+      <c r="BC9" s="117"/>
       <c r="BD9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BE9" s="124"/>
-    </row>
-    <row r="10" spans="1:57" s="112" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="170"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="163"/>
+      <c r="BE9" s="118"/>
+    </row>
+    <row r="10" spans="1:57" s="106" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="142"/>
+      <c r="B10" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="79">
+        <v>0.8387</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0.84350000000000003</v>
+      </c>
       <c r="F10" s="152"/>
       <c r="G10" s="153"/>
       <c r="H10" s="153"/>
@@ -2217,81 +2286,81 @@
       <c r="AA10" s="153"/>
       <c r="AB10" s="153"/>
       <c r="AC10" s="153"/>
-      <c r="AD10" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE10" s="108">
+      <c r="AD10" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE10" s="102">
         <v>0.98570000000000002</v>
       </c>
-      <c r="AF10" s="108" t="s">
+      <c r="AF10" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="109">
+      <c r="AG10" s="103">
         <v>0.49569999999999997</v>
       </c>
-      <c r="AH10" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI10" s="110">
+      <c r="AH10" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" s="104">
         <v>0.7177</v>
       </c>
-      <c r="AJ10" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK10" s="111">
+      <c r="AJ10" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK10" s="105">
         <v>0.61150000000000004</v>
       </c>
-      <c r="AL10" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM10" s="110">
+      <c r="AL10" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM10" s="104">
         <v>0.73660000000000003</v>
       </c>
-      <c r="AN10" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO10" s="111">
+      <c r="AN10" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO10" s="105">
         <v>0.62480000000000002</v>
       </c>
-      <c r="AP10" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ10" s="110">
+      <c r="AP10" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ10" s="104">
         <v>0.71330000000000005</v>
       </c>
-      <c r="AR10" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS10" s="111">
+      <c r="AR10" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS10" s="105">
         <v>0.56820000000000004</v>
       </c>
-      <c r="AT10" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU10" s="98"/>
-      <c r="AV10" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW10" s="125"/>
-      <c r="AX10" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY10" s="98"/>
-      <c r="AZ10" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA10" s="125"/>
-      <c r="BB10" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC10" s="98"/>
-      <c r="BD10" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE10" s="125"/>
+      <c r="AT10" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU10" s="92"/>
+      <c r="AV10" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW10" s="119"/>
+      <c r="AX10" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY10" s="92"/>
+      <c r="AZ10" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA10" s="119"/>
+      <c r="BB10" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC10" s="92"/>
+      <c r="BD10" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE10" s="119"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="141" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -2304,7 +2373,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="51">
-        <v>0.85560000000000003</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
@@ -2345,65 +2414,65 @@
       <c r="AH11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AI11" s="123"/>
+      <c r="AI11" s="117"/>
       <c r="AJ11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AK11" s="124"/>
+      <c r="AK11" s="118"/>
       <c r="AL11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AM11" s="123"/>
+      <c r="AM11" s="117"/>
       <c r="AN11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AO11" s="124"/>
+      <c r="AO11" s="118"/>
       <c r="AP11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AQ11" s="123"/>
+      <c r="AQ11" s="117"/>
       <c r="AR11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AS11" s="124"/>
+      <c r="AS11" s="118"/>
       <c r="AT11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AU11" s="123"/>
+      <c r="AU11" s="117"/>
       <c r="AV11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AW11" s="124"/>
+      <c r="AW11" s="118"/>
       <c r="AX11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AY11" s="123"/>
+      <c r="AY11" s="117"/>
       <c r="AZ11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BA11" s="124"/>
+      <c r="BA11" s="118"/>
       <c r="BB11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="BC11" s="123"/>
+      <c r="BC11" s="117"/>
       <c r="BD11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BE11" s="124"/>
-    </row>
-    <row r="12" spans="1:57" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="170"/>
-      <c r="B12" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="85">
-        <v>0.83130000000000004</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="87">
-        <v>0.82909999999999995</v>
+      <c r="BE11" s="118"/>
+    </row>
+    <row r="12" spans="1:57" s="106" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="142"/>
+      <c r="B12" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="79">
+        <v>0.82520000000000004</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0.8286</v>
       </c>
       <c r="F12" s="152"/>
       <c r="G12" s="153"/>
@@ -2429,82 +2498,82 @@
       <c r="AA12" s="153"/>
       <c r="AB12" s="153"/>
       <c r="AC12" s="153"/>
-      <c r="AD12" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE12" s="108">
+      <c r="AD12" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE12" s="102">
         <v>0.98480000000000001</v>
       </c>
-      <c r="AF12" s="108" t="s">
+      <c r="AF12" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG12" s="109">
+      <c r="AG12" s="103">
         <v>0.64600000000000002</v>
       </c>
-      <c r="AH12" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI12" s="126"/>
-      <c r="AJ12" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK12" s="127"/>
-      <c r="AL12" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM12" s="126"/>
-      <c r="AN12" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO12" s="127"/>
-      <c r="AP12" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ12" s="126"/>
-      <c r="AR12" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS12" s="127"/>
-      <c r="AT12" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU12" s="126"/>
-      <c r="AV12" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW12" s="127"/>
-      <c r="AX12" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY12" s="126"/>
-      <c r="AZ12" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA12" s="127"/>
-      <c r="BB12" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC12" s="126"/>
-      <c r="BD12" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE12" s="127"/>
+      <c r="AH12" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI12" s="120"/>
+      <c r="AJ12" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM12" s="120"/>
+      <c r="AN12" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO12" s="121"/>
+      <c r="AP12" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ12" s="120"/>
+      <c r="AR12" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS12" s="121"/>
+      <c r="AT12" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU12" s="120"/>
+      <c r="AV12" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW12" s="121"/>
+      <c r="AX12" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY12" s="120"/>
+      <c r="AZ12" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA12" s="121"/>
+      <c r="BB12" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC12" s="120"/>
+      <c r="BD12" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE12" s="121"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="143" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="50">
-        <v>0.85629999999999995</v>
+        <v>0.84140000000000004</v>
       </c>
       <c r="D13" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="51">
-        <v>0.86460000000000004</v>
+        <v>0.85489999999999999</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
@@ -2545,166 +2614,166 @@
       <c r="AH13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AI13" s="123"/>
+      <c r="AI13" s="117"/>
       <c r="AJ13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AK13" s="124"/>
+      <c r="AK13" s="118"/>
       <c r="AL13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AM13" s="123"/>
+      <c r="AM13" s="117"/>
       <c r="AN13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AO13" s="124"/>
+      <c r="AO13" s="118"/>
       <c r="AP13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AQ13" s="123"/>
+      <c r="AQ13" s="117"/>
       <c r="AR13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AS13" s="124"/>
+      <c r="AS13" s="118"/>
       <c r="AT13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AU13" s="123"/>
+      <c r="AU13" s="117"/>
       <c r="AV13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AW13" s="124"/>
+      <c r="AW13" s="118"/>
       <c r="AX13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AY13" s="123"/>
+      <c r="AY13" s="117"/>
       <c r="AZ13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BA13" s="124"/>
+      <c r="BA13" s="118"/>
       <c r="BB13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="BC13" s="123"/>
+      <c r="BC13" s="117"/>
       <c r="BD13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BE13" s="124"/>
-    </row>
-    <row r="14" spans="1:57" s="112" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="172"/>
-      <c r="B14" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="85">
-        <v>0.8306</v>
-      </c>
-      <c r="D14" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="87">
-        <v>0.83330000000000004</v>
+      <c r="BE13" s="118"/>
+    </row>
+    <row r="14" spans="1:57" s="106" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="144"/>
+      <c r="B14" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="79">
+        <v>0.8327</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="81">
+        <v>0.83130000000000004</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="140"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="142"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="163"/>
       <c r="R14" s="12"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
       <c r="U14" s="14"/>
-      <c r="V14" s="140"/>
-      <c r="W14" s="141"/>
-      <c r="X14" s="141"/>
-      <c r="Y14" s="142"/>
-      <c r="Z14" s="140"/>
-      <c r="AA14" s="141"/>
-      <c r="AB14" s="141"/>
-      <c r="AC14" s="141"/>
-      <c r="AD14" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE14" s="113">
+      <c r="V14" s="161"/>
+      <c r="W14" s="162"/>
+      <c r="X14" s="162"/>
+      <c r="Y14" s="163"/>
+      <c r="Z14" s="161"/>
+      <c r="AA14" s="162"/>
+      <c r="AB14" s="162"/>
+      <c r="AC14" s="162"/>
+      <c r="AD14" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE14" s="107">
         <v>0.98750000000000004</v>
       </c>
-      <c r="AF14" s="108" t="s">
+      <c r="AF14" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG14" s="109">
+      <c r="AG14" s="103">
         <v>0.48699999999999999</v>
       </c>
-      <c r="AH14" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI14" s="126"/>
-      <c r="AJ14" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK14" s="127"/>
-      <c r="AL14" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM14" s="126"/>
-      <c r="AN14" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO14" s="127"/>
-      <c r="AP14" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ14" s="126"/>
-      <c r="AR14" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS14" s="127"/>
-      <c r="AT14" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU14" s="126"/>
-      <c r="AV14" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW14" s="127"/>
-      <c r="AX14" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY14" s="126"/>
-      <c r="AZ14" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA14" s="127"/>
-      <c r="BB14" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC14" s="126"/>
-      <c r="BD14" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE14" s="127"/>
+      <c r="AH14" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI14" s="120"/>
+      <c r="AJ14" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK14" s="121"/>
+      <c r="AL14" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM14" s="120"/>
+      <c r="AN14" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO14" s="121"/>
+      <c r="AP14" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ14" s="120"/>
+      <c r="AR14" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS14" s="121"/>
+      <c r="AT14" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU14" s="120"/>
+      <c r="AV14" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW14" s="121"/>
+      <c r="AX14" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY14" s="120"/>
+      <c r="AZ14" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA14" s="121"/>
+      <c r="BB14" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC14" s="120"/>
+      <c r="BD14" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE14" s="121"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="141" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="50">
-        <v>0.85960000000000003</v>
+        <v>0.85360000000000003</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="51">
-        <v>0.86460000000000004</v>
+        <v>0.86770000000000003</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
@@ -2745,65 +2814,65 @@
       <c r="AH15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AI15" s="123"/>
+      <c r="AI15" s="117"/>
       <c r="AJ15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AK15" s="124"/>
+      <c r="AK15" s="118"/>
       <c r="AL15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AM15" s="123"/>
+      <c r="AM15" s="117"/>
       <c r="AN15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AO15" s="124"/>
+      <c r="AO15" s="118"/>
       <c r="AP15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AQ15" s="123"/>
+      <c r="AQ15" s="117"/>
       <c r="AR15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AS15" s="124"/>
+      <c r="AS15" s="118"/>
       <c r="AT15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AU15" s="123"/>
+      <c r="AU15" s="117"/>
       <c r="AV15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AW15" s="124"/>
+      <c r="AW15" s="118"/>
       <c r="AX15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AY15" s="123"/>
+      <c r="AY15" s="117"/>
       <c r="AZ15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BA15" s="124"/>
+      <c r="BA15" s="118"/>
       <c r="BB15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="BC15" s="123"/>
+      <c r="BC15" s="117"/>
       <c r="BD15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="BE15" s="124"/>
-    </row>
-    <row r="16" spans="1:57" s="112" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="170"/>
-      <c r="B16" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="85">
-        <v>0.84009999999999996</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="87">
-        <v>0.82440000000000002</v>
+      <c r="BE15" s="118"/>
+    </row>
+    <row r="16" spans="1:57" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="142"/>
+      <c r="B16" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="79">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="81">
+        <v>0.82930000000000004</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="19"/>
@@ -2829,69 +2898,69 @@
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
       <c r="AC16" s="19"/>
-      <c r="AD16" s="107" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE16" s="108">
+      <c r="AD16" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE16" s="102">
         <v>0.98750000000000004</v>
       </c>
-      <c r="AF16" s="108" t="s">
+      <c r="AF16" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG16" s="109">
+      <c r="AG16" s="103">
         <v>0.65280000000000005</v>
       </c>
-      <c r="AH16" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI16" s="126"/>
-      <c r="AJ16" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK16" s="127"/>
-      <c r="AL16" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM16" s="126"/>
-      <c r="AN16" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO16" s="127"/>
-      <c r="AP16" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ16" s="126"/>
-      <c r="AR16" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS16" s="127"/>
-      <c r="AT16" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU16" s="126"/>
-      <c r="AV16" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW16" s="127"/>
-      <c r="AX16" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY16" s="126"/>
-      <c r="AZ16" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA16" s="127"/>
-      <c r="BB16" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC16" s="126"/>
-      <c r="BD16" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE16" s="127"/>
+      <c r="AH16" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI16" s="120"/>
+      <c r="AJ16" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK16" s="121"/>
+      <c r="AL16" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM16" s="120"/>
+      <c r="AN16" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO16" s="121"/>
+      <c r="AP16" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ16" s="120"/>
+      <c r="AR16" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS16" s="121"/>
+      <c r="AT16" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU16" s="120"/>
+      <c r="AV16" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW16" s="121"/>
+      <c r="AX16" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY16" s="120"/>
+      <c r="AZ16" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA16" s="121"/>
+      <c r="BB16" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC16" s="120"/>
+      <c r="BD16" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE16" s="121"/>
     </row>
     <row r="17" spans="1:57" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="177" t="s">
+      <c r="A17" s="145" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="49" t="s">
@@ -2998,123 +3067,123 @@
         <v>21</v>
       </c>
       <c r="AU17" s="50">
-        <v>0.83150000000000002</v>
+        <v>0.84050000000000002</v>
       </c>
       <c r="AV17" s="51" t="s">
         <v>24</v>
       </c>
       <c r="AW17" s="51">
-        <v>0.99160000000000004</v>
+        <v>0.9919</v>
       </c>
       <c r="AX17" s="49" t="s">
         <v>21</v>
       </c>
       <c r="AY17" s="50">
-        <v>0.81540000000000001</v>
+        <v>0.79659999999999997</v>
       </c>
       <c r="AZ17" s="51" t="s">
         <v>24</v>
       </c>
       <c r="BA17" s="51">
-        <v>0.99119999999999997</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="BB17" s="49" t="s">
         <v>21</v>
       </c>
       <c r="BC17" s="50">
-        <v>0.81989999999999996</v>
+        <v>0.79210000000000003</v>
       </c>
       <c r="BD17" s="51" t="s">
         <v>24</v>
       </c>
       <c r="BE17" s="51">
-        <v>0.99050000000000005</v>
+        <v>0.9919</v>
       </c>
     </row>
     <row r="18" spans="1:57" s="58" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="178"/>
-      <c r="B18" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="85">
+      <c r="A18" s="146"/>
+      <c r="B18" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="79">
         <v>0.8286</v>
       </c>
-      <c r="D18" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="87">
+      <c r="D18" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="81">
         <v>0.7157</v>
       </c>
-      <c r="F18" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="85">
+      <c r="F18" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="79">
         <v>0.72060000000000002</v>
       </c>
-      <c r="H18" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="87">
+      <c r="H18" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="81">
         <v>0.68369999999999997</v>
       </c>
-      <c r="J18" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="85">
+      <c r="J18" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="79">
         <v>0.73950000000000005</v>
       </c>
-      <c r="L18" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="87">
+      <c r="L18" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="81">
         <v>0.57279999999999998</v>
       </c>
-      <c r="N18" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="85">
+      <c r="N18" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="79">
         <v>0.70720000000000005</v>
       </c>
-      <c r="P18" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="88">
+      <c r="P18" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="82">
         <v>0.42109999999999997</v>
       </c>
-      <c r="R18" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="90">
+      <c r="R18" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" s="84">
         <v>0.73209999999999997</v>
       </c>
-      <c r="T18" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="U18" s="92">
+      <c r="T18" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" s="86">
         <v>0.78990000000000005</v>
       </c>
-      <c r="V18" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="W18" s="90">
+      <c r="V18" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="W18" s="84">
         <v>0.70850000000000002</v>
       </c>
-      <c r="X18" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y18" s="92">
+      <c r="X18" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y18" s="86">
         <v>0.76139999999999997</v>
       </c>
-      <c r="Z18" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA18" s="90">
+      <c r="Z18" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA18" s="84">
         <v>0.72540000000000004</v>
       </c>
-      <c r="AB18" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC18" s="92">
+      <c r="AB18" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC18" s="86">
         <v>0.43080000000000002</v>
       </c>
       <c r="AD18" s="54"/>
@@ -3133,51 +3202,51 @@
       <c r="AQ18" s="60"/>
       <c r="AR18" s="61"/>
       <c r="AS18" s="63"/>
-      <c r="AT18" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU18" s="90">
-        <v>0.8629</v>
-      </c>
-      <c r="AV18" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW18" s="92">
-        <v>0.99009999999999998</v>
-      </c>
-      <c r="AX18" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY18" s="90">
-        <v>0.83150000000000002</v>
-      </c>
-      <c r="AZ18" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA18" s="92">
-        <v>0.9899</v>
-      </c>
-      <c r="BB18" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC18" s="90">
-        <v>0.83689999999999998</v>
-      </c>
-      <c r="BD18" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE18" s="92">
-        <v>0.98919999999999997</v>
+      <c r="AT18" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU18" s="84">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="AV18" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW18" s="86">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="AX18" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY18" s="84">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="AZ18" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA18" s="86">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="BB18" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC18" s="84">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="BD18" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE18" s="86">
+        <v>0.9839</v>
       </c>
     </row>
     <row r="19" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="134" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="76">
         <v>0.82799999999999996</v>
       </c>
       <c r="D19" s="74" t="s">
@@ -3276,79 +3345,79 @@
       <c r="BE19" s="35"/>
     </row>
     <row r="20" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="174"/>
-      <c r="B20" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="94">
+      <c r="A20" s="135"/>
+      <c r="B20" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="88">
         <v>0.83740000000000003</v>
       </c>
-      <c r="D20" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="96">
+      <c r="D20" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="90">
         <v>0.52800000000000002</v>
       </c>
-      <c r="F20" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="98">
+      <c r="F20" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="92">
         <v>0.7429</v>
       </c>
-      <c r="H20" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="100">
+      <c r="H20" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="94">
         <v>0.41360000000000002</v>
       </c>
-      <c r="J20" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="98">
+      <c r="J20" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="92">
         <v>0.7571</v>
       </c>
-      <c r="L20" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="100">
+      <c r="L20" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="94">
         <v>0.47710000000000002</v>
       </c>
-      <c r="N20" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="98">
+      <c r="N20" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="92">
         <v>0.74560000000000004</v>
       </c>
-      <c r="P20" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="100">
+      <c r="P20" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="94">
         <v>0.43640000000000001</v>
       </c>
-      <c r="R20" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="98"/>
-      <c r="T20" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U20" s="101"/>
-      <c r="V20" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="W20" s="98"/>
-      <c r="X20" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y20" s="100"/>
-      <c r="Z20" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC20" s="102"/>
+      <c r="R20" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="92"/>
+      <c r="T20" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" s="95"/>
+      <c r="V20" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="W20" s="92"/>
+      <c r="X20" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC20" s="96"/>
       <c r="AD20" s="72"/>
       <c r="AE20" s="72"/>
       <c r="AF20" s="72"/>
@@ -3379,13 +3448,13 @@
       <c r="BE20" s="38"/>
     </row>
     <row r="21" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A21" s="173" t="s">
+      <c r="A21" s="134" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="82">
+      <c r="C21" s="76">
         <v>0.85829999999999995</v>
       </c>
       <c r="D21" s="74" t="s">
@@ -3484,79 +3553,79 @@
       <c r="BE21" s="35"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A22" s="174"/>
-      <c r="B22" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="94">
+      <c r="A22" s="135"/>
+      <c r="B22" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="88">
         <v>0.83330000000000004</v>
       </c>
-      <c r="D22" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="96">
+      <c r="D22" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="90">
         <v>0.43169999999999997</v>
       </c>
-      <c r="F22" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="98">
+      <c r="F22" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="92">
         <v>0.74219999999999997</v>
       </c>
-      <c r="H22" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="100">
+      <c r="H22" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="94">
         <v>0.55920000000000003</v>
       </c>
-      <c r="J22" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="98">
+      <c r="J22" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="92">
         <v>0.74829999999999997</v>
       </c>
-      <c r="L22" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="100">
+      <c r="L22" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="94">
         <v>0.47020000000000001</v>
       </c>
-      <c r="N22" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="98">
+      <c r="N22" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="92">
         <v>0.72870000000000001</v>
       </c>
-      <c r="P22" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="100">
+      <c r="P22" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="94">
         <v>0.45679999999999998</v>
       </c>
-      <c r="R22" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="98"/>
-      <c r="T22" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U22" s="101"/>
-      <c r="V22" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="W22" s="98"/>
-      <c r="X22" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC22" s="102"/>
+      <c r="R22" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="92"/>
+      <c r="T22" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="95"/>
+      <c r="V22" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="W22" s="92"/>
+      <c r="X22" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC22" s="96"/>
       <c r="AD22" s="72"/>
       <c r="AE22" s="72"/>
       <c r="AF22" s="72"/>
@@ -3587,19 +3656,19 @@
       <c r="BE22" s="38"/>
     </row>
     <row r="23" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A23" s="169" t="s">
+      <c r="A23" s="141" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="82">
+      <c r="C23" s="76">
         <v>0.8387</v>
       </c>
       <c r="D23" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="83">
+      <c r="E23" s="77">
         <v>0.58930000000000005</v>
       </c>
       <c r="F23" s="29" t="s">
@@ -3692,79 +3761,79 @@
       <c r="BE23" s="35"/>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A24" s="170"/>
-      <c r="B24" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="94">
+      <c r="A24" s="142"/>
+      <c r="B24" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="88">
         <v>0.83</v>
       </c>
-      <c r="D24" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="103">
+      <c r="D24" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="97">
         <v>0.46829999999999999</v>
       </c>
-      <c r="F24" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="104">
+      <c r="F24" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="98">
         <v>0.73819999999999997</v>
       </c>
-      <c r="H24" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="106">
+      <c r="H24" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="100">
         <v>0.55130000000000001</v>
       </c>
-      <c r="J24" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="98">
+      <c r="J24" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="92">
         <v>0.75439999999999996</v>
       </c>
-      <c r="L24" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" s="102">
+      <c r="L24" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="96">
         <v>0.46</v>
       </c>
-      <c r="N24" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="98">
+      <c r="N24" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="92">
         <v>0.73750000000000004</v>
       </c>
-      <c r="P24" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="100">
+      <c r="P24" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="94">
         <v>0.41410000000000002</v>
       </c>
-      <c r="R24" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="98"/>
-      <c r="T24" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U24" s="101"/>
-      <c r="V24" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="W24" s="98"/>
-      <c r="X24" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC24" s="102"/>
+      <c r="R24" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="92"/>
+      <c r="T24" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" s="95"/>
+      <c r="V24" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="W24" s="92"/>
+      <c r="X24" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC24" s="96"/>
       <c r="AD24" s="72"/>
       <c r="AE24" s="72"/>
       <c r="AF24" s="72"/>
@@ -3794,14 +3863,14 @@
       <c r="BD24" s="32"/>
       <c r="BE24" s="38"/>
     </row>
-    <row r="25" spans="1:57" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="175" t="s">
+    <row r="25" spans="1:57" s="125" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="139" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="82">
+      <c r="C25" s="76">
         <v>0.85629999999999995</v>
       </c>
       <c r="D25" s="74" t="s">
@@ -3861,14 +3930,14 @@
       <c r="AD25" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="AE25" s="82">
-        <v>0.98919999999999997</v>
+      <c r="AE25" s="76">
+        <v>0.99099999999999999</v>
       </c>
       <c r="AF25" s="74" t="s">
         <v>24</v>
       </c>
       <c r="AG25" s="74">
-        <v>0.94840000000000002</v>
+        <v>0.95520000000000005</v>
       </c>
       <c r="AH25" s="33"/>
       <c r="AI25" s="34"/>
@@ -3895,79 +3964,79 @@
       <c r="BD25" s="35"/>
       <c r="BE25" s="35"/>
     </row>
-    <row r="26" spans="1:57" s="131" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="176"/>
-      <c r="B26" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="94">
+    <row r="26" spans="1:57" s="125" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="140"/>
+      <c r="B26" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="88">
         <v>0.83540000000000003</v>
       </c>
-      <c r="D26" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="95">
+      <c r="D26" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="89">
         <v>0.44069999999999998</v>
       </c>
-      <c r="F26" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="99"/>
-      <c r="J26" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="98"/>
-      <c r="L26" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="99"/>
-      <c r="N26" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="98"/>
-      <c r="P26" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="98"/>
-      <c r="T26" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U26" s="99"/>
-      <c r="V26" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="W26" s="98"/>
-      <c r="X26" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y26" s="99"/>
-      <c r="Z26" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE26" s="94">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="AF26" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG26" s="95">
-        <v>0.9385</v>
+      <c r="F26" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="93"/>
+      <c r="J26" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="92"/>
+      <c r="L26" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="93"/>
+      <c r="N26" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="92"/>
+      <c r="P26" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="93"/>
+      <c r="R26" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="92"/>
+      <c r="T26" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" s="93"/>
+      <c r="V26" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="W26" s="92"/>
+      <c r="X26" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA26" s="92"/>
+      <c r="AB26" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE26" s="88">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="AF26" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG26" s="89">
+        <v>0.9516</v>
       </c>
       <c r="AH26" s="36"/>
       <c r="AI26" s="37"/>
@@ -3994,14 +4063,14 @@
       <c r="BD26" s="32"/>
       <c r="BE26" s="32"/>
     </row>
-    <row r="27" spans="1:57" s="131" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="175" t="s">
+    <row r="27" spans="1:57" s="125" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="139" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="76">
         <v>0.84750000000000003</v>
       </c>
       <c r="D27" s="74" t="s">
@@ -4061,14 +4130,14 @@
       <c r="AD27" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="AE27" s="82">
-        <v>0.99099999999999999</v>
+      <c r="AE27" s="76">
+        <v>0.98839999999999995</v>
       </c>
       <c r="AF27" s="74" t="s">
         <v>24</v>
       </c>
       <c r="AG27" s="74">
-        <v>0.93989999999999996</v>
+        <v>0.94530000000000003</v>
       </c>
       <c r="AH27" s="33"/>
       <c r="AI27" s="34"/>
@@ -4095,79 +4164,79 @@
       <c r="BD27" s="35"/>
       <c r="BE27" s="35"/>
     </row>
-    <row r="28" spans="1:57" s="131" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="176"/>
-      <c r="B28" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="94">
+    <row r="28" spans="1:57" s="125" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="140"/>
+      <c r="B28" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="88">
         <v>0.82789999999999997</v>
       </c>
-      <c r="D28" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="95">
+      <c r="D28" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="89">
         <v>0.42509999999999998</v>
       </c>
-      <c r="F28" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="99"/>
-      <c r="J28" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="98"/>
-      <c r="L28" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="99"/>
-      <c r="N28" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O28" s="98"/>
-      <c r="P28" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="98"/>
-      <c r="T28" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U28" s="99"/>
-      <c r="V28" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="W28" s="98"/>
-      <c r="X28" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC28" s="99"/>
-      <c r="AD28" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE28" s="94">
-        <v>0.98839999999999995</v>
-      </c>
-      <c r="AF28" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG28" s="95">
-        <v>0.93169999999999997</v>
+      <c r="F28" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="92"/>
+      <c r="H28" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="93"/>
+      <c r="J28" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="92"/>
+      <c r="L28" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="93"/>
+      <c r="N28" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O28" s="92"/>
+      <c r="P28" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="93"/>
+      <c r="R28" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="92"/>
+      <c r="T28" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U28" s="93"/>
+      <c r="V28" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="W28" s="92"/>
+      <c r="X28" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC28" s="93"/>
+      <c r="AD28" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE28" s="88">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="AF28" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG28" s="89">
+        <v>0.93910000000000005</v>
       </c>
       <c r="AH28" s="36"/>
       <c r="AI28" s="37"/>
@@ -4194,14 +4263,14 @@
       <c r="BD28" s="32"/>
       <c r="BE28" s="32"/>
     </row>
-    <row r="29" spans="1:57" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="175" t="s">
+    <row r="29" spans="1:57" s="125" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="139" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="82">
+      <c r="C29" s="76">
         <v>0.85219999999999996</v>
       </c>
       <c r="D29" s="74" t="s">
@@ -4261,14 +4330,14 @@
       <c r="AD29" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="AE29" s="82">
-        <v>0.98839999999999995</v>
+      <c r="AE29" s="76">
+        <v>0.98919999999999997</v>
       </c>
       <c r="AF29" s="74" t="s">
         <v>24</v>
       </c>
       <c r="AG29" s="74">
-        <v>0.94779999999999998</v>
+        <v>0.94710000000000005</v>
       </c>
       <c r="AH29" s="33"/>
       <c r="AI29" s="34"/>
@@ -4295,79 +4364,79 @@
       <c r="BD29" s="35"/>
       <c r="BE29" s="35"/>
     </row>
-    <row r="30" spans="1:57" s="131" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="176"/>
-      <c r="B30" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="94">
+    <row r="30" spans="1:57" s="125" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="140"/>
+      <c r="B30" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="88">
         <v>0.83940000000000003</v>
       </c>
-      <c r="D30" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="95">
+      <c r="D30" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="89">
         <v>0.47360000000000002</v>
       </c>
-      <c r="F30" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="98"/>
-      <c r="L30" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30" s="99"/>
-      <c r="N30" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O30" s="98"/>
-      <c r="P30" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="98"/>
-      <c r="T30" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U30" s="99"/>
-      <c r="V30" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="W30" s="98"/>
-      <c r="X30" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y30" s="99"/>
-      <c r="Z30" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC30" s="99"/>
-      <c r="AD30" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE30" s="94">
-        <v>0.98839999999999995</v>
-      </c>
-      <c r="AF30" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG30" s="95">
-        <v>0.94299999999999995</v>
+      <c r="F30" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="92"/>
+      <c r="H30" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="93"/>
+      <c r="J30" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="92"/>
+      <c r="L30" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="93"/>
+      <c r="N30" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O30" s="92"/>
+      <c r="P30" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="92"/>
+      <c r="T30" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U30" s="93"/>
+      <c r="V30" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="W30" s="92"/>
+      <c r="X30" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE30" s="88">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="AF30" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG30" s="89">
+        <v>0.93910000000000005</v>
       </c>
       <c r="AH30" s="36"/>
       <c r="AI30" s="37"/>
@@ -4395,13 +4464,13 @@
       <c r="BE30" s="32"/>
     </row>
     <row r="31" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A31" s="173" t="s">
+      <c r="A31" s="134" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="82">
+      <c r="C31" s="76">
         <v>0.84750000000000003</v>
       </c>
       <c r="D31" s="74" t="s">
@@ -4458,14 +4527,14 @@
         <v>24</v>
       </c>
       <c r="AC31" s="27"/>
-      <c r="AD31" s="134" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE31" s="135"/>
-      <c r="AF31" s="136" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG31" s="136"/>
+      <c r="AD31" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE31" s="129"/>
+      <c r="AF31" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG31" s="130"/>
       <c r="AH31" s="43"/>
       <c r="AI31" s="44"/>
       <c r="AJ31" s="45"/>
@@ -4492,75 +4561,75 @@
       <c r="BE31" s="45"/>
     </row>
     <row r="32" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="174"/>
-      <c r="B32" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="94">
+      <c r="A32" s="135"/>
+      <c r="B32" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="88">
         <v>0.82930000000000004</v>
       </c>
-      <c r="D32" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="95">
+      <c r="D32" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="89">
         <v>0.53010000000000002</v>
       </c>
-      <c r="F32" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="98"/>
-      <c r="H32" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="99"/>
-      <c r="J32" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="98"/>
-      <c r="L32" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="99"/>
-      <c r="N32" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O32" s="98"/>
-      <c r="P32" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="98"/>
-      <c r="T32" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U32" s="99"/>
-      <c r="V32" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="W32" s="98"/>
-      <c r="X32" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y32" s="99"/>
-      <c r="Z32" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA32" s="98"/>
-      <c r="AB32" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC32" s="99"/>
-      <c r="AD32" s="128" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE32" s="129"/>
-      <c r="AF32" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG32" s="130"/>
+      <c r="F32" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="92"/>
+      <c r="H32" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="93"/>
+      <c r="J32" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="92"/>
+      <c r="L32" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="93"/>
+      <c r="N32" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="92"/>
+      <c r="P32" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="92"/>
+      <c r="T32" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U32" s="93"/>
+      <c r="V32" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="W32" s="92"/>
+      <c r="X32" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC32" s="93"/>
+      <c r="AD32" s="122" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE32" s="123"/>
+      <c r="AF32" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG32" s="124"/>
       <c r="AH32" s="46"/>
       <c r="AI32" s="47"/>
       <c r="AJ32" s="48"/>
@@ -4587,13 +4656,13 @@
       <c r="BE32" s="48"/>
     </row>
     <row r="33" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="173" t="s">
+      <c r="A33" s="134" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="82">
+      <c r="C33" s="76">
         <v>0.86029999999999995</v>
       </c>
       <c r="D33" s="74" t="s">
@@ -4680,67 +4749,67 @@
       <c r="BE33" s="45"/>
     </row>
     <row r="34" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="174"/>
-      <c r="B34" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="94">
+      <c r="A34" s="135"/>
+      <c r="B34" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="88">
         <v>0.83809999999999996</v>
       </c>
-      <c r="D34" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="95">
+      <c r="D34" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="89">
         <v>0.54930000000000001</v>
       </c>
-      <c r="F34" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="98"/>
-      <c r="H34" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="99"/>
-      <c r="J34" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="98"/>
-      <c r="L34" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="99"/>
-      <c r="N34" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O34" s="98"/>
-      <c r="P34" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S34" s="98"/>
-      <c r="T34" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U34" s="99"/>
-      <c r="V34" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="W34" s="98"/>
-      <c r="X34" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y34" s="99"/>
-      <c r="Z34" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA34" s="98"/>
-      <c r="AB34" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC34" s="99"/>
+      <c r="F34" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="92"/>
+      <c r="H34" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="93"/>
+      <c r="J34" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="93"/>
+      <c r="N34" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" s="92"/>
+      <c r="P34" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34" s="92"/>
+      <c r="T34" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U34" s="93"/>
+      <c r="V34" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="W34" s="92"/>
+      <c r="X34" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA34" s="92"/>
+      <c r="AB34" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC34" s="93"/>
       <c r="AD34" s="72"/>
       <c r="AE34" s="72"/>
       <c r="AF34" s="72"/>
@@ -4771,13 +4840,13 @@
       <c r="BE34" s="48"/>
     </row>
     <row r="35" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A35" s="173" t="s">
+      <c r="A35" s="134" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="76">
         <v>0.84009999999999996</v>
       </c>
       <c r="D35" s="74" t="s">
@@ -4864,67 +4933,67 @@
       <c r="BE35" s="45"/>
     </row>
     <row r="36" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A36" s="174"/>
-      <c r="B36" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="94">
+      <c r="A36" s="135"/>
+      <c r="B36" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="88">
         <v>0.8347</v>
       </c>
-      <c r="D36" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="95">
+      <c r="D36" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="89">
         <v>0.63700000000000001</v>
       </c>
-      <c r="F36" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="98"/>
-      <c r="H36" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="99"/>
-      <c r="J36" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="98"/>
-      <c r="L36" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="99"/>
-      <c r="N36" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O36" s="98"/>
-      <c r="P36" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S36" s="98"/>
-      <c r="T36" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U36" s="99"/>
-      <c r="V36" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="W36" s="98"/>
-      <c r="X36" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y36" s="99"/>
-      <c r="Z36" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA36" s="98"/>
-      <c r="AB36" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC36" s="99"/>
+      <c r="F36" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="92"/>
+      <c r="H36" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="93"/>
+      <c r="J36" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="92"/>
+      <c r="L36" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="93"/>
+      <c r="N36" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36" s="92"/>
+      <c r="P36" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S36" s="92"/>
+      <c r="T36" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U36" s="93"/>
+      <c r="V36" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="W36" s="92"/>
+      <c r="X36" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA36" s="92"/>
+      <c r="AB36" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC36" s="93"/>
       <c r="AD36" s="72"/>
       <c r="AE36" s="72"/>
       <c r="AF36" s="72"/>
@@ -4955,13 +5024,13 @@
       <c r="BE36" s="48"/>
     </row>
     <row r="37" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A37" s="173" t="s">
+      <c r="A37" s="134" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="82">
+      <c r="C37" s="76">
         <v>0.84960000000000002</v>
       </c>
       <c r="D37" s="74" t="s">
@@ -5048,67 +5117,67 @@
       <c r="BE37" s="45"/>
     </row>
     <row r="38" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="174"/>
-      <c r="B38" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="94">
+      <c r="A38" s="135"/>
+      <c r="B38" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="88">
         <v>0.83740000000000003</v>
       </c>
-      <c r="D38" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="95">
+      <c r="D38" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="89">
         <v>0.63800000000000001</v>
       </c>
-      <c r="F38" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="98"/>
-      <c r="H38" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="99"/>
-      <c r="J38" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="98"/>
-      <c r="L38" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="99"/>
-      <c r="N38" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O38" s="98"/>
-      <c r="P38" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q38" s="99"/>
-      <c r="R38" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" s="98"/>
-      <c r="T38" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U38" s="99"/>
-      <c r="V38" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="W38" s="98"/>
-      <c r="X38" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y38" s="99"/>
-      <c r="Z38" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA38" s="98"/>
-      <c r="AB38" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC38" s="99"/>
+      <c r="F38" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="92"/>
+      <c r="H38" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="93"/>
+      <c r="J38" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="92"/>
+      <c r="L38" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="93"/>
+      <c r="N38" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O38" s="92"/>
+      <c r="P38" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S38" s="92"/>
+      <c r="T38" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U38" s="93"/>
+      <c r="V38" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="W38" s="92"/>
+      <c r="X38" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y38" s="93"/>
+      <c r="Z38" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA38" s="92"/>
+      <c r="AB38" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC38" s="93"/>
       <c r="AD38" s="72"/>
       <c r="AE38" s="72"/>
       <c r="AF38" s="72"/>
@@ -5139,13 +5208,13 @@
       <c r="BE38" s="48"/>
     </row>
     <row r="39" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="173" t="s">
+      <c r="A39" s="134" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="82">
+      <c r="C39" s="76">
         <v>0.85899999999999999</v>
       </c>
       <c r="D39" s="74" t="s">
@@ -5232,67 +5301,67 @@
       <c r="BE39" s="45"/>
     </row>
     <row r="40" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="174"/>
-      <c r="B40" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="94">
+      <c r="A40" s="135"/>
+      <c r="B40" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="88">
         <v>0.8347</v>
       </c>
-      <c r="D40" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="95">
+      <c r="D40" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="89">
         <v>0.5524</v>
       </c>
-      <c r="F40" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="98"/>
-      <c r="H40" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="99"/>
-      <c r="J40" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="98"/>
-      <c r="L40" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M40" s="99"/>
-      <c r="N40" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O40" s="98"/>
-      <c r="P40" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S40" s="98"/>
-      <c r="T40" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U40" s="99"/>
-      <c r="V40" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="W40" s="98"/>
-      <c r="X40" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y40" s="99"/>
-      <c r="Z40" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA40" s="98"/>
-      <c r="AB40" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC40" s="99"/>
+      <c r="F40" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="92"/>
+      <c r="H40" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="93"/>
+      <c r="J40" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="92"/>
+      <c r="L40" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="93"/>
+      <c r="N40" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O40" s="92"/>
+      <c r="P40" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S40" s="92"/>
+      <c r="T40" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U40" s="93"/>
+      <c r="V40" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="W40" s="92"/>
+      <c r="X40" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y40" s="93"/>
+      <c r="Z40" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA40" s="92"/>
+      <c r="AB40" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC40" s="93"/>
       <c r="AD40" s="72"/>
       <c r="AE40" s="72"/>
       <c r="AF40" s="72"/>
@@ -5323,13 +5392,13 @@
       <c r="BE40" s="48"/>
     </row>
     <row r="41" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A41" s="173" t="s">
+      <c r="A41" s="134" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="82">
+      <c r="C41" s="76">
         <v>0.8347</v>
       </c>
       <c r="D41" s="74" t="s">
@@ -5416,67 +5485,67 @@
       <c r="BE41" s="45"/>
     </row>
     <row r="42" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A42" s="174"/>
-      <c r="B42" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="94">
+      <c r="A42" s="135"/>
+      <c r="B42" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="88">
         <v>0.82989999999999997</v>
       </c>
-      <c r="D42" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="95">
+      <c r="D42" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="89">
         <v>0.63800000000000001</v>
       </c>
-      <c r="F42" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="98"/>
-      <c r="H42" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="99"/>
-      <c r="J42" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="98"/>
-      <c r="L42" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M42" s="99"/>
-      <c r="N42" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O42" s="98"/>
-      <c r="P42" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" s="98"/>
-      <c r="T42" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U42" s="99"/>
-      <c r="V42" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="W42" s="98"/>
-      <c r="X42" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y42" s="99"/>
-      <c r="Z42" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA42" s="98"/>
-      <c r="AB42" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC42" s="99"/>
+      <c r="F42" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="92"/>
+      <c r="H42" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="93"/>
+      <c r="J42" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="92"/>
+      <c r="L42" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="93"/>
+      <c r="N42" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" s="92"/>
+      <c r="P42" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S42" s="92"/>
+      <c r="T42" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U42" s="93"/>
+      <c r="V42" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="W42" s="92"/>
+      <c r="X42" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y42" s="93"/>
+      <c r="Z42" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA42" s="92"/>
+      <c r="AB42" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC42" s="93"/>
       <c r="AD42" s="72"/>
       <c r="AE42" s="72"/>
       <c r="AF42" s="72"/>
@@ -5507,13 +5576,13 @@
       <c r="BE42" s="48"/>
     </row>
     <row r="43" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A43" s="173" t="s">
+      <c r="A43" s="134" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="82">
+      <c r="C43" s="76">
         <v>0.84079999999999999</v>
       </c>
       <c r="D43" s="74" t="s">
@@ -5600,67 +5669,67 @@
       <c r="BE43" s="45"/>
     </row>
     <row r="44" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="174"/>
-      <c r="B44" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="94">
+      <c r="A44" s="135"/>
+      <c r="B44" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="88">
         <v>0.83540000000000003</v>
       </c>
-      <c r="D44" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="95">
+      <c r="D44" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="89">
         <v>0.4738</v>
       </c>
-      <c r="F44" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="98"/>
-      <c r="H44" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="99"/>
-      <c r="J44" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="98"/>
-      <c r="L44" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M44" s="99"/>
-      <c r="N44" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O44" s="98"/>
-      <c r="P44" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="98"/>
-      <c r="T44" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U44" s="99"/>
-      <c r="V44" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="W44" s="98"/>
-      <c r="X44" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y44" s="99"/>
-      <c r="Z44" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA44" s="98"/>
-      <c r="AB44" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC44" s="99"/>
+      <c r="F44" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="92"/>
+      <c r="H44" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="93"/>
+      <c r="J44" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="92"/>
+      <c r="L44" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="93"/>
+      <c r="N44" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O44" s="92"/>
+      <c r="P44" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="93"/>
+      <c r="R44" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S44" s="92"/>
+      <c r="T44" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" s="93"/>
+      <c r="V44" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="W44" s="92"/>
+      <c r="X44" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y44" s="93"/>
+      <c r="Z44" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA44" s="92"/>
+      <c r="AB44" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC44" s="93"/>
       <c r="AD44" s="72"/>
       <c r="AE44" s="72"/>
       <c r="AF44" s="72"/>
@@ -5691,13 +5760,13 @@
       <c r="BE44" s="48"/>
     </row>
     <row r="45" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="173" t="s">
+      <c r="A45" s="134" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="82">
+      <c r="C45" s="76">
         <v>0.85089999999999999</v>
       </c>
       <c r="D45" s="74" t="s">
@@ -5784,67 +5853,67 @@
       <c r="BE45" s="45"/>
     </row>
     <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="174"/>
-      <c r="B46" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="94">
+      <c r="A46" s="135"/>
+      <c r="B46" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="88">
         <v>0.8286</v>
       </c>
-      <c r="D46" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="95">
+      <c r="D46" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="89">
         <v>0.67159999999999997</v>
       </c>
-      <c r="F46" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="98"/>
-      <c r="H46" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="99"/>
-      <c r="J46" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="98"/>
-      <c r="L46" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="99"/>
-      <c r="N46" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O46" s="98"/>
-      <c r="P46" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q46" s="99"/>
-      <c r="R46" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S46" s="98"/>
-      <c r="T46" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U46" s="99"/>
-      <c r="V46" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="W46" s="98"/>
-      <c r="X46" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y46" s="99"/>
-      <c r="Z46" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA46" s="98"/>
-      <c r="AB46" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC46" s="99"/>
+      <c r="F46" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="92"/>
+      <c r="H46" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="93"/>
+      <c r="J46" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="92"/>
+      <c r="L46" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="93"/>
+      <c r="N46" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" s="92"/>
+      <c r="P46" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="93"/>
+      <c r="R46" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S46" s="92"/>
+      <c r="T46" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U46" s="93"/>
+      <c r="V46" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="W46" s="92"/>
+      <c r="X46" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y46" s="93"/>
+      <c r="Z46" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA46" s="92"/>
+      <c r="AB46" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC46" s="93"/>
       <c r="AD46" s="72"/>
       <c r="AE46" s="72"/>
       <c r="AF46" s="72"/>
@@ -5875,13 +5944,13 @@
       <c r="BE46" s="48"/>
     </row>
     <row r="47" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A47" s="173" t="s">
+      <c r="A47" s="134" t="s">
         <v>34</v>
       </c>
       <c r="B47" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="82">
+      <c r="C47" s="76">
         <v>0.85489999999999999</v>
       </c>
       <c r="D47" s="74" t="s">
@@ -5968,67 +6037,67 @@
       <c r="BE47" s="45"/>
     </row>
     <row r="48" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A48" s="174"/>
-      <c r="B48" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="94">
+      <c r="A48" s="135"/>
+      <c r="B48" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="88">
         <v>0.83599999999999997</v>
       </c>
-      <c r="D48" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="95">
+      <c r="D48" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="89">
         <v>0.76990000000000003</v>
       </c>
-      <c r="F48" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="98"/>
-      <c r="H48" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="I48" s="99"/>
-      <c r="J48" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" s="98"/>
-      <c r="L48" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="M48" s="99"/>
-      <c r="N48" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="O48" s="98"/>
-      <c r="P48" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q48" s="99"/>
-      <c r="R48" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="S48" s="98"/>
-      <c r="T48" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="U48" s="99"/>
-      <c r="V48" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="W48" s="98"/>
-      <c r="X48" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y48" s="99"/>
-      <c r="Z48" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA48" s="98"/>
-      <c r="AB48" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC48" s="99"/>
+      <c r="F48" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="92"/>
+      <c r="H48" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="93"/>
+      <c r="J48" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="92"/>
+      <c r="L48" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="93"/>
+      <c r="N48" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O48" s="92"/>
+      <c r="P48" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q48" s="93"/>
+      <c r="R48" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S48" s="92"/>
+      <c r="T48" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="U48" s="93"/>
+      <c r="V48" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="W48" s="92"/>
+      <c r="X48" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y48" s="93"/>
+      <c r="Z48" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA48" s="92"/>
+      <c r="AB48" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC48" s="93"/>
       <c r="AD48" s="72"/>
       <c r="AE48" s="72"/>
       <c r="AF48" s="72"/>
@@ -6059,13 +6128,58 @@
       <c r="BE48" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
+  <mergeCells count="72">
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
@@ -6081,62 +6195,12 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="BB1:BE1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6404,7 +6468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078B5A57-3579-43ED-AF27-917B6BE32AB6}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -6420,30 +6484,30 @@
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="179">
+      <c r="B1" s="170">
         <v>1</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179">
+      <c r="C1" s="170"/>
+      <c r="D1" s="170">
         <v>2</v>
       </c>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179">
+      <c r="E1" s="170"/>
+      <c r="F1" s="170">
         <v>3</v>
       </c>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179">
+      <c r="G1" s="170"/>
+      <c r="H1" s="170">
         <v>4</v>
       </c>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179">
+      <c r="I1" s="170"/>
+      <c r="J1" s="170">
         <v>5</v>
       </c>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179" t="s">
+      <c r="K1" s="170"/>
+      <c r="L1" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="179"/>
+      <c r="M1" s="170"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6452,38 +6516,38 @@
       <c r="B2" s="1">
         <v>0.8347</v>
       </c>
-      <c r="C2" s="137">
+      <c r="C2" s="131">
         <v>0.74609999999999999</v>
       </c>
       <c r="D2" s="1">
         <v>0.83399999999999996</v>
       </c>
-      <c r="E2" s="137">
+      <c r="E2" s="131">
         <v>0.81710000000000005</v>
       </c>
       <c r="F2" s="1">
         <v>0.83330000000000004</v>
       </c>
-      <c r="G2" s="138">
+      <c r="G2" s="132">
         <v>0.74470000000000003</v>
       </c>
       <c r="H2" s="1">
         <v>0.84550000000000003</v>
       </c>
-      <c r="I2" s="138">
+      <c r="I2" s="132">
         <v>0.746</v>
       </c>
       <c r="J2" s="1">
         <v>0.82930000000000004</v>
       </c>
-      <c r="K2" s="138">
+      <c r="K2" s="132">
         <v>0.74970000000000003</v>
       </c>
       <c r="L2">
         <f>AVERAGE(J2,H2,F2,D2,B2)</f>
         <v>0.83535999999999999</v>
       </c>
-      <c r="M2" s="138">
+      <c r="M2" s="132">
         <f>AVERAGE(K2,I2,G2,E2,C2)</f>
         <v>0.76072000000000006</v>
       </c>
@@ -6495,39 +6559,39 @@
       <c r="B3">
         <v>0.85760000000000003</v>
       </c>
-      <c r="C3" s="138">
+      <c r="C3" s="132">
         <v>0.47439999999999999</v>
       </c>
       <c r="D3">
         <v>0.85429999999999995</v>
       </c>
-      <c r="E3" s="138">
+      <c r="E3" s="132">
         <v>0.48959999999999998</v>
       </c>
       <c r="F3">
         <v>0.83599999999999997</v>
       </c>
-      <c r="G3" s="138">
+      <c r="G3" s="132">
         <v>0.45910000000000001</v>
       </c>
       <c r="H3">
         <v>0.8347</v>
       </c>
-      <c r="I3" s="138">
+      <c r="I3" s="132">
         <v>0.4607</v>
       </c>
       <c r="J3">
         <v>0.85019999999999996</v>
       </c>
-      <c r="K3" s="138">
+      <c r="K3" s="132">
         <v>0.46</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L5" si="0">AVERAGE(J3,H3,F3,D3,B3)</f>
         <v>0.84655999999999987</v>
       </c>
-      <c r="M3" s="138">
-        <f>AVERAGE(K3,I3,G3,E3,C3)</f>
+      <c r="M3" s="132">
+        <f t="shared" ref="M3:M9" si="1">AVERAGE(K3,I3,G3,E3,C3)</f>
         <v>0.46876000000000007</v>
       </c>
     </row>
@@ -6538,39 +6602,39 @@
       <c r="B4">
         <v>0.85289999999999999</v>
       </c>
-      <c r="C4" s="138">
+      <c r="C4" s="132">
         <v>0.51329999999999998</v>
       </c>
       <c r="D4">
         <v>0.8367</v>
       </c>
-      <c r="E4" s="138">
+      <c r="E4" s="132">
         <v>0.54</v>
       </c>
       <c r="F4">
         <v>0.85219999999999996</v>
       </c>
-      <c r="G4" s="138">
+      <c r="G4" s="132">
         <v>0.52529999999999999</v>
       </c>
       <c r="H4">
         <v>0.85699999999999998</v>
       </c>
-      <c r="I4" s="138">
+      <c r="I4" s="132">
         <v>0.54730000000000001</v>
       </c>
       <c r="J4">
         <v>0.85760000000000003</v>
       </c>
-      <c r="K4" s="138">
+      <c r="K4" s="132">
         <v>0.50480000000000003</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
         <v>0.85127999999999981</v>
       </c>
-      <c r="M4" s="138">
-        <f>AVERAGE(K4,I4,G4,E4,C4)</f>
+      <c r="M4" s="132">
+        <f t="shared" si="1"/>
         <v>0.52614000000000005</v>
       </c>
     </row>
@@ -6581,39 +6645,39 @@
       <c r="B5">
         <v>0.8468</v>
       </c>
-      <c r="C5" s="138">
+      <c r="C5" s="132">
         <v>0.62819999999999998</v>
       </c>
       <c r="D5">
         <v>0.83740000000000003</v>
       </c>
-      <c r="E5" s="138">
+      <c r="E5" s="132">
         <v>0.57099999999999995</v>
       </c>
       <c r="F5">
         <v>0.83740000000000003</v>
       </c>
-      <c r="G5" s="138">
+      <c r="G5" s="132">
         <v>0.56020000000000003</v>
       </c>
       <c r="H5">
         <v>0.83199999999999996</v>
       </c>
-      <c r="I5" s="138">
+      <c r="I5" s="132">
         <v>0.57150000000000001</v>
       </c>
       <c r="J5">
         <v>0.83809999999999996</v>
       </c>
-      <c r="K5" s="138">
+      <c r="K5" s="132">
         <v>0.59050000000000002</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
         <v>0.83833999999999997</v>
       </c>
-      <c r="M5" s="138">
-        <f>AVERAGE(K5,I5,G5,E5,C5)</f>
+      <c r="M5" s="132">
+        <f t="shared" si="1"/>
         <v>0.58427999999999991</v>
       </c>
     </row>
@@ -6624,39 +6688,39 @@
       <c r="B6">
         <v>0.98660000000000003</v>
       </c>
-      <c r="C6" s="137">
+      <c r="C6" s="131">
         <v>0.71819999999999995</v>
       </c>
       <c r="D6">
         <v>0.98919999999999997</v>
       </c>
-      <c r="E6" s="137">
+      <c r="E6" s="131">
         <v>0.72270000000000001</v>
       </c>
       <c r="F6">
         <v>0.98570000000000002</v>
       </c>
-      <c r="G6" s="138">
+      <c r="G6" s="132">
         <v>0.72130000000000005</v>
       </c>
       <c r="H6">
         <v>0.98750000000000004</v>
       </c>
-      <c r="I6" s="138">
+      <c r="I6" s="132">
         <v>0.71050000000000002</v>
       </c>
       <c r="J6">
         <v>0.98299999999999998</v>
       </c>
-      <c r="K6" s="138">
+      <c r="K6" s="132">
         <v>0.74160000000000004</v>
       </c>
       <c r="L6">
         <f>AVERAGE(J6,H6,F6,D6,B6)</f>
         <v>0.98639999999999994</v>
       </c>
-      <c r="M6" s="138">
-        <f>AVERAGE(K6,I6,G6,E6,C6)</f>
+      <c r="M6" s="132">
+        <f t="shared" si="1"/>
         <v>0.72286000000000006</v>
       </c>
     </row>
@@ -6667,39 +6731,39 @@
       <c r="B7">
         <v>0.98480000000000001</v>
       </c>
-      <c r="C7" s="138">
+      <c r="C7" s="132">
         <v>0.62909999999999999</v>
       </c>
       <c r="D7">
         <v>0.98839999999999995</v>
       </c>
-      <c r="E7" s="138">
+      <c r="E7" s="132">
         <v>0.62670000000000003</v>
       </c>
       <c r="F7">
         <v>0.98570000000000002</v>
       </c>
-      <c r="G7" s="138">
+      <c r="G7" s="132">
         <v>0.64359999999999995</v>
       </c>
       <c r="H7">
         <v>0.98750000000000004</v>
       </c>
-      <c r="I7" s="138">
+      <c r="I7" s="132">
         <v>0.6351</v>
       </c>
       <c r="J7">
         <v>0.98660000000000003</v>
       </c>
-      <c r="K7" s="138">
+      <c r="K7" s="132">
         <v>0.62170000000000003</v>
       </c>
       <c r="L7">
         <f>AVERAGE(J7,H7,F7,D7,B7)</f>
         <v>0.98659999999999992</v>
       </c>
-      <c r="M7" s="138">
-        <f>AVERAGE(K7,I7,G7,E7,C7)</f>
+      <c r="M7" s="132">
+        <f t="shared" si="1"/>
         <v>0.63124000000000002</v>
       </c>
     </row>
@@ -6710,39 +6774,39 @@
       <c r="B8">
         <v>0.98470000000000002</v>
       </c>
-      <c r="C8" s="138">
+      <c r="C8" s="132">
         <v>0.65069999999999995</v>
       </c>
       <c r="D8">
         <v>0.98829999999999996</v>
       </c>
-      <c r="E8" s="138">
+      <c r="E8" s="132">
         <v>0.65700000000000003</v>
       </c>
       <c r="F8">
         <v>0.98660000000000003</v>
       </c>
-      <c r="G8" s="138">
+      <c r="G8" s="132">
         <v>0.66449999999999998</v>
       </c>
       <c r="H8">
         <v>0.98660000000000003</v>
       </c>
-      <c r="I8" s="138">
+      <c r="I8" s="132">
         <v>0.64239999999999997</v>
       </c>
       <c r="J8">
         <v>0.98660000000000003</v>
       </c>
-      <c r="K8" s="138">
+      <c r="K8" s="132">
         <v>0.65090000000000003</v>
       </c>
       <c r="L8">
         <f>AVERAGE(J8,H8,F8,D8,B8)</f>
         <v>0.9865600000000001</v>
       </c>
-      <c r="M8" s="138">
-        <f>AVERAGE(K8,I8,G8,E8,C8)</f>
+      <c r="M8" s="132">
+        <f t="shared" si="1"/>
         <v>0.65310000000000001</v>
       </c>
     </row>
@@ -6753,39 +6817,39 @@
       <c r="B9">
         <v>0.98660000000000003</v>
       </c>
-      <c r="C9" s="138">
+      <c r="C9" s="132">
         <v>0.68679999999999997</v>
       </c>
       <c r="D9">
         <v>0.98660000000000003</v>
       </c>
-      <c r="E9" s="138">
+      <c r="E9" s="132">
         <v>0.67330000000000001</v>
       </c>
       <c r="F9">
         <v>0.98750000000000004</v>
       </c>
-      <c r="G9" s="138">
+      <c r="G9" s="132">
         <v>0.63119999999999998</v>
       </c>
       <c r="H9">
         <v>0.98660000000000003</v>
       </c>
-      <c r="I9" s="138">
+      <c r="I9" s="132">
         <v>0.68759999999999999</v>
       </c>
       <c r="J9">
         <v>0.98750000000000004</v>
       </c>
-      <c r="K9" s="138">
+      <c r="K9" s="132">
         <v>0.67830000000000001</v>
       </c>
       <c r="L9">
         <f>AVERAGE(J9,H9,F9,D9,B9)</f>
         <v>0.98696000000000006</v>
       </c>
-      <c r="M9" s="138">
-        <f>AVERAGE(K9,I9,G9,E9,C9)</f>
+      <c r="M9" s="132">
+        <f t="shared" si="1"/>
         <v>0.67143999999999993</v>
       </c>
     </row>
@@ -6799,30 +6863,30 @@
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="179">
+      <c r="B12" s="170">
         <v>1</v>
       </c>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179">
+      <c r="C12" s="170"/>
+      <c r="D12" s="170">
         <v>2</v>
       </c>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179">
+      <c r="E12" s="170"/>
+      <c r="F12" s="170">
         <v>3</v>
       </c>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179">
+      <c r="G12" s="170"/>
+      <c r="H12" s="170">
         <v>4</v>
       </c>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179">
+      <c r="I12" s="170"/>
+      <c r="J12" s="170">
         <v>5</v>
       </c>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179" t="s">
+      <c r="K12" s="170"/>
+      <c r="L12" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="179"/>
+      <c r="M12" s="170"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -6831,39 +6895,39 @@
       <c r="B13" s="1">
         <v>0.85160000000000002</v>
       </c>
-      <c r="C13" s="137">
+      <c r="C13" s="131">
         <v>0.47849999999999998</v>
       </c>
       <c r="D13" s="1">
         <v>0.84950000000000003</v>
       </c>
-      <c r="E13" s="137">
+      <c r="E13" s="131">
         <v>0.4824</v>
       </c>
       <c r="F13" s="1">
         <v>0.85360000000000003</v>
       </c>
-      <c r="G13" s="138">
+      <c r="G13" s="132">
         <v>0.49030000000000001</v>
       </c>
       <c r="H13" s="1">
         <v>0.84819999999999995</v>
       </c>
-      <c r="I13" s="138">
+      <c r="I13" s="132">
         <v>0.49009999999999998</v>
       </c>
       <c r="J13" s="1">
         <v>0.85219999999999996</v>
       </c>
-      <c r="K13" s="138">
+      <c r="K13" s="132">
         <v>0.48799999999999999</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:M16" si="1">AVERAGE(J13,H13,F13,D13,B13)</f>
+        <f t="shared" ref="L13:M16" si="2">AVERAGE(J13,H13,F13,D13,B13)</f>
         <v>0.85101999999999989</v>
       </c>
-      <c r="M13" s="138">
-        <f t="shared" si="1"/>
+      <c r="M13" s="132">
+        <f t="shared" si="2"/>
         <v>0.48586000000000001</v>
       </c>
     </row>
@@ -6874,39 +6938,39 @@
       <c r="B14">
         <v>0.85489999999999999</v>
       </c>
-      <c r="C14" s="138">
+      <c r="C14" s="132">
         <v>0.43559999999999999</v>
       </c>
       <c r="D14">
         <v>0.85089999999999999</v>
       </c>
-      <c r="E14" s="138">
+      <c r="E14" s="132">
         <v>0.43030000000000002</v>
       </c>
       <c r="F14">
         <v>0.85289999999999999</v>
       </c>
-      <c r="G14" s="138">
+      <c r="G14" s="132">
         <v>0.43419999999999997</v>
       </c>
       <c r="H14">
         <v>0.85560000000000003</v>
       </c>
-      <c r="I14" s="138">
+      <c r="I14" s="132">
         <v>0.45550000000000002</v>
       </c>
       <c r="J14">
         <v>0.85429999999999995</v>
       </c>
-      <c r="K14" s="138">
+      <c r="K14" s="132">
         <v>0.43830000000000002</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85372000000000003</v>
       </c>
-      <c r="M14" s="138">
-        <f t="shared" si="1"/>
+      <c r="M14" s="132">
+        <f t="shared" si="2"/>
         <v>0.43878000000000006</v>
       </c>
     </row>
@@ -6917,39 +6981,39 @@
       <c r="B15">
         <v>0.85360000000000003</v>
       </c>
-      <c r="C15" s="138">
+      <c r="C15" s="132">
         <v>0.43530000000000002</v>
       </c>
       <c r="D15">
         <v>0.85699999999999998</v>
       </c>
-      <c r="E15" s="138">
+      <c r="E15" s="132">
         <v>0.44829999999999998</v>
       </c>
       <c r="F15">
         <v>0.85489999999999999</v>
       </c>
-      <c r="G15" s="138">
+      <c r="G15" s="132">
         <v>0.46700000000000003</v>
       </c>
       <c r="H15">
         <v>0.85089999999999999</v>
       </c>
-      <c r="I15" s="138">
+      <c r="I15" s="132">
         <v>0.4713</v>
       </c>
       <c r="J15">
         <v>0.85429999999999995</v>
       </c>
-      <c r="K15" s="138">
+      <c r="K15" s="132">
         <v>0.46179999999999999</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85414000000000012</v>
       </c>
-      <c r="M15" s="138">
-        <f t="shared" si="1"/>
+      <c r="M15" s="132">
+        <f t="shared" si="2"/>
         <v>0.45674000000000003</v>
       </c>
     </row>
@@ -6960,39 +7024,39 @@
       <c r="B16">
         <v>0.85089999999999999</v>
       </c>
-      <c r="C16" s="138">
+      <c r="C16" s="132">
         <v>0.45610000000000001</v>
       </c>
       <c r="D16">
         <v>0.85560000000000003</v>
       </c>
-      <c r="E16" s="138">
+      <c r="E16" s="132">
         <v>0.4839</v>
       </c>
       <c r="F16">
         <v>0.85429999999999995</v>
       </c>
-      <c r="G16" s="138">
+      <c r="G16" s="132">
         <v>0.4672</v>
       </c>
       <c r="H16">
         <v>0.85219999999999996</v>
       </c>
-      <c r="I16" s="138">
+      <c r="I16" s="132">
         <v>0.43190000000000001</v>
       </c>
       <c r="J16">
         <v>0.85489999999999999</v>
       </c>
-      <c r="K16" s="138">
+      <c r="K16" s="132">
         <v>0.49259999999999998</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85358000000000001</v>
       </c>
-      <c r="M16" s="138">
-        <f t="shared" si="1"/>
+      <c r="M16" s="132">
+        <f t="shared" si="2"/>
         <v>0.46634000000000003</v>
       </c>
     </row>
@@ -7003,39 +7067,39 @@
       <c r="B17">
         <v>0.98209999999999997</v>
       </c>
-      <c r="C17" s="137">
+      <c r="C17" s="131">
         <v>0.71540000000000004</v>
       </c>
       <c r="D17">
         <v>0.98660000000000003</v>
       </c>
-      <c r="E17" s="137">
+      <c r="E17" s="131">
         <v>0.69840000000000002</v>
       </c>
       <c r="F17">
         <v>0.98209999999999997</v>
       </c>
-      <c r="G17" s="138">
+      <c r="G17" s="132">
         <v>0.69779999999999998</v>
       </c>
       <c r="H17">
         <v>0.98839999999999995</v>
       </c>
-      <c r="I17" s="138">
+      <c r="I17" s="132">
         <v>0.70740000000000003</v>
       </c>
       <c r="J17">
         <v>0.98570000000000002</v>
       </c>
-      <c r="K17" s="138">
+      <c r="K17" s="132">
         <v>0.73050000000000004</v>
       </c>
       <c r="L17">
-        <f>AVERAGE(J17,H17,F17,D17,B17)</f>
+        <f t="shared" ref="L17:M20" si="3">AVERAGE(J17,H17,F17,D17,B17)</f>
         <v>0.98497999999999997</v>
       </c>
-      <c r="M17" s="138">
-        <f>AVERAGE(K17,I17,G17,E17,C17)</f>
+      <c r="M17" s="132">
+        <f t="shared" si="3"/>
         <v>0.70989999999999998</v>
       </c>
     </row>
@@ -7046,39 +7110,39 @@
       <c r="B18">
         <v>0.98480000000000001</v>
       </c>
-      <c r="C18" s="138">
+      <c r="C18" s="132">
         <v>0.64170000000000005</v>
       </c>
       <c r="D18">
         <v>0.98299999999999998</v>
       </c>
-      <c r="E18" s="138">
+      <c r="E18" s="132">
         <v>0.62909999999999999</v>
       </c>
       <c r="F18">
         <v>0.98480000000000001</v>
       </c>
-      <c r="G18" s="138">
+      <c r="G18" s="132">
         <v>0.64359999999999995</v>
       </c>
       <c r="H18">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I18" s="138">
+      <c r="I18" s="132">
         <v>0.63539999999999996</v>
       </c>
       <c r="J18">
         <v>0.98750000000000004</v>
       </c>
-      <c r="K18" s="138">
+      <c r="K18" s="132">
         <v>0.61419999999999997</v>
       </c>
       <c r="L18">
-        <f>AVERAGE(J18,H18,F18,D18,B18)</f>
+        <f t="shared" si="3"/>
         <v>0.98461999999999994</v>
       </c>
-      <c r="M18" s="138">
-        <f>AVERAGE(K18,I18,G18,E18,C18)</f>
+      <c r="M18" s="132">
+        <f t="shared" si="3"/>
         <v>0.63280000000000003</v>
       </c>
     </row>
@@ -7089,39 +7153,39 @@
       <c r="B19">
         <v>0.98660000000000003</v>
       </c>
-      <c r="C19" s="138">
+      <c r="C19" s="132">
         <v>0.6663</v>
       </c>
       <c r="D19">
         <v>0.98750000000000004</v>
       </c>
-      <c r="E19" s="138">
+      <c r="E19" s="132">
         <v>0.65400000000000003</v>
       </c>
       <c r="F19">
         <v>0.9839</v>
       </c>
-      <c r="G19" s="138">
+      <c r="G19" s="132">
         <v>0.65900000000000003</v>
       </c>
       <c r="H19">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I19" s="138">
+      <c r="I19" s="132">
         <v>0.65480000000000005</v>
       </c>
       <c r="J19">
         <v>0.98480000000000001</v>
       </c>
-      <c r="K19" s="138">
+      <c r="K19" s="132">
         <v>0.64790000000000003</v>
       </c>
       <c r="L19">
-        <f>AVERAGE(J19,H19,F19,D19,B19)</f>
+        <f t="shared" si="3"/>
         <v>0.98515999999999992</v>
       </c>
-      <c r="M19" s="138">
-        <f>AVERAGE(K19,I19,G19,E19,C19)</f>
+      <c r="M19" s="132">
+        <f t="shared" si="3"/>
         <v>0.65640000000000009</v>
       </c>
     </row>
@@ -7132,39 +7196,39 @@
       <c r="B20">
         <v>0.98570000000000002</v>
       </c>
-      <c r="C20" s="138">
+      <c r="C20" s="132">
         <v>0.66859999999999997</v>
       </c>
       <c r="D20">
         <v>0.98839999999999995</v>
       </c>
-      <c r="E20" s="138">
+      <c r="E20" s="132">
         <v>0.66820000000000002</v>
       </c>
       <c r="F20">
         <v>0.98750000000000004</v>
       </c>
-      <c r="G20" s="138">
+      <c r="G20" s="132">
         <v>0.68500000000000005</v>
       </c>
       <c r="H20">
         <v>0.98660000000000003</v>
       </c>
-      <c r="I20" s="138">
+      <c r="I20" s="132">
         <v>0.67620000000000002</v>
       </c>
       <c r="J20">
         <v>0.98750000000000004</v>
       </c>
-      <c r="K20" s="138">
+      <c r="K20" s="132">
         <v>0.67959999999999998</v>
       </c>
       <c r="L20">
-        <f>AVERAGE(J20,H20,F20,D20,B20)</f>
+        <f t="shared" si="3"/>
         <v>0.98713999999999991</v>
       </c>
-      <c r="M20" s="138">
-        <f>AVERAGE(K20,I20,G20,E20,C20)</f>
+      <c r="M20" s="132">
+        <f t="shared" si="3"/>
         <v>0.67552000000000001</v>
       </c>
     </row>
@@ -7172,30 +7236,30 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="179">
+      <c r="B23" s="170">
         <v>1</v>
       </c>
-      <c r="C23" s="179"/>
-      <c r="D23" s="179">
+      <c r="C23" s="170"/>
+      <c r="D23" s="170">
         <v>2</v>
       </c>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179">
+      <c r="E23" s="170"/>
+      <c r="F23" s="170">
         <v>3</v>
       </c>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179">
+      <c r="G23" s="170"/>
+      <c r="H23" s="170">
         <v>4</v>
       </c>
-      <c r="I23" s="179"/>
-      <c r="J23" s="179">
+      <c r="I23" s="170"/>
+      <c r="J23" s="170">
         <v>5</v>
       </c>
-      <c r="K23" s="179"/>
-      <c r="L23" s="179" t="s">
+      <c r="K23" s="170"/>
+      <c r="L23" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="M23" s="179"/>
+      <c r="M23" s="170"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -7204,39 +7268,39 @@
       <c r="B24" s="1">
         <v>0.86029999999999995</v>
       </c>
-      <c r="C24" s="137">
+      <c r="C24" s="131">
         <v>0.66120000000000001</v>
       </c>
       <c r="D24" s="1">
         <v>0.84750000000000003</v>
       </c>
-      <c r="E24" s="137">
+      <c r="E24" s="131">
         <v>0.44679999999999997</v>
       </c>
       <c r="F24" s="1">
         <v>0.85619999999999996</v>
       </c>
-      <c r="G24" s="138">
+      <c r="G24" s="132">
         <v>0.56740000000000002</v>
       </c>
       <c r="H24" s="1">
         <v>0.84950000000000003</v>
       </c>
-      <c r="I24" s="138">
+      <c r="I24" s="132">
         <v>0.63929999999999998</v>
       </c>
       <c r="J24" s="1">
         <v>0.85360000000000003</v>
       </c>
-      <c r="K24" s="138">
+      <c r="K24" s="132">
         <v>0.45029999999999998</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:M27" si="2">AVERAGE(J24,H24,F24,D24,B24)</f>
+        <f t="shared" ref="L24:M27" si="4">AVERAGE(J24,H24,F24,D24,B24)</f>
         <v>0.85342000000000007</v>
       </c>
-      <c r="M24" s="138">
-        <f t="shared" si="2"/>
+      <c r="M24" s="132">
+        <f t="shared" si="4"/>
         <v>0.55300000000000005</v>
       </c>
     </row>
@@ -7247,39 +7311,39 @@
       <c r="B25">
         <v>0.85089999999999999</v>
       </c>
-      <c r="C25" s="138">
+      <c r="C25" s="132">
         <v>0.48080000000000001</v>
       </c>
       <c r="D25">
         <v>0.85489999999999999</v>
       </c>
-      <c r="E25" s="138">
+      <c r="E25" s="132">
         <v>0.46810000000000002</v>
       </c>
       <c r="F25">
         <v>0.85219999999999996</v>
       </c>
-      <c r="G25" s="138">
+      <c r="G25" s="132">
         <v>0.45889999999999997</v>
       </c>
       <c r="H25">
         <v>0.85429999999999995</v>
       </c>
-      <c r="I25" s="138">
+      <c r="I25" s="132">
         <v>0.47970000000000002</v>
       </c>
       <c r="J25">
         <v>0.84889999999999999</v>
       </c>
-      <c r="K25" s="138">
+      <c r="K25" s="132">
         <v>0.50660000000000005</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.85223999999999989</v>
       </c>
-      <c r="M25" s="138">
-        <f t="shared" si="2"/>
+      <c r="M25" s="132">
+        <f t="shared" si="4"/>
         <v>0.47881999999999997</v>
       </c>
     </row>
@@ -7290,39 +7354,39 @@
       <c r="B26">
         <v>0.83940000000000003</v>
       </c>
-      <c r="C26" s="138">
+      <c r="C26" s="132">
         <v>0.55579999999999996</v>
       </c>
       <c r="D26">
         <v>0.85489999999999999</v>
       </c>
-      <c r="E26" s="138">
+      <c r="E26" s="132">
         <v>0.55000000000000004</v>
       </c>
       <c r="F26">
         <v>0.85629999999999995</v>
       </c>
-      <c r="G26" s="138">
+      <c r="G26" s="132">
         <v>0.49</v>
       </c>
       <c r="H26">
         <v>0.85829999999999995</v>
       </c>
-      <c r="I26" s="138">
+      <c r="I26" s="132">
         <v>0.46679999999999999</v>
       </c>
       <c r="J26">
         <v>0.85560000000000003</v>
       </c>
-      <c r="K26" s="138">
+      <c r="K26" s="132">
         <v>0.50790000000000002</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.85289999999999999</v>
       </c>
-      <c r="M26" s="138">
-        <f>AVERAGE(K26,I26,G26,E26,C26)</f>
+      <c r="M26" s="132">
+        <f t="shared" ref="M26:M31" si="5">AVERAGE(K26,I26,G26,E26,C26)</f>
         <v>0.51410000000000011</v>
       </c>
     </row>
@@ -7333,39 +7397,39 @@
       <c r="B27">
         <v>0.85160000000000002</v>
       </c>
-      <c r="C27" s="138">
+      <c r="C27" s="132">
         <v>0.4738</v>
       </c>
       <c r="D27">
         <v>0.85089999999999999</v>
       </c>
-      <c r="E27" s="138">
+      <c r="E27" s="132">
         <v>0.51470000000000005</v>
       </c>
       <c r="F27">
         <v>0.8569</v>
       </c>
-      <c r="G27" s="138">
+      <c r="G27" s="132">
         <v>0.53300000000000003</v>
       </c>
       <c r="H27">
         <v>0.84140000000000004</v>
       </c>
-      <c r="I27" s="138">
+      <c r="I27" s="132">
         <v>0.45390000000000003</v>
       </c>
       <c r="J27">
         <v>0.85629999999999995</v>
       </c>
-      <c r="K27" s="138">
+      <c r="K27" s="132">
         <v>0.53349999999999997</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.85142000000000007</v>
       </c>
-      <c r="M27" s="138">
-        <f>AVERAGE(K27,I27,G27,E27,C27)</f>
+      <c r="M27" s="132">
+        <f t="shared" si="5"/>
         <v>0.50177999999999989</v>
       </c>
     </row>
@@ -7376,39 +7440,39 @@
       <c r="B28">
         <v>0.98570000000000002</v>
       </c>
-      <c r="C28" s="137">
+      <c r="C28" s="131">
         <v>0.73670000000000002</v>
       </c>
       <c r="D28">
         <v>0.99099999999999999</v>
       </c>
-      <c r="E28" s="137">
+      <c r="E28" s="131">
         <v>0.75029999999999997</v>
       </c>
       <c r="F28">
         <v>0.99009999999999998</v>
       </c>
-      <c r="G28" s="138">
+      <c r="G28" s="132">
         <v>0.70209999999999995</v>
       </c>
       <c r="H28">
         <v>0.98919999999999997</v>
       </c>
-      <c r="I28" s="138">
+      <c r="I28" s="132">
         <v>0.73409999999999997</v>
       </c>
       <c r="J28">
         <v>0.98839999999999995</v>
       </c>
-      <c r="K28" s="138">
+      <c r="K28" s="132">
         <v>0.72240000000000004</v>
       </c>
       <c r="L28">
         <f>AVERAGE(J28,H28,F28,D28,B28)</f>
         <v>0.98887999999999998</v>
       </c>
-      <c r="M28" s="138">
-        <f>AVERAGE(K28,I28,G28,E28,C28)</f>
+      <c r="M28" s="132">
+        <f t="shared" si="5"/>
         <v>0.72911999999999999</v>
       </c>
     </row>
@@ -7419,39 +7483,39 @@
       <c r="B29">
         <v>0.98919999999999997</v>
       </c>
-      <c r="C29" s="138">
+      <c r="C29" s="132">
         <v>0.66759999999999997</v>
       </c>
       <c r="D29">
         <v>0.98839999999999995</v>
       </c>
-      <c r="E29" s="138">
+      <c r="E29" s="132">
         <v>0.67230000000000001</v>
       </c>
       <c r="F29">
         <v>0.99009999999999998</v>
       </c>
-      <c r="G29" s="138">
+      <c r="G29" s="132">
         <v>0.65449999999999997</v>
       </c>
       <c r="H29">
         <v>0.9919</v>
       </c>
-      <c r="I29" s="138">
+      <c r="I29" s="132">
         <v>0.67730000000000001</v>
       </c>
       <c r="J29">
         <v>0.99009999999999998</v>
       </c>
-      <c r="K29" s="138">
+      <c r="K29" s="132">
         <v>0.64529999999999998</v>
       </c>
       <c r="L29">
         <f>AVERAGE(J29,H29,F29,D29,B29)</f>
         <v>0.98994000000000004</v>
       </c>
-      <c r="M29" s="138">
-        <f>AVERAGE(K29,I29,G29,E29,C29)</f>
+      <c r="M29" s="132">
+        <f t="shared" si="5"/>
         <v>0.66339999999999999</v>
       </c>
     </row>
@@ -7462,39 +7526,39 @@
       <c r="B30">
         <v>0.99099999999999999</v>
       </c>
-      <c r="C30" s="138">
+      <c r="C30" s="132">
         <v>0.67720000000000002</v>
       </c>
       <c r="D30">
         <v>0.99009999999999998</v>
       </c>
-      <c r="E30" s="138">
+      <c r="E30" s="132">
         <v>0.67130000000000001</v>
       </c>
       <c r="F30">
         <v>0.98570000000000002</v>
       </c>
-      <c r="G30" s="138">
+      <c r="G30" s="132">
         <v>0.69779999999999998</v>
       </c>
       <c r="H30">
         <v>0.98570000000000002</v>
       </c>
-      <c r="I30" s="138">
+      <c r="I30" s="132">
         <v>0.67400000000000004</v>
       </c>
       <c r="J30">
         <v>0.98570000000000002</v>
       </c>
-      <c r="K30" s="138">
+      <c r="K30" s="132">
         <v>0.69969999999999999</v>
       </c>
       <c r="L30">
         <f>AVERAGE(J30,H30,F30,D30,B30)</f>
         <v>0.98764000000000007</v>
       </c>
-      <c r="M30" s="138">
-        <f>AVERAGE(K30,I30,G30,E30,C30)</f>
+      <c r="M30" s="132">
+        <f t="shared" si="5"/>
         <v>0.68399999999999994</v>
       </c>
     </row>
@@ -7505,39 +7569,39 @@
       <c r="B31">
         <v>0.98660000000000003</v>
       </c>
-      <c r="C31" s="138">
+      <c r="C31" s="132">
         <v>0.69389999999999996</v>
       </c>
       <c r="D31">
         <v>0.98660000000000003</v>
       </c>
-      <c r="E31" s="138">
+      <c r="E31" s="132">
         <v>0.75180000000000002</v>
       </c>
       <c r="F31">
         <v>0.98480000000000001</v>
       </c>
-      <c r="G31" s="138">
+      <c r="G31" s="132">
         <v>0.7117</v>
       </c>
       <c r="H31">
         <v>0.98660000000000003</v>
       </c>
-      <c r="I31" s="138">
+      <c r="I31" s="132">
         <v>0.7046</v>
       </c>
       <c r="J31">
         <v>0.99009999999999998</v>
       </c>
-      <c r="K31" s="138">
+      <c r="K31" s="132">
         <v>0.70130000000000003</v>
       </c>
       <c r="L31">
         <f>AVERAGE(J31,H31,F31,D31,B31)</f>
         <v>0.98694000000000004</v>
       </c>
-      <c r="M31" s="138">
-        <f>AVERAGE(K31,I31,G31,E31,C31)</f>
+      <c r="M31" s="132">
+        <f t="shared" si="5"/>
         <v>0.71265999999999996</v>
       </c>
     </row>
@@ -7545,30 +7609,30 @@
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="179">
+      <c r="B34" s="170">
         <v>1</v>
       </c>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179">
+      <c r="C34" s="170"/>
+      <c r="D34" s="170">
         <v>2</v>
       </c>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179">
+      <c r="E34" s="170"/>
+      <c r="F34" s="170">
         <v>3</v>
       </c>
-      <c r="G34" s="179"/>
-      <c r="H34" s="179">
+      <c r="G34" s="170"/>
+      <c r="H34" s="170">
         <v>4</v>
       </c>
-      <c r="I34" s="179"/>
-      <c r="J34" s="179">
+      <c r="I34" s="170"/>
+      <c r="J34" s="170">
         <v>5</v>
       </c>
-      <c r="K34" s="179"/>
-      <c r="L34" s="179" t="s">
+      <c r="K34" s="170"/>
+      <c r="L34" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="M34" s="179"/>
+      <c r="M34" s="170"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
@@ -7577,39 +7641,39 @@
       <c r="B35" s="1">
         <v>0.84750000000000003</v>
       </c>
-      <c r="C35" s="137">
+      <c r="C35" s="131">
         <v>0.67620000000000002</v>
       </c>
       <c r="D35" s="1">
         <v>0.8306</v>
       </c>
-      <c r="E35" s="137">
+      <c r="E35" s="131">
         <v>0.63570000000000004</v>
       </c>
       <c r="F35" s="1">
         <v>0.83599999999999997</v>
       </c>
-      <c r="G35" s="138">
+      <c r="G35" s="132">
         <v>0.59409999999999996</v>
       </c>
       <c r="H35" s="1">
         <v>0.85419999999999996</v>
       </c>
-      <c r="I35" s="138">
+      <c r="I35" s="132">
         <v>0.68179999999999996</v>
       </c>
       <c r="J35" s="1">
         <v>0.82589999999999997</v>
       </c>
-      <c r="K35" s="138">
+      <c r="K35" s="132">
         <v>0.67030000000000001</v>
       </c>
       <c r="L35">
-        <f t="shared" ref="L35" si="3">AVERAGE(J35,H35,F35,D35,B35)</f>
+        <f t="shared" ref="L35" si="6">AVERAGE(J35,H35,F35,D35,B35)</f>
         <v>0.83883999999999992</v>
       </c>
-      <c r="M35" s="138">
-        <f t="shared" ref="M35" si="4">AVERAGE(K35,I35,G35,E35,C35)</f>
+      <c r="M35" s="132">
+        <f t="shared" ref="M35" si="7">AVERAGE(K35,I35,G35,E35,C35)</f>
         <v>0.65162000000000009</v>
       </c>
     </row>
@@ -7620,39 +7684,39 @@
       <c r="B36">
         <v>0.85829999999999995</v>
       </c>
-      <c r="C36" s="138">
+      <c r="C36" s="132">
         <v>0.75800000000000001</v>
       </c>
       <c r="D36">
         <v>0.81169999999999998</v>
       </c>
-      <c r="E36" s="138">
+      <c r="E36" s="132">
         <v>0.78500000000000003</v>
       </c>
       <c r="F36">
         <v>0.84140000000000004</v>
       </c>
-      <c r="G36" s="138">
+      <c r="G36" s="132">
         <v>0.74609999999999999</v>
       </c>
       <c r="H36">
         <v>0.8367</v>
       </c>
-      <c r="I36" s="138">
+      <c r="I36" s="132">
         <v>0.74719999999999998</v>
       </c>
       <c r="J36">
         <v>0.84079999999999999</v>
       </c>
-      <c r="K36" s="138">
+      <c r="K36" s="132">
         <v>0.56420000000000003</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:L38" si="5">AVERAGE(J36,H36,F36,D36,B36)</f>
+        <f t="shared" ref="L36:L38" si="8">AVERAGE(J36,H36,F36,D36,B36)</f>
         <v>0.83778000000000008</v>
       </c>
-      <c r="M36" s="138">
-        <f t="shared" ref="M36:M38" si="6">AVERAGE(K36,I36,G36,E36,C36)</f>
+      <c r="M36" s="132">
+        <f t="shared" ref="M36:M38" si="9">AVERAGE(K36,I36,G36,E36,C36)</f>
         <v>0.72010000000000007</v>
       </c>
     </row>
@@ -7663,39 +7727,39 @@
       <c r="B37">
         <v>0.98740000000000006</v>
       </c>
-      <c r="C37" s="138">
+      <c r="C37" s="132">
         <v>0.70730000000000004</v>
       </c>
       <c r="D37">
         <v>0.98570000000000002</v>
       </c>
-      <c r="E37" s="138">
+      <c r="E37" s="132">
         <v>0.69059999999999999</v>
       </c>
       <c r="F37">
         <v>0.98919999999999997</v>
       </c>
-      <c r="G37" s="138">
+      <c r="G37" s="132">
         <v>0.70030000000000003</v>
       </c>
       <c r="H37">
         <v>0.97670000000000001</v>
       </c>
-      <c r="I37" s="138">
+      <c r="I37" s="132">
         <v>0.69230000000000003</v>
       </c>
       <c r="J37">
         <v>0.98740000000000006</v>
       </c>
-      <c r="K37" s="138">
+      <c r="K37" s="132">
         <v>0.70569999999999999</v>
       </c>
       <c r="L37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.98528000000000004</v>
       </c>
-      <c r="M37" s="138">
-        <f t="shared" si="6"/>
+      <c r="M37" s="132">
+        <f t="shared" si="9"/>
         <v>0.69923999999999997</v>
       </c>
     </row>
@@ -7706,39 +7770,39 @@
       <c r="B38">
         <v>0.98839999999999995</v>
       </c>
-      <c r="C38" s="138">
+      <c r="C38" s="132">
         <v>0.69379999999999997</v>
       </c>
       <c r="D38">
         <v>0.99009999999999998</v>
       </c>
-      <c r="E38" s="138">
+      <c r="E38" s="132">
         <v>0.69699999999999995</v>
       </c>
       <c r="F38">
         <v>0.96960000000000002</v>
       </c>
-      <c r="G38" s="138">
+      <c r="G38" s="132">
         <v>0.746</v>
       </c>
       <c r="H38">
         <v>0.98480000000000001</v>
       </c>
-      <c r="I38" s="138">
+      <c r="I38" s="132">
         <v>0.71809999999999996</v>
       </c>
       <c r="J38">
         <v>0.98919999999999997</v>
       </c>
-      <c r="K38" s="138">
+      <c r="K38" s="132">
         <v>0.71899999999999997</v>
       </c>
       <c r="L38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.98442000000000007</v>
       </c>
-      <c r="M38" s="138">
-        <f t="shared" si="6"/>
+      <c r="M38" s="132">
+        <f t="shared" si="9"/>
         <v>0.71477999999999997</v>
       </c>
     </row>
@@ -7763,7 +7827,7 @@
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="139">
+      <c r="B42" s="133">
         <v>0.76071999999999995</v>
       </c>
       <c r="C42">
@@ -7776,7 +7840,7 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F42:F43" si="7">D42-E42</f>
+        <f t="shared" ref="F42:F43" si="10">D42-E42</f>
         <v>0.32189999999999996</v>
       </c>
     </row>
@@ -7797,7 +7861,7 @@
         <v>0.72911999999999999</v>
       </c>
       <c r="F43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.517999999999998E-2</v>
       </c>
     </row>
@@ -7839,7 +7903,7 @@
         <v>0.66339999999999999</v>
       </c>
       <c r="F45">
-        <f t="shared" ref="F45:F46" si="8">D45-E45</f>
+        <f t="shared" ref="F45:F46" si="11">D45-E45</f>
         <v>-2.7000000000000357E-3</v>
       </c>
     </row>
@@ -7857,24 +7921,12 @@
         <v>0.5141</v>
       </c>
       <c r="F46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.13749999999999996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -7887,6 +7939,18 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
